--- a/info/ResourceBundle.xlsx
+++ b/info/ResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\GitHub\agenciaDeViajes\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB9BF9-7AE6-4B78-96CE-86957AD93AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073184F9-6125-424A-9E53-B82E374A778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5ACD5306-D8F0-41FA-948E-8F34C9ACE6C0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="258">
   <si>
     <t>CrearReservaController</t>
   </si>
@@ -783,6 +783,36 @@
   </si>
   <si>
     <t>lblDescription</t>
+  </si>
+  <si>
+    <t>EstadisticasController</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICAS</t>
+  </si>
+  <si>
+    <t>lblDestinosReservados</t>
+  </si>
+  <si>
+    <t>DESTINOS MAS RESERVADOS</t>
+  </si>
+  <si>
+    <t>lblDestinosBuscados</t>
+  </si>
+  <si>
+    <t>DESTINOS MAS BUSCADOS</t>
+  </si>
+  <si>
+    <t>lblGuiasPuntuados</t>
+  </si>
+  <si>
+    <t>lblPaquetesReservados</t>
+  </si>
+  <si>
+    <t>PAQUETES MAS RESERVADOS</t>
+  </si>
+  <si>
+    <t>GUIAS MEJOR PUNTUADOS</t>
   </si>
 </sst>
 </file>
@@ -867,8 +897,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K157" totalsRowShown="0">
-  <autoFilter ref="A2:K157" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K162" totalsRowShown="0">
+  <autoFilter ref="A2:K162" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DB61A800-468E-4337-AB63-C4B3FCA1212A}" name="Controller"/>
     <tableColumn id="2" xr3:uid="{859C3FBF-7B94-4EC0-9049-1A9A7EFB23B5}" name="ID"/>
@@ -883,10 +913,10 @@
     <tableColumn id="6" xr3:uid="{3D15E314-DDCA-4343-B611-6C9AC1D2B7B2}" name="EnglishCode" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1FB89185-D409-49B2-B47A-BF9A8BEBAB1A}" name="Bundle" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{1FB89185-D409-49B2-B47A-BF9A8BEBAB1A}" name="Bundle" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EC4DAAC5-E21F-4372-AA13-BA91C381F7F4}" name="Comilla" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{EC4DAAC5-E21F-4372-AA13-BA91C381F7F4}" name="Comilla" dataDxfId="2">
       <calculatedColumnFormula>""""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{43116E99-F4C2-472F-A371-C680DC5C153B}" name="Label/Columna" dataDxfId="1">
@@ -1197,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD659E6-F76E-49E6-BFF1-9AC73BCA288A}">
-  <dimension ref="A2:K157"/>
+  <dimension ref="A2:K162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(A3,".",B3)</f>
+        <f t="shared" ref="C3:C34" si="0">CONCATENATE(A3,".",B3)</f>
         <v>CrearReservaController.lblTitle</v>
       </c>
       <c r="D3" t="s">
@@ -1276,19 +1306,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblTitle=</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblTitle")</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I36" si="0">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J3" s="1" t="str">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I36" si="1">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J3" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("CrearReservaController.lblTitle"));</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("CrearReservaController.lblTitle"));</v>
       </c>
@@ -1301,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(A4,".",B4)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblinfoPackage</v>
       </c>
       <c r="D4" t="s">
@@ -1315,19 +1345,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblinfoPackage=</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblinfoPackage")</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J4" s="1" t="str">
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J4" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblinfoPackage.setText(bundle.getString("CrearReservaController.lblinfoPackage"));</v>
       </c>
-      <c r="K4" s="1" t="str">
+      <c r="K4" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblinfoPackage.setPromptText(bundle.getString("CrearReservaController.lblinfoPackage"));</v>
       </c>
@@ -1340,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(A5,".",B5)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblFecha</v>
       </c>
       <c r="D5" t="s">
@@ -1354,19 +1384,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblFecha=</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblFecha")</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J5" s="1" t="str">
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J5" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFecha.setText(bundle.getString("CrearReservaController.lblFecha"));</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFecha.setPromptText(bundle.getString("CrearReservaController.lblFecha"));</v>
       </c>
@@ -1379,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(A6,".",B6)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblRangoDisponible</v>
       </c>
       <c r="D6" t="s">
@@ -1393,19 +1423,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblRangoDisponible=</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblRangoDisponible")</v>
       </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J6" s="1" t="str">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J6" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblRangoDisponible.setText(bundle.getString("CrearReservaController.lblRangoDisponible"));</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblRangoDisponible.setPromptText(bundle.getString("CrearReservaController.lblRangoDisponible"));</v>
       </c>
@@ -1418,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(A7,".",B7)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblFechaInicial</v>
       </c>
       <c r="D7" t="s">
@@ -1432,19 +1462,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblFechaInicial=</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblFechaInicial")</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J7" s="1" t="str">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J7" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicial.setText(bundle.getString("CrearReservaController.lblFechaInicial"));</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K7" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicial.setPromptText(bundle.getString("CrearReservaController.lblFechaInicial"));</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(A8,".",B8)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblFechaFinal</v>
       </c>
       <c r="D8" t="s">
@@ -1471,19 +1501,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblFechaFinal=</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblFechaFinal")</v>
       </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J8" s="1" t="str">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J8" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFinal.setText(bundle.getString("CrearReservaController.lblFechaFinal"));</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="K8" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFinal.setPromptText(bundle.getString("CrearReservaController.lblFechaFinal"));</v>
       </c>
@@ -1496,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(A9,".",B9)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblCant</v>
       </c>
       <c r="D9" t="s">
@@ -1510,19 +1540,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblCant=</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblCant")</v>
       </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J9" s="1" t="str">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J9" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCant.setText(bundle.getString("CrearReservaController.lblCant"));</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="K9" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCant.setPromptText(bundle.getString("CrearReservaController.lblCant"));</v>
       </c>
@@ -1535,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE(A10,".",B10)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblCupoMaximo</v>
       </c>
       <c r="D10" t="s">
@@ -1549,19 +1579,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblCupoMaximo=</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblCupoMaximo")</v>
       </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J10" s="1" t="str">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J10" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCupoMaximo.setText(bundle.getString("CrearReservaController.lblCupoMaximo"));</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K10" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCupoMaximo.setPromptText(bundle.getString("CrearReservaController.lblCupoMaximo"));</v>
       </c>
@@ -1574,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE(A11,".",B11)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.lblGuia</v>
       </c>
       <c r="D11" t="s">
@@ -1588,19 +1618,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.lblGuia=</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.lblGuia")</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J11" s="1" t="str">
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J11" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblGuia.setText(bundle.getString("CrearReservaController.lblGuia"));</v>
       </c>
-      <c r="K11" s="1" t="str">
+      <c r="K11" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblGuia.setPromptText(bundle.getString("CrearReservaController.lblGuia"));</v>
       </c>
@@ -1613,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE(A12,".",B12)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.clmIdioma</v>
       </c>
       <c r="D12" t="s">
@@ -1627,19 +1657,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.clmIdioma=</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.clmIdioma")</v>
       </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J12" s="1" t="str">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J12" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmIdioma.setText(bundle.getString("CrearReservaController.clmIdioma"));</v>
       </c>
-      <c r="K12" s="1" t="str">
+      <c r="K12" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmIdioma.setPromptText(bundle.getString("CrearReservaController.clmIdioma"));</v>
       </c>
@@ -1652,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE(A13,".",B13)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.clmId</v>
       </c>
       <c r="D13" t="s">
@@ -1666,19 +1696,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.clmId=</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.clmId")</v>
       </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J13" s="1" t="str">
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J13" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmId.setText(bundle.getString("CrearReservaController.clmId"));</v>
       </c>
-      <c r="K13" s="1" t="str">
+      <c r="K13" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmId.setPromptText(bundle.getString("CrearReservaController.clmId"));</v>
       </c>
@@ -1691,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE(A14,".",B14)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.clmName</v>
       </c>
       <c r="D14" t="s">
@@ -1705,19 +1735,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.clmName=</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.clmName")</v>
       </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J14" s="1" t="str">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J14" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmName.setText(bundle.getString("CrearReservaController.clmName"));</v>
       </c>
-      <c r="K14" s="1" t="str">
+      <c r="K14" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmName.setPromptText(bundle.getString("CrearReservaController.clmName"));</v>
       </c>
@@ -1730,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE(A15,".",B15)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.clmExp</v>
       </c>
       <c r="D15" t="s">
@@ -1744,19 +1774,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.clmExp=</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.clmExp")</v>
       </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J15" s="1" t="str">
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J15" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmExp.setText(bundle.getString("CrearReservaController.clmExp"));</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="K15" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>clmExp.setPromptText(bundle.getString("CrearReservaController.clmExp"));</v>
       </c>
@@ -1769,7 +1799,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(A16,".",B16)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.btnLimpiarSeleccion</v>
       </c>
       <c r="D16" t="s">
@@ -1783,19 +1813,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.btnLimpiarSeleccion=</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H16" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.btnLimpiarSeleccion")</v>
       </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J16" s="1" t="str">
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J16" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLimpiarSeleccion.setText(bundle.getString("CrearReservaController.btnLimpiarSeleccion"));</v>
       </c>
-      <c r="K16" s="1" t="str">
+      <c r="K16" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLimpiarSeleccion.setPromptText(bundle.getString("CrearReservaController.btnLimpiarSeleccion"));</v>
       </c>
@@ -1808,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(A17,".",B17)</f>
+        <f t="shared" si="0"/>
         <v>CrearReservaController.btnReservar</v>
       </c>
       <c r="D17" t="s">
@@ -1822,19 +1852,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>CrearReservaController.btnReservar=</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("CrearReservaController.btnReservar")</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J17" s="1" t="str">
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J17" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnReservar.setText(bundle.getString("CrearReservaController.btnReservar"));</v>
       </c>
-      <c r="K17" s="1" t="str">
+      <c r="K17" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnReservar.setPromptText(bundle.getString("CrearReservaController.btnReservar"));</v>
       </c>
@@ -1846,34 +1876,34 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f>CONCATENATE(A18,".",B18)</f>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
         <v>DestinoDetailsController.lblTitle</v>
       </c>
       <c r="D18" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblTitle=Detalle Destino</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>DestinoDetailsController.lblTitle=</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="H18" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("DestinoDetailsController.lblTitle")</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I18" t="str">
         <f>""""</f>
         <v>"</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="J18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("DestinoDetailsController.lblTitle"));</v>
       </c>
-      <c r="K18" s="1" t="str">
+      <c r="K18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("DestinoDetailsController.lblTitle"));</v>
       </c>
@@ -1886,7 +1916,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE(A19,".",B19)</f>
+        <f t="shared" si="0"/>
         <v>DestinoDetailsController.lblCiudad</v>
       </c>
       <c r="D19" t="s">
@@ -1900,19 +1930,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>DestinoDetailsController.lblCiudad=</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="H19" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("DestinoDetailsController.lblCiudad")</v>
       </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J19" s="1" t="str">
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J19" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCiudad.setText(bundle.getString("DestinoDetailsController.lblCiudad"));</v>
       </c>
-      <c r="K19" s="1" t="str">
+      <c r="K19" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCiudad.setPromptText(bundle.getString("DestinoDetailsController.lblCiudad"));</v>
       </c>
@@ -1924,34 +1954,34 @@
       <c r="B20" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f>CONCATENATE(A20,".",B20)</f>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
         <v>DestinoDetailsController.lblDescription</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="F20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblDescription=Descripcion</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>DestinoDetailsController.lblDescription=</v>
       </c>
-      <c r="H20" s="1" t="str">
+      <c r="H20" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("DestinoDetailsController.lblDescription")</v>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="I20" t="str">
         <f>""""</f>
         <v>"</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="J20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDescription.setText(bundle.getString("DestinoDetailsController.lblDescription"));</v>
       </c>
-      <c r="K20" s="1" t="str">
+      <c r="K20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDescription.setPromptText(bundle.getString("DestinoDetailsController.lblDescription"));</v>
       </c>
@@ -1964,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE(A21,".",B21)</f>
+        <f t="shared" si="0"/>
         <v>DestinoDetailsController.lblClima</v>
       </c>
       <c r="D21" t="s">
@@ -1978,19 +2008,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>DestinoDetailsController.lblClima=</v>
       </c>
-      <c r="H21" s="1" t="str">
+      <c r="H21" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("DestinoDetailsController.lblClima")</v>
       </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J21" s="1" t="str">
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J21" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblClima.setText(bundle.getString("DestinoDetailsController.lblClima"));</v>
       </c>
-      <c r="K21" s="1" t="str">
+      <c r="K21" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblClima.setPromptText(bundle.getString("DestinoDetailsController.lblClima"));</v>
       </c>
@@ -2003,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f>CONCATENATE(A22,".",B22)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.lblTitle</v>
       </c>
       <c r="D22" t="s">
@@ -2017,19 +2047,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.lblTitle=</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="H22" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.lblTitle")</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J22" s="1" t="str">
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("GestionarDestinosController.lblTitle"));</v>
       </c>
-      <c r="K22" s="1" t="str">
+      <c r="K22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("GestionarDestinosController.lblTitle"));</v>
       </c>
@@ -2042,7 +2072,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="str">
-        <f>CONCATENATE(A23,".",B23)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.txtBuscar</v>
       </c>
       <c r="D23" t="s">
@@ -2056,19 +2086,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.txtBuscar=</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H23" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.txtBuscar")</v>
       </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J23" s="1" t="str">
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J23" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setText(bundle.getString("GestionarDestinosController.txtBuscar"));</v>
       </c>
-      <c r="K23" s="1" t="str">
+      <c r="K23" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setPromptText(bundle.getString("GestionarDestinosController.txtBuscar"));</v>
       </c>
@@ -2081,7 +2111,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE(A24,".",B24)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.colId</v>
       </c>
       <c r="D24" t="s">
@@ -2095,19 +2125,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.colId=</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H24" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.colId")</v>
       </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J24" s="1" t="str">
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J24" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setText(bundle.getString("GestionarDestinosController.colId"));</v>
       </c>
-      <c r="K24" s="1" t="str">
+      <c r="K24" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setPromptText(bundle.getString("GestionarDestinosController.colId"));</v>
       </c>
@@ -2120,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="str">
-        <f>CONCATENATE(A25,".",B25)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.colNombre</v>
       </c>
       <c r="D25" t="s">
@@ -2134,19 +2164,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.colNombre=</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H25" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.colNombre")</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J25" s="1" t="str">
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J25" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setText(bundle.getString("GestionarDestinosController.colNombre"));</v>
       </c>
-      <c r="K25" s="1" t="str">
+      <c r="K25" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setPromptText(bundle.getString("GestionarDestinosController.colNombre"));</v>
       </c>
@@ -2159,7 +2189,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="str">
-        <f>CONCATENATE(A26,".",B26)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.colCiudad</v>
       </c>
       <c r="D26" t="s">
@@ -2173,19 +2203,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.colCiudad=</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="H26" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.colCiudad")</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J26" s="1" t="str">
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J26" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCiudad.setText(bundle.getString("GestionarDestinosController.colCiudad"));</v>
       </c>
-      <c r="K26" s="1" t="str">
+      <c r="K26" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCiudad.setPromptText(bundle.getString("GestionarDestinosController.colCiudad"));</v>
       </c>
@@ -2198,7 +2228,7 @@
         <v>48</v>
       </c>
       <c r="C27" t="str">
-        <f>CONCATENATE(A27,".",B27)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.colDescripcion</v>
       </c>
       <c r="D27" t="s">
@@ -2212,19 +2242,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.colDescripcion=</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="H27" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.colDescripcion")</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J27" s="1" t="str">
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J27" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDescripcion.setText(bundle.getString("GestionarDestinosController.colDescripcion"));</v>
       </c>
-      <c r="K27" s="1" t="str">
+      <c r="K27" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDescripcion.setPromptText(bundle.getString("GestionarDestinosController.colDescripcion"));</v>
       </c>
@@ -2237,7 +2267,7 @@
         <v>49</v>
       </c>
       <c r="C28" t="str">
-        <f>CONCATENATE(A28,".",B28)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.colClima</v>
       </c>
       <c r="D28" t="s">
@@ -2251,19 +2281,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.colClima=</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H28" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.colClima")</v>
       </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J28" s="1" t="str">
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J28" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colClima.setText(bundle.getString("GestionarDestinosController.colClima"));</v>
       </c>
-      <c r="K28" s="1" t="str">
+      <c r="K28" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colClima.setPromptText(bundle.getString("GestionarDestinosController.colClima"));</v>
       </c>
@@ -2276,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="str">
-        <f>CONCATENATE(A29,".",B29)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.btnEliminar</v>
       </c>
       <c r="D29" t="s">
@@ -2290,19 +2320,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.btnEliminar=</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.btnEliminar")</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J29" s="1" t="str">
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J29" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnEliminar.setText(bundle.getString("GestionarDestinosController.btnEliminar"));</v>
       </c>
-      <c r="K29" s="1" t="str">
+      <c r="K29" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnEliminar.setPromptText(bundle.getString("GestionarDestinosController.btnEliminar"));</v>
       </c>
@@ -2315,7 +2345,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="str">
-        <f>CONCATENATE(A30,".",B30)</f>
+        <f t="shared" si="0"/>
         <v>GestionarDestinosController.btnAgregar</v>
       </c>
       <c r="D30" t="s">
@@ -2329,19 +2359,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarDestinosController.btnAgregar=</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H30" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarDestinosController.btnAgregar")</v>
       </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J30" s="1" t="str">
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J30" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAgregar.setText(bundle.getString("GestionarDestinosController.btnAgregar"));</v>
       </c>
-      <c r="K30" s="1" t="str">
+      <c r="K30" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAgregar.setPromptText(bundle.getString("GestionarDestinosController.btnAgregar"));</v>
       </c>
@@ -2354,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="str">
-        <f>CONCATENATE(A31,".",B31)</f>
+        <f t="shared" si="0"/>
         <v>GestionarGuiasController.lblTitle</v>
       </c>
       <c r="D31" t="s">
@@ -2368,19 +2398,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.lblTitle=</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H31" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.lblTitle")</v>
       </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J31" s="1" t="str">
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J31" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("GestionarGuiasController.lblTitle"));</v>
       </c>
-      <c r="K31" s="1" t="str">
+      <c r="K31" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("GestionarGuiasController.lblTitle"));</v>
       </c>
@@ -2393,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="str">
-        <f>CONCATENATE(A32,".",B32)</f>
+        <f t="shared" si="0"/>
         <v>GestionarGuiasController.txtBuscar</v>
       </c>
       <c r="D32" t="s">
@@ -2407,19 +2437,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.txtBuscar=</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H32" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.txtBuscar")</v>
       </c>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J32" s="1" t="str">
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J32" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setText(bundle.getString("GestionarGuiasController.txtBuscar"));</v>
       </c>
-      <c r="K32" s="1" t="str">
+      <c r="K32" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setPromptText(bundle.getString("GestionarGuiasController.txtBuscar"));</v>
       </c>
@@ -2432,7 +2462,7 @@
         <v>46</v>
       </c>
       <c r="C33" t="str">
-        <f>CONCATENATE(A33,".",B33)</f>
+        <f t="shared" si="0"/>
         <v>GestionarGuiasController.colNombre</v>
       </c>
       <c r="D33" t="s">
@@ -2446,19 +2476,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.colNombre=</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.colNombre")</v>
       </c>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J33" s="1" t="str">
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J33" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setText(bundle.getString("GestionarGuiasController.colNombre"));</v>
       </c>
-      <c r="K33" s="1" t="str">
+      <c r="K33" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setPromptText(bundle.getString("GestionarGuiasController.colNombre"));</v>
       </c>
@@ -2471,7 +2501,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="str">
-        <f>CONCATENATE(A34,".",B34)</f>
+        <f t="shared" si="0"/>
         <v>GestionarGuiasController.colIdentificacion</v>
       </c>
       <c r="D34" t="s">
@@ -2485,19 +2515,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.colIdentificacion=</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.colIdentificacion")</v>
       </c>
-      <c r="I34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J34" s="1" t="str">
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J34" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdentificacion.setText(bundle.getString("GestionarGuiasController.colIdentificacion"));</v>
       </c>
-      <c r="K34" s="1" t="str">
+      <c r="K34" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdentificacion.setPromptText(bundle.getString("GestionarGuiasController.colIdentificacion"));</v>
       </c>
@@ -2510,7 +2540,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="str">
-        <f>CONCATENATE(A35,".",B35)</f>
+        <f t="shared" ref="C35:C66" si="2">CONCATENATE(A35,".",B35)</f>
         <v>GestionarGuiasController.colHorasExperiencia</v>
       </c>
       <c r="D35" t="s">
@@ -2524,19 +2554,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.colHorasExperiencia=</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H35" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.colHorasExperiencia")</v>
       </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J35" s="1" t="str">
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J35" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colHorasExperiencia.setText(bundle.getString("GestionarGuiasController.colHorasExperiencia"));</v>
       </c>
-      <c r="K35" s="1" t="str">
+      <c r="K35" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colHorasExperiencia.setPromptText(bundle.getString("GestionarGuiasController.colHorasExperiencia"));</v>
       </c>
@@ -2549,7 +2579,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="str">
-        <f>CONCATENATE(A36,".",B36)</f>
+        <f t="shared" si="2"/>
         <v>GestionarGuiasController.colIdiomas</v>
       </c>
       <c r="D36" t="s">
@@ -2563,19 +2593,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.colIdiomas=</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.colIdiomas")</v>
       </c>
-      <c r="I36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"</v>
-      </c>
-      <c r="J36" s="1" t="str">
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>"</v>
+      </c>
+      <c r="J36" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdiomas.setText(bundle.getString("GestionarGuiasController.colIdiomas"));</v>
       </c>
-      <c r="K36" s="1" t="str">
+      <c r="K36" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdiomas.setPromptText(bundle.getString("GestionarGuiasController.colIdiomas"));</v>
       </c>
@@ -2588,7 +2618,7 @@
         <v>54</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE(A37,".",B37)</f>
+        <f t="shared" si="2"/>
         <v>GestionarGuiasController.btnEliminar</v>
       </c>
       <c r="D37" t="s">
@@ -2602,19 +2632,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.btnEliminar=</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H37" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.btnEliminar")</v>
       </c>
-      <c r="I37" s="1" t="str">
-        <f t="shared" ref="I37:I68" si="1">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J37" s="1" t="str">
+      <c r="I37" t="str">
+        <f t="shared" ref="I37:I68" si="3">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J37" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnEliminar.setText(bundle.getString("GestionarGuiasController.btnEliminar"));</v>
       </c>
-      <c r="K37" s="1" t="str">
+      <c r="K37" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnEliminar.setPromptText(bundle.getString("GestionarGuiasController.btnEliminar"));</v>
       </c>
@@ -2627,7 +2657,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="str">
-        <f>CONCATENATE(A38,".",B38)</f>
+        <f t="shared" si="2"/>
         <v>GestionarGuiasController.btnSolicitudes</v>
       </c>
       <c r="D38" t="s">
@@ -2641,19 +2671,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarGuiasController.btnSolicitudes=</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H38" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarGuiasController.btnSolicitudes")</v>
       </c>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J38" s="1" t="str">
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J38" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnSolicitudes.setText(bundle.getString("GestionarGuiasController.btnSolicitudes"));</v>
       </c>
-      <c r="K38" s="1" t="str">
+      <c r="K38" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnSolicitudes.setPromptText(bundle.getString("GestionarGuiasController.btnSolicitudes"));</v>
       </c>
@@ -2666,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE(A39,".",B39)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.lblTitle</v>
       </c>
       <c r="D39" t="s">
@@ -2680,19 +2710,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.lblTitle=</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H39" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.lblTitle")</v>
       </c>
-      <c r="I39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J39" s="1" t="str">
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J39" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("GestionarPaquetesController.lblTitle"));</v>
       </c>
-      <c r="K39" s="1" t="str">
+      <c r="K39" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("GestionarPaquetesController.lblTitle"));</v>
       </c>
@@ -2705,7 +2735,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="str">
-        <f>CONCATENATE(A40,".",B40)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.txtBuscar</v>
       </c>
       <c r="D40" t="s">
@@ -2719,19 +2749,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.txtBuscar=</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H40" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.txtBuscar")</v>
       </c>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J40" s="1" t="str">
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J40" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setText(bundle.getString("GestionarPaquetesController.txtBuscar"));</v>
       </c>
-      <c r="K40" s="1" t="str">
+      <c r="K40" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setPromptText(bundle.getString("GestionarPaquetesController.txtBuscar"));</v>
       </c>
@@ -2744,7 +2774,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="str">
-        <f>CONCATENATE(A41,".",B41)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colId</v>
       </c>
       <c r="D41" t="s">
@@ -2758,19 +2788,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colId=</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H41" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colId")</v>
       </c>
-      <c r="I41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J41" s="1" t="str">
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J41" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setText(bundle.getString("GestionarPaquetesController.colId"));</v>
       </c>
-      <c r="K41" s="1" t="str">
+      <c r="K41" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setPromptText(bundle.getString("GestionarPaquetesController.colId"));</v>
       </c>
@@ -2783,7 +2813,7 @@
         <v>46</v>
       </c>
       <c r="C42" t="str">
-        <f>CONCATENATE(A42,".",B42)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colNombre</v>
       </c>
       <c r="D42" t="s">
@@ -2797,19 +2827,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colNombre=</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H42" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colNombre")</v>
       </c>
-      <c r="I42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J42" s="1" t="str">
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J42" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setText(bundle.getString("GestionarPaquetesController.colNombre"));</v>
       </c>
-      <c r="K42" s="1" t="str">
+      <c r="K42" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setPromptText(bundle.getString("GestionarPaquetesController.colNombre"));</v>
       </c>
@@ -2822,7 +2852,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="str">
-        <f>CONCATENATE(A43,".",B43)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colDuracion</v>
       </c>
       <c r="D43" t="s">
@@ -2836,19 +2866,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colDuracion=</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H43" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colDuracion")</v>
       </c>
-      <c r="I43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J43" s="1" t="str">
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J43" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDuracion.setText(bundle.getString("GestionarPaquetesController.colDuracion"));</v>
       </c>
-      <c r="K43" s="1" t="str">
+      <c r="K43" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDuracion.setPromptText(bundle.getString("GestionarPaquetesController.colDuracion"));</v>
       </c>
@@ -2861,7 +2891,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="str">
-        <f>CONCATENATE(A44,".",B44)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colServicios</v>
       </c>
       <c r="D44" t="s">
@@ -2875,19 +2905,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colServicios=</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H44" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colServicios")</v>
       </c>
-      <c r="I44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J44" s="1" t="str">
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J44" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colServicios.setText(bundle.getString("GestionarPaquetesController.colServicios"));</v>
       </c>
-      <c r="K44" s="1" t="str">
+      <c r="K44" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colServicios.setPromptText(bundle.getString("GestionarPaquetesController.colServicios"));</v>
       </c>
@@ -2900,7 +2930,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="str">
-        <f>CONCATENATE(A45,".",B45)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colCupoMaximo</v>
       </c>
       <c r="D45" t="s">
@@ -2914,19 +2944,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colCupoMaximo=</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H45" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colCupoMaximo")</v>
       </c>
-      <c r="I45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J45" s="1" t="str">
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J45" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCupoMaximo.setText(bundle.getString("GestionarPaquetesController.colCupoMaximo"));</v>
       </c>
-      <c r="K45" s="1" t="str">
+      <c r="K45" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCupoMaximo.setPromptText(bundle.getString("GestionarPaquetesController.colCupoMaximo"));</v>
       </c>
@@ -2939,7 +2969,7 @@
         <v>72</v>
       </c>
       <c r="C46" t="str">
-        <f>CONCATENATE(A46,".",B46)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colFechaInicio</v>
       </c>
       <c r="D46" t="s">
@@ -2953,19 +2983,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colFechaInicio=</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H46" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colFechaInicio")</v>
       </c>
-      <c r="I46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J46" s="1" t="str">
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J46" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colFechaInicio.setText(bundle.getString("GestionarPaquetesController.colFechaInicio"));</v>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="K46" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colFechaInicio.setPromptText(bundle.getString("GestionarPaquetesController.colFechaInicio"));</v>
       </c>
@@ -2978,7 +3008,7 @@
         <v>74</v>
       </c>
       <c r="C47" t="str">
-        <f>CONCATENATE(A47,".",B47)</f>
+        <f t="shared" si="2"/>
         <v>GestionarPaquetesController.colFechaFin</v>
       </c>
       <c r="D47" t="s">
@@ -2992,19 +3022,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GestionarPaquetesController.colFechaFin=</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H47" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GestionarPaquetesController.colFechaFin")</v>
       </c>
-      <c r="I47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J47" s="1" t="str">
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J47" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colFechaFin.setText(bundle.getString("GestionarPaquetesController.colFechaFin"));</v>
       </c>
-      <c r="K47" s="1" t="str">
+      <c r="K47" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colFechaFin.setPromptText(bundle.getString("GestionarPaquetesController.colFechaFin"));</v>
       </c>
@@ -3017,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="str">
-        <f>CONCATENATE(A48,".",B48)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.lblTitle</v>
       </c>
       <c r="D48" t="s">
@@ -3031,19 +3061,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.lblTitle=</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H48" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.lblTitle")</v>
       </c>
-      <c r="I48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J48" s="1" t="str">
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J48" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("LoginController.lblTitle"));</v>
       </c>
-      <c r="K48" s="1" t="str">
+      <c r="K48" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("LoginController.lblTitle"));</v>
       </c>
@@ -3056,7 +3086,7 @@
         <v>78</v>
       </c>
       <c r="C49" t="str">
-        <f>CONCATENATE(A49,".",B49)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.lblInfo</v>
       </c>
       <c r="D49" t="s">
@@ -3070,19 +3100,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.lblInfo=</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H49" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.lblInfo")</v>
       </c>
-      <c r="I49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J49" s="1" t="str">
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J49" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfo.setText(bundle.getString("LoginController.lblInfo"));</v>
       </c>
-      <c r="K49" s="1" t="str">
+      <c r="K49" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfo.setPromptText(bundle.getString("LoginController.lblInfo"));</v>
       </c>
@@ -3095,7 +3125,7 @@
         <v>81</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE(A50,".",B50)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.txtEmail</v>
       </c>
       <c r="D50" t="s">
@@ -3109,19 +3139,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.txtEmail=</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="H50" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.txtEmail")</v>
       </c>
-      <c r="I50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J50" s="1" t="str">
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J50" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setText(bundle.getString("LoginController.txtEmail"));</v>
       </c>
-      <c r="K50" s="1" t="str">
+      <c r="K50" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setPromptText(bundle.getString("LoginController.txtEmail"));</v>
       </c>
@@ -3134,7 +3164,7 @@
         <v>82</v>
       </c>
       <c r="C51" t="str">
-        <f>CONCATENATE(A51,".",B51)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.txtPassword</v>
       </c>
       <c r="D51" t="s">
@@ -3148,19 +3178,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.txtPassword=</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H51" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.txtPassword")</v>
       </c>
-      <c r="I51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J51" s="1" t="str">
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J51" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setText(bundle.getString("LoginController.txtPassword"));</v>
       </c>
-      <c r="K51" s="1" t="str">
+      <c r="K51" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setPromptText(bundle.getString("LoginController.txtPassword"));</v>
       </c>
@@ -3173,7 +3203,7 @@
         <v>84</v>
       </c>
       <c r="C52" t="str">
-        <f>CONCATENATE(A52,".",B52)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.btnIniciar</v>
       </c>
       <c r="D52" t="s">
@@ -3187,19 +3217,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.btnIniciar=</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="H52" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.btnIniciar")</v>
       </c>
-      <c r="I52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J52" s="1" t="str">
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J52" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnIniciar.setText(bundle.getString("LoginController.btnIniciar"));</v>
       </c>
-      <c r="K52" s="1" t="str">
+      <c r="K52" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnIniciar.setPromptText(bundle.getString("LoginController.btnIniciar"));</v>
       </c>
@@ -3212,7 +3242,7 @@
         <v>87</v>
       </c>
       <c r="C53" t="str">
-        <f>CONCATENATE(A53,".",B53)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.lblNoRegistrado</v>
       </c>
       <c r="D53" t="s">
@@ -3226,19 +3256,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.lblNoRegistrado=</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H53" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.lblNoRegistrado")</v>
       </c>
-      <c r="I53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J53" s="1" t="str">
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J53" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNoRegistrado.setText(bundle.getString("LoginController.lblNoRegistrado"));</v>
       </c>
-      <c r="K53" s="1" t="str">
+      <c r="K53" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNoRegistrado.setPromptText(bundle.getString("LoginController.lblNoRegistrado"));</v>
       </c>
@@ -3251,7 +3281,7 @@
         <v>88</v>
       </c>
       <c r="C54" t="str">
-        <f>CONCATENATE(A54,".",B54)</f>
+        <f t="shared" si="2"/>
         <v>LoginController.btnRegistrar</v>
       </c>
       <c r="D54" t="s">
@@ -3265,19 +3295,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>LoginController.btnRegistrar=</v>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H54" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("LoginController.btnRegistrar")</v>
       </c>
-      <c r="I54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J54" s="1" t="str">
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J54" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistrar.setText(bundle.getString("LoginController.btnRegistrar"));</v>
       </c>
-      <c r="K54" s="1" t="str">
+      <c r="K54" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistrar.setPromptText(bundle.getString("LoginController.btnRegistrar"));</v>
       </c>
@@ -3290,7 +3320,7 @@
         <v>90</v>
       </c>
       <c r="C55" t="str">
-        <f>CONCATENATE(A55,".",B55)</f>
+        <f t="shared" si="2"/>
         <v>MainMenuController.lblBtnDestinos</v>
       </c>
       <c r="D55" t="s">
@@ -3304,19 +3334,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MainMenuController.lblBtnDestinos=</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H55" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MainMenuController.lblBtnDestinos")</v>
       </c>
-      <c r="I55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J55" s="1" t="str">
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnDestinos.setText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
       </c>
-      <c r="K55" s="1" t="str">
+      <c r="K55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnDestinos.setPromptText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
       </c>
@@ -3329,7 +3359,7 @@
         <v>91</v>
       </c>
       <c r="C56" t="str">
-        <f>CONCATENATE(A56,".",B56)</f>
+        <f t="shared" si="2"/>
         <v>MainMenuController.lblbtnPaquetes</v>
       </c>
       <c r="D56" t="s">
@@ -3343,19 +3373,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MainMenuController.lblbtnPaquetes=</v>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H56" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MainMenuController.lblbtnPaquetes")</v>
       </c>
-      <c r="I56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J56" s="1" t="str">
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblbtnPaquetes.setText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
       </c>
-      <c r="K56" s="1" t="str">
+      <c r="K56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblbtnPaquetes.setPromptText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
       </c>
@@ -3368,7 +3398,7 @@
         <v>92</v>
       </c>
       <c r="C57" t="str">
-        <f>CONCATENATE(A57,".",B57)</f>
+        <f t="shared" si="2"/>
         <v>MainMenuController.lblBtnGuias</v>
       </c>
       <c r="D57" t="s">
@@ -3382,19 +3412,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MainMenuController.lblBtnGuias=</v>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="H57" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MainMenuController.lblBtnGuias")</v>
       </c>
-      <c r="I57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J57" s="1" t="str">
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnGuias.setText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
       </c>
-      <c r="K57" s="1" t="str">
+      <c r="K57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnGuias.setPromptText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
       </c>
@@ -3407,7 +3437,7 @@
         <v>90</v>
       </c>
       <c r="C58" t="str">
-        <f>CONCATENATE(A58,".",B58)</f>
+        <f t="shared" si="2"/>
         <v>MenuPrincipalAdminController.lblBtnDestinos</v>
       </c>
       <c r="D58" t="s">
@@ -3421,19 +3451,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MenuPrincipalAdminController.lblBtnDestinos=</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H58" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MenuPrincipalAdminController.lblBtnDestinos")</v>
       </c>
-      <c r="I58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J58" s="1" t="str">
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnDestinos.setText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
       </c>
-      <c r="K58" s="1" t="str">
+      <c r="K58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnDestinos.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
       </c>
@@ -3446,7 +3476,7 @@
         <v>91</v>
       </c>
       <c r="C59" t="str">
-        <f>CONCATENATE(A59,".",B59)</f>
+        <f t="shared" si="2"/>
         <v>MenuPrincipalAdminController.lblbtnPaquetes</v>
       </c>
       <c r="D59" t="s">
@@ -3460,19 +3490,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MenuPrincipalAdminController.lblbtnPaquetes=</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H59" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes")</v>
       </c>
-      <c r="I59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J59" s="1" t="str">
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblbtnPaquetes.setText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
       </c>
-      <c r="K59" s="1" t="str">
+      <c r="K59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblbtnPaquetes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
       </c>
@@ -3485,7 +3515,7 @@
         <v>92</v>
       </c>
       <c r="C60" t="str">
-        <f>CONCATENATE(A60,".",B60)</f>
+        <f t="shared" si="2"/>
         <v>MenuPrincipalAdminController.lblBtnGuias</v>
       </c>
       <c r="D60" t="s">
@@ -3499,19 +3529,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MenuPrincipalAdminController.lblBtnGuias=</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H60" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MenuPrincipalAdminController.lblBtnGuias")</v>
       </c>
-      <c r="I60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J60" s="1" t="str">
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnGuias.setText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
       </c>
-      <c r="K60" s="1" t="str">
+      <c r="K60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnGuias.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
       </c>
@@ -3524,7 +3554,7 @@
         <v>98</v>
       </c>
       <c r="C61" t="str">
-        <f>CONCATENATE(A61,".",B61)</f>
+        <f t="shared" si="2"/>
         <v>MenuPrincipalAdminController.lblBtnClientes</v>
       </c>
       <c r="D61" t="s">
@@ -3538,19 +3568,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>MenuPrincipalAdminController.lblBtnClientes=</v>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="H61" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("MenuPrincipalAdminController.lblBtnClientes")</v>
       </c>
-      <c r="I61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J61" s="1" t="str">
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnClientes.setText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
       </c>
-      <c r="K61" s="1" t="str">
+      <c r="K61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblBtnClientes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
       </c>
@@ -3563,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="str">
-        <f>CONCATENATE(A62,".",B62)</f>
+        <f t="shared" si="2"/>
         <v>ModificarClienteController.lblTitle</v>
       </c>
       <c r="D62" t="s">
@@ -3577,19 +3607,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.lblTitle=</v>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="H62" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.lblTitle")</v>
       </c>
-      <c r="I62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J62" s="1" t="str">
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("ModificarClienteController.lblTitle"));</v>
       </c>
-      <c r="K62" s="1" t="str">
+      <c r="K62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("ModificarClienteController.lblTitle"));</v>
       </c>
@@ -3602,7 +3632,7 @@
         <v>78</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE(A63,".",B63)</f>
+        <f t="shared" si="2"/>
         <v>ModificarClienteController.lblInfo</v>
       </c>
       <c r="D63" t="s">
@@ -3616,19 +3646,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.lblInfo=</v>
       </c>
-      <c r="H63" s="1" t="str">
+      <c r="H63" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.lblInfo")</v>
       </c>
-      <c r="I63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J63" s="1" t="str">
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfo.setText(bundle.getString("ModificarClienteController.lblInfo"));</v>
       </c>
-      <c r="K63" s="1" t="str">
+      <c r="K63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfo.setPromptText(bundle.getString("ModificarClienteController.lblInfo"));</v>
       </c>
@@ -3641,7 +3671,7 @@
         <v>111</v>
       </c>
       <c r="C64" t="str">
-        <f>CONCATENATE(A64,".",B64)</f>
+        <f t="shared" si="2"/>
         <v>ModificarClienteController.txtIdentificacion</v>
       </c>
       <c r="D64" t="s">
@@ -3655,19 +3685,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtIdentificacion=</v>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H64" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtIdentificacion")</v>
       </c>
-      <c r="I64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J64" s="1" t="str">
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
       </c>
-      <c r="K64" s="1" t="str">
+      <c r="K64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setPromptText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
       </c>
@@ -3680,7 +3710,7 @@
         <v>110</v>
       </c>
       <c r="C65" t="str">
-        <f>CONCATENATE(A65,".",B65)</f>
+        <f t="shared" si="2"/>
         <v>ModificarClienteController.txtNombre</v>
       </c>
       <c r="D65" t="s">
@@ -3694,19 +3724,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtNombre=</v>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="H65" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtNombre")</v>
       </c>
-      <c r="I65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J65" s="1" t="str">
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setText(bundle.getString("ModificarClienteController.txtNombre"));</v>
       </c>
-      <c r="K65" s="1" t="str">
+      <c r="K65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setPromptText(bundle.getString("ModificarClienteController.txtNombre"));</v>
       </c>
@@ -3719,7 +3749,7 @@
         <v>82</v>
       </c>
       <c r="C66" t="str">
-        <f>CONCATENATE(A66,".",B66)</f>
+        <f t="shared" si="2"/>
         <v>ModificarClienteController.txtPassword</v>
       </c>
       <c r="D66" t="s">
@@ -3733,19 +3763,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtPassword=</v>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="H66" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtPassword")</v>
       </c>
-      <c r="I66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J66" s="1" t="str">
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setText(bundle.getString("ModificarClienteController.txtPassword"));</v>
       </c>
-      <c r="K66" s="1" t="str">
+      <c r="K66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setPromptText(bundle.getString("ModificarClienteController.txtPassword"));</v>
       </c>
@@ -3758,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="C67" t="str">
-        <f>CONCATENATE(A67,".",B67)</f>
+        <f t="shared" ref="C67:C98" si="4">CONCATENATE(A67,".",B67)</f>
         <v>ModificarClienteController.txtEmail</v>
       </c>
       <c r="D67" t="s">
@@ -3772,19 +3802,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtEmail=</v>
       </c>
-      <c r="H67" s="1" t="str">
+      <c r="H67" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtEmail")</v>
       </c>
-      <c r="I67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J67" s="1" t="str">
+      <c r="I67" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setText(bundle.getString("ModificarClienteController.txtEmail"));</v>
       </c>
-      <c r="K67" s="1" t="str">
+      <c r="K67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setPromptText(bundle.getString("ModificarClienteController.txtEmail"));</v>
       </c>
@@ -3797,7 +3827,7 @@
         <v>109</v>
       </c>
       <c r="C68" t="str">
-        <f>CONCATENATE(A68,".",B68)</f>
+        <f t="shared" si="4"/>
         <v>ModificarClienteController.txtTelefono</v>
       </c>
       <c r="D68" t="s">
@@ -3811,19 +3841,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtTelefono=</v>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H68" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtTelefono")</v>
       </c>
-      <c r="I68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"</v>
-      </c>
-      <c r="J68" s="1" t="str">
+      <c r="I68" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtTelefono.setText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
       </c>
-      <c r="K68" s="1" t="str">
+      <c r="K68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtTelefono.setPromptText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
       </c>
@@ -3836,7 +3866,7 @@
         <v>108</v>
       </c>
       <c r="C69" t="str">
-        <f>CONCATENATE(A69,".",B69)</f>
+        <f t="shared" si="4"/>
         <v>ModificarClienteController.txtDireccion</v>
       </c>
       <c r="D69" t="s">
@@ -3850,19 +3880,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.txtDireccion=</v>
       </c>
-      <c r="H69" s="1" t="str">
+      <c r="H69" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.txtDireccion")</v>
       </c>
-      <c r="I69" s="1" t="str">
-        <f t="shared" ref="I69:I100" si="2">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J69" s="1" t="str">
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I100" si="5">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDireccion.setText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
       </c>
-      <c r="K69" s="1" t="str">
+      <c r="K69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDireccion.setPromptText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
       </c>
@@ -3875,7 +3905,7 @@
         <v>245</v>
       </c>
       <c r="C70" t="str">
-        <f>CONCATENATE(A70,".",B70)</f>
+        <f t="shared" si="4"/>
         <v>ModificarClienteController.btnActualizar</v>
       </c>
       <c r="D70" t="s">
@@ -3889,19 +3919,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.btnActualizar=</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H70" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.btnActualizar")</v>
       </c>
-      <c r="I70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J70" s="1" t="str">
+      <c r="I70" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J70" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnActualizar.setText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
       </c>
-      <c r="K70" s="1" t="str">
+      <c r="K70" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnActualizar.setPromptText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
       </c>
@@ -3914,7 +3944,7 @@
         <v>114</v>
       </c>
       <c r="C71" t="str">
-        <f>CONCATENATE(A71,".",B71)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblPaquete</v>
       </c>
       <c r="D71" t="s">
@@ -3928,19 +3958,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblPaquete=</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H71" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblPaquete")</v>
       </c>
-      <c r="I71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J71" s="1" t="str">
+      <c r="I71" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J71" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPaquete.setText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
       </c>
-      <c r="K71" s="1" t="str">
+      <c r="K71" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPaquete.setPromptText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
       </c>
@@ -3953,7 +3983,7 @@
         <v>115</v>
       </c>
       <c r="C72" t="str">
-        <f>CONCATENATE(A72,".",B72)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblInfoCupos</v>
       </c>
       <c r="D72" t="s">
@@ -3967,19 +3997,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblInfoCupos=</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H72" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblInfoCupos")</v>
       </c>
-      <c r="I72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J72" s="1" t="str">
+      <c r="I72" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J72" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfoCupos.setText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
       </c>
-      <c r="K72" s="1" t="str">
+      <c r="K72" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblInfoCupos.setPromptText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
       </c>
@@ -3992,7 +4022,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="str">
-        <f>CONCATENATE(A73,".",B73)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.btnReservar</v>
       </c>
       <c r="D73" t="s">
@@ -4006,19 +4036,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.btnReservar=</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H73" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.btnReservar")</v>
       </c>
-      <c r="I73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J73" s="1" t="str">
+      <c r="I73" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnReservar.setText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
       </c>
-      <c r="K73" s="1" t="str">
+      <c r="K73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnReservar.setPromptText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
       </c>
@@ -4031,7 +4061,7 @@
         <v>118</v>
       </c>
       <c r="C74" t="str">
-        <f>CONCATENATE(A74,".",B74)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblPrecio</v>
       </c>
       <c r="D74" t="s">
@@ -4045,19 +4075,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblPrecio=</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H74" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblPrecio")</v>
       </c>
-      <c r="I74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J74" s="1" t="str">
+      <c r="I74" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
       </c>
-      <c r="K74" s="1" t="str">
+      <c r="K74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setPromptText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
       </c>
@@ -4070,7 +4100,7 @@
         <v>122</v>
       </c>
       <c r="C75" t="str">
-        <f>CONCATENATE(A75,".",B75)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblServiciosExtra</v>
       </c>
       <c r="D75" t="s">
@@ -4084,19 +4114,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblServiciosExtra=</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H75" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblServiciosExtra")</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J75" s="1" t="str">
+      <c r="I75" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblServiciosExtra.setText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
       </c>
-      <c r="K75" s="1" t="str">
+      <c r="K75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblServiciosExtra.setPromptText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
       </c>
@@ -4109,7 +4139,7 @@
         <v>119</v>
       </c>
       <c r="C76" t="str">
-        <f>CONCATENATE(A76,".",B76)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblDestinos</v>
       </c>
       <c r="D76" t="s">
@@ -4123,19 +4153,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblDestinos=</v>
       </c>
-      <c r="H76" s="1" t="str">
+      <c r="H76" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblDestinos")</v>
       </c>
-      <c r="I76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J76" s="1" t="str">
+      <c r="I76" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDestinos.setText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
       </c>
-      <c r="K76" s="1" t="str">
+      <c r="K76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDestinos.setPromptText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
       </c>
@@ -4148,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="str">
-        <f>CONCATENATE(A77,".",B77)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblFechaInicial</v>
       </c>
       <c r="D77" t="s">
@@ -4162,19 +4192,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblFechaInicial=</v>
       </c>
-      <c r="H77" s="1" t="str">
+      <c r="H77" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblFechaInicial")</v>
       </c>
-      <c r="I77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J77" s="1" t="str">
+      <c r="I77" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicial.setText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
       </c>
-      <c r="K77" s="1" t="str">
+      <c r="K77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicial.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
       </c>
@@ -4187,7 +4217,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="str">
-        <f>CONCATENATE(A78,".",B78)</f>
+        <f t="shared" si="4"/>
         <v>PaqueteDetailsController.lblFechaFinal</v>
       </c>
       <c r="D78" t="s">
@@ -4201,19 +4231,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PaqueteDetailsController.lblFechaFinal=</v>
       </c>
-      <c r="H78" s="1" t="str">
+      <c r="H78" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PaqueteDetailsController.lblFechaFinal")</v>
       </c>
-      <c r="I78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J78" s="1" t="str">
+      <c r="I78" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFinal.setText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
       </c>
-      <c r="K78" s="1" t="str">
+      <c r="K78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFinal.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
       </c>
@@ -4226,7 +4256,7 @@
         <v>127</v>
       </c>
       <c r="C79" t="str">
-        <f>CONCATENATE(A79,".",B79)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblEstado</v>
       </c>
       <c r="D79" t="s">
@@ -4240,19 +4270,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblEstado=</v>
       </c>
-      <c r="H79" s="1" t="str">
+      <c r="H79" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblEstado")</v>
       </c>
-      <c r="I79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J79" s="1" t="str">
+      <c r="I79" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblEstado.setText(bundle.getString("PDFFacturaController.lblEstado"));</v>
       </c>
-      <c r="K79" s="1" t="str">
+      <c r="K79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblEstado.setPromptText(bundle.getString("PDFFacturaController.lblEstado"));</v>
       </c>
@@ -4265,7 +4295,7 @@
         <v>128</v>
       </c>
       <c r="C80" t="str">
-        <f>CONCATENATE(A80,".",B80)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblVeterinario</v>
       </c>
       <c r="D80" t="s">
@@ -4279,19 +4309,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblVeterinario=</v>
       </c>
-      <c r="H80" s="1" t="str">
+      <c r="H80" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblVeterinario")</v>
       </c>
-      <c r="I80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J80" s="1" t="str">
+      <c r="I80" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblVeterinario.setText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
       </c>
-      <c r="K80" s="1" t="str">
+      <c r="K80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblVeterinario.setPromptText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
       </c>
@@ -4304,7 +4334,7 @@
         <v>129</v>
       </c>
       <c r="C81" t="str">
-        <f>CONCATENATE(A81,".",B81)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblMascota</v>
       </c>
       <c r="D81" t="s">
@@ -4318,19 +4348,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblMascota=</v>
       </c>
-      <c r="H81" s="1" t="str">
+      <c r="H81" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblMascota")</v>
       </c>
-      <c r="I81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J81" s="1" t="str">
+      <c r="I81" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblMascota.setText(bundle.getString("PDFFacturaController.lblMascota"));</v>
       </c>
-      <c r="K81" s="1" t="str">
+      <c r="K81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblMascota.setPromptText(bundle.getString("PDFFacturaController.lblMascota"));</v>
       </c>
@@ -4343,7 +4373,7 @@
         <v>130</v>
       </c>
       <c r="C82" t="str">
-        <f>CONCATENATE(A82,".",B82)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblTipo</v>
       </c>
       <c r="D82" t="s">
@@ -4357,19 +4387,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblTipo=</v>
       </c>
-      <c r="H82" s="1" t="str">
+      <c r="H82" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblTipo")</v>
       </c>
-      <c r="I82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J82" s="1" t="str">
+      <c r="I82" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTipo.setText(bundle.getString("PDFFacturaController.lblTipo"));</v>
       </c>
-      <c r="K82" s="1" t="str">
+      <c r="K82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTipo.setPromptText(bundle.getString("PDFFacturaController.lblTipo"));</v>
       </c>
@@ -4382,7 +4412,7 @@
         <v>131</v>
       </c>
       <c r="C83" t="str">
-        <f>CONCATENATE(A83,".",B83)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblSexo</v>
       </c>
       <c r="D83" t="s">
@@ -4396,19 +4426,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblSexo=</v>
       </c>
-      <c r="H83" s="1" t="str">
+      <c r="H83" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblSexo")</v>
       </c>
-      <c r="I83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J83" s="1" t="str">
+      <c r="I83" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSexo.setText(bundle.getString("PDFFacturaController.lblSexo"));</v>
       </c>
-      <c r="K83" s="1" t="str">
+      <c r="K83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSexo.setPromptText(bundle.getString("PDFFacturaController.lblSexo"));</v>
       </c>
@@ -4421,7 +4451,7 @@
         <v>132</v>
       </c>
       <c r="C84" t="str">
-        <f>CONCATENATE(A84,".",B84)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblDiagnostico</v>
       </c>
       <c r="D84" t="s">
@@ -4435,19 +4465,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblDiagnostico=</v>
       </c>
-      <c r="H84" s="1" t="str">
+      <c r="H84" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblDiagnostico")</v>
       </c>
-      <c r="I84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J84" s="1" t="str">
+      <c r="I84" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDiagnostico.setText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
       </c>
-      <c r="K84" s="1" t="str">
+      <c r="K84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDiagnostico.setPromptText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
       </c>
@@ -4460,7 +4490,7 @@
         <v>133</v>
       </c>
       <c r="C85" t="str">
-        <f>CONCATENATE(A85,".",B85)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblTratamiento</v>
       </c>
       <c r="D85" t="s">
@@ -4474,19 +4504,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblTratamiento=</v>
       </c>
-      <c r="H85" s="1" t="str">
+      <c r="H85" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblTratamiento")</v>
       </c>
-      <c r="I85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J85" s="1" t="str">
+      <c r="I85" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTratamiento.setText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
       </c>
-      <c r="K85" s="1" t="str">
+      <c r="K85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTratamiento.setPromptText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
       </c>
@@ -4499,7 +4529,7 @@
         <v>118</v>
       </c>
       <c r="C86" t="str">
-        <f>CONCATENATE(A86,".",B86)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblPrecio</v>
       </c>
       <c r="D86" t="s">
@@ -4513,19 +4543,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblPrecio=</v>
       </c>
-      <c r="H86" s="1" t="str">
+      <c r="H86" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblPrecio")</v>
       </c>
-      <c r="I86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J86" s="1" t="str">
+      <c r="I86" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
       </c>
-      <c r="K86" s="1" t="str">
+      <c r="K86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setPromptText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
       </c>
@@ -4538,7 +4568,7 @@
         <v>134</v>
       </c>
       <c r="C87" t="str">
-        <f>CONCATENATE(A87,".",B87)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblLema</v>
       </c>
       <c r="D87" t="s">
@@ -4552,19 +4582,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblLema=</v>
       </c>
-      <c r="H87" s="1" t="str">
+      <c r="H87" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblLema")</v>
       </c>
-      <c r="I87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J87" s="1" t="str">
+      <c r="I87" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblLema.setText(bundle.getString("PDFFacturaController.lblLema"));</v>
       </c>
-      <c r="K87" s="1" t="str">
+      <c r="K87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblLema.setPromptText(bundle.getString("PDFFacturaController.lblLema"));</v>
       </c>
@@ -4577,7 +4607,7 @@
         <v>135</v>
       </c>
       <c r="C88" t="str">
-        <f>CONCATENATE(A88,".",B88)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblFacturaPara</v>
       </c>
       <c r="D88" t="s">
@@ -4591,19 +4621,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblFacturaPara=</v>
       </c>
-      <c r="H88" s="1" t="str">
+      <c r="H88" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblFacturaPara")</v>
       </c>
-      <c r="I88" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J88" s="1" t="str">
+      <c r="I88" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFacturaPara.setText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
       </c>
-      <c r="K88" s="1" t="str">
+      <c r="K88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFacturaPara.setPromptText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
       </c>
@@ -4616,7 +4646,7 @@
         <v>136</v>
       </c>
       <c r="C89" t="str">
-        <f>CONCATENATE(A89,".",B89)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblTelefono</v>
       </c>
       <c r="D89" t="s">
@@ -4630,19 +4660,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblTelefono=</v>
       </c>
-      <c r="H89" s="1" t="str">
+      <c r="H89" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblTelefono")</v>
       </c>
-      <c r="I89" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J89" s="1" t="str">
+      <c r="I89" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTelefono.setText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
       </c>
-      <c r="K89" s="1" t="str">
+      <c r="K89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTelefono.setPromptText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
       </c>
@@ -4655,7 +4685,7 @@
         <v>137</v>
       </c>
       <c r="C90" t="str">
-        <f>CONCATENATE(A90,".",B90)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblDireccion</v>
       </c>
       <c r="D90" t="s">
@@ -4669,19 +4699,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblDireccion=</v>
       </c>
-      <c r="H90" s="1" t="str">
+      <c r="H90" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblDireccion")</v>
       </c>
-      <c r="I90" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J90" s="1" t="str">
+      <c r="I90" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDireccion.setText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
       </c>
-      <c r="K90" s="1" t="str">
+      <c r="K90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDireccion.setPromptText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
       </c>
@@ -4694,7 +4724,7 @@
         <v>150</v>
       </c>
       <c r="C91" t="str">
-        <f>CONCATENATE(A91,".",B91)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblFactura</v>
       </c>
       <c r="D91" t="s">
@@ -4708,19 +4738,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblFactura=</v>
       </c>
-      <c r="H91" s="1" t="str">
+      <c r="H91" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblFactura")</v>
       </c>
-      <c r="I91" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J91" s="1" t="str">
+      <c r="I91" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFactura.setText(bundle.getString("PDFFacturaController.lblFactura"));</v>
       </c>
-      <c r="K91" s="1" t="str">
+      <c r="K91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFactura.setPromptText(bundle.getString("PDFFacturaController.lblFactura"));</v>
       </c>
@@ -4733,7 +4763,7 @@
         <v>152</v>
       </c>
       <c r="C92" t="str">
-        <f>CONCATENATE(A92,".",B92)</f>
+        <f t="shared" si="4"/>
         <v>PDFFacturaController.lblThx</v>
       </c>
       <c r="D92" t="s">
@@ -4747,19 +4777,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>PDFFacturaController.lblThx=</v>
       </c>
-      <c r="H92" s="1" t="str">
+      <c r="H92" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("PDFFacturaController.lblThx")</v>
       </c>
-      <c r="I92" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J92" s="1" t="str">
+      <c r="I92" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblThx.setText(bundle.getString("PDFFacturaController.lblThx"));</v>
       </c>
-      <c r="K92" s="1" t="str">
+      <c r="K92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblThx.setPromptText(bundle.getString("PDFFacturaController.lblThx"));</v>
       </c>
@@ -4772,7 +4802,7 @@
         <v>111</v>
       </c>
       <c r="C93" t="str">
-        <f>CONCATENATE(A93,".",B93)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtIdentificacion</v>
       </c>
       <c r="D93" t="s">
@@ -4786,19 +4816,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtIdentificacion=</v>
       </c>
-      <c r="H93" s="1" t="str">
+      <c r="H93" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtIdentificacion")</v>
       </c>
-      <c r="I93" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J93" s="1" t="str">
+      <c r="I93" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
       </c>
-      <c r="K93" s="1" t="str">
+      <c r="K93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setPromptText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
       </c>
@@ -4811,7 +4841,7 @@
         <v>110</v>
       </c>
       <c r="C94" t="str">
-        <f>CONCATENATE(A94,".",B94)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtNombre</v>
       </c>
       <c r="D94" t="s">
@@ -4825,19 +4855,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtNombre=</v>
       </c>
-      <c r="H94" s="1" t="str">
+      <c r="H94" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtNombre")</v>
       </c>
-      <c r="I94" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J94" s="1" t="str">
+      <c r="I94" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setText(bundle.getString("RegistrationController.txtNombre"));</v>
       </c>
-      <c r="K94" s="1" t="str">
+      <c r="K94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setPromptText(bundle.getString("RegistrationController.txtNombre"));</v>
       </c>
@@ -4850,7 +4880,7 @@
         <v>82</v>
       </c>
       <c r="C95" t="str">
-        <f>CONCATENATE(A95,".",B95)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtPassword</v>
       </c>
       <c r="D95" t="s">
@@ -4864,19 +4894,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtPassword=</v>
       </c>
-      <c r="H95" s="1" t="str">
+      <c r="H95" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtPassword")</v>
       </c>
-      <c r="I95" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J95" s="1" t="str">
+      <c r="I95" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setText(bundle.getString("RegistrationController.txtPassword"));</v>
       </c>
-      <c r="K95" s="1" t="str">
+      <c r="K95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPassword.setPromptText(bundle.getString("RegistrationController.txtPassword"));</v>
       </c>
@@ -4889,7 +4919,7 @@
         <v>81</v>
       </c>
       <c r="C96" t="str">
-        <f>CONCATENATE(A96,".",B96)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtEmail</v>
       </c>
       <c r="D96" t="s">
@@ -4903,19 +4933,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtEmail=</v>
       </c>
-      <c r="H96" s="1" t="str">
+      <c r="H96" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtEmail")</v>
       </c>
-      <c r="I96" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J96" s="1" t="str">
+      <c r="I96" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setText(bundle.getString("RegistrationController.txtEmail"));</v>
       </c>
-      <c r="K96" s="1" t="str">
+      <c r="K96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtEmail.setPromptText(bundle.getString("RegistrationController.txtEmail"));</v>
       </c>
@@ -4928,7 +4958,7 @@
         <v>109</v>
       </c>
       <c r="C97" t="str">
-        <f>CONCATENATE(A97,".",B97)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtTelefono</v>
       </c>
       <c r="D97" t="s">
@@ -4942,19 +4972,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtTelefono=</v>
       </c>
-      <c r="H97" s="1" t="str">
+      <c r="H97" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtTelefono")</v>
       </c>
-      <c r="I97" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J97" s="1" t="str">
+      <c r="I97" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtTelefono.setText(bundle.getString("RegistrationController.txtTelefono"));</v>
       </c>
-      <c r="K97" s="1" t="str">
+      <c r="K97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtTelefono.setPromptText(bundle.getString("RegistrationController.txtTelefono"));</v>
       </c>
@@ -4967,7 +4997,7 @@
         <v>108</v>
       </c>
       <c r="C98" t="str">
-        <f>CONCATENATE(A98,".",B98)</f>
+        <f t="shared" si="4"/>
         <v>RegistrationController.txtDireccion</v>
       </c>
       <c r="D98" t="s">
@@ -4981,19 +5011,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.txtDireccion=</v>
       </c>
-      <c r="H98" s="1" t="str">
+      <c r="H98" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.txtDireccion")</v>
       </c>
-      <c r="I98" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J98" s="1" t="str">
+      <c r="I98" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDireccion.setText(bundle.getString("RegistrationController.txtDireccion"));</v>
       </c>
-      <c r="K98" s="1" t="str">
+      <c r="K98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDireccion.setPromptText(bundle.getString("RegistrationController.txtDireccion"));</v>
       </c>
@@ -5006,7 +5036,7 @@
         <v>107</v>
       </c>
       <c r="C99" t="str">
-        <f>CONCATENATE(A99,".",B99)</f>
+        <f t="shared" ref="C99:C130" si="6">CONCATENATE(A99,".",B99)</f>
         <v>RegistrationController.btnRegistro</v>
       </c>
       <c r="D99" t="s">
@@ -5020,19 +5050,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.btnRegistro=</v>
       </c>
-      <c r="H99" s="1" t="str">
+      <c r="H99" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.btnRegistro")</v>
       </c>
-      <c r="I99" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J99" s="1" t="str">
+      <c r="I99" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistro.setText(bundle.getString("RegistrationController.btnRegistro"));</v>
       </c>
-      <c r="K99" s="1" t="str">
+      <c r="K99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistro.setPromptText(bundle.getString("RegistrationController.btnRegistro"));</v>
       </c>
@@ -5045,7 +5075,7 @@
         <v>156</v>
       </c>
       <c r="C100" t="str">
-        <f>CONCATENATE(A100,".",B100)</f>
+        <f t="shared" si="6"/>
         <v>RegistrationController.lblYaRegistrado</v>
       </c>
       <c r="D100" t="s">
@@ -5059,19 +5089,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.lblYaRegistrado=</v>
       </c>
-      <c r="H100" s="1" t="str">
+      <c r="H100" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.lblYaRegistrado")</v>
       </c>
-      <c r="I100" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"</v>
-      </c>
-      <c r="J100" s="1" t="str">
+      <c r="I100" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblYaRegistrado.setText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
       </c>
-      <c r="K100" s="1" t="str">
+      <c r="K100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblYaRegistrado.setPromptText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
       </c>
@@ -5084,7 +5114,7 @@
         <v>157</v>
       </c>
       <c r="C101" t="str">
-        <f>CONCATENATE(A101,".",B101)</f>
+        <f t="shared" si="6"/>
         <v>RegistrationController.btnLogin</v>
       </c>
       <c r="D101" t="s">
@@ -5098,19 +5128,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.btnLogin=</v>
       </c>
-      <c r="H101" s="1" t="str">
+      <c r="H101" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.btnLogin")</v>
       </c>
-      <c r="I101" s="1" t="str">
-        <f t="shared" ref="I101:I132" si="3">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J101" s="1" t="str">
+      <c r="I101" t="str">
+        <f t="shared" ref="I101:I132" si="7">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J101" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLogin.setText(bundle.getString("RegistrationController.btnLogin"));</v>
       </c>
-      <c r="K101" s="1" t="str">
+      <c r="K101" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLogin.setPromptText(bundle.getString("RegistrationController.btnLogin"));</v>
       </c>
@@ -5123,7 +5153,7 @@
         <v>160</v>
       </c>
       <c r="C102" t="str">
-        <f>CONCATENATE(A102,".",B102)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblTitulo</v>
       </c>
       <c r="D102" t="s">
@@ -5137,19 +5167,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblTitulo=</v>
       </c>
-      <c r="H102" s="1" t="str">
+      <c r="H102" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblTitulo")</v>
       </c>
-      <c r="I102" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J102" s="1" t="str">
+      <c r="I102" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J102" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitulo.setText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
       </c>
-      <c r="K102" s="1" t="str">
+      <c r="K102" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitulo.setPromptText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
       </c>
@@ -5162,7 +5192,7 @@
         <v>161</v>
       </c>
       <c r="C103" t="str">
-        <f>CONCATENATE(A103,".",B103)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblNombre</v>
       </c>
       <c r="D103" t="s">
@@ -5176,19 +5206,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblNombre=</v>
       </c>
-      <c r="H103" s="1" t="str">
+      <c r="H103" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblNombre")</v>
       </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J103" s="1" t="str">
+      <c r="I103" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J103" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
       </c>
-      <c r="K103" s="1" t="str">
+      <c r="K103" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setPromptText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
       </c>
@@ -5201,7 +5231,7 @@
         <v>110</v>
       </c>
       <c r="C104" t="str">
-        <f>CONCATENATE(A104,".",B104)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.txtNombre</v>
       </c>
       <c r="D104" t="s">
@@ -5215,19 +5245,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.txtNombre=</v>
       </c>
-      <c r="H104" s="1" t="str">
+      <c r="H104" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.txtNombre")</v>
       </c>
-      <c r="I104" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J104" s="1" t="str">
+      <c r="I104" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J104" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
       </c>
-      <c r="K104" s="1" t="str">
+      <c r="K104" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setPromptText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
       </c>
@@ -5240,7 +5270,7 @@
         <v>36</v>
       </c>
       <c r="C105" t="str">
-        <f>CONCATENATE(A105,".",B105)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblCiudad</v>
       </c>
       <c r="D105" t="s">
@@ -5254,19 +5284,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblCiudad=</v>
       </c>
-      <c r="H105" s="1" t="str">
+      <c r="H105" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblCiudad")</v>
       </c>
-      <c r="I105" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J105" s="1" t="str">
+      <c r="I105" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J105" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCiudad.setText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
       </c>
-      <c r="K105" s="1" t="str">
+      <c r="K105" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCiudad.setPromptText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
       </c>
@@ -5279,7 +5309,7 @@
         <v>162</v>
       </c>
       <c r="C106" t="str">
-        <f>CONCATENATE(A106,".",B106)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.txtCiudad</v>
       </c>
       <c r="D106" t="s">
@@ -5293,19 +5323,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.txtCiudad=</v>
       </c>
-      <c r="H106" s="1" t="str">
+      <c r="H106" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.txtCiudad")</v>
       </c>
-      <c r="I106" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J106" s="1" t="str">
+      <c r="I106" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtCiudad.setText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
       </c>
-      <c r="K106" s="1" t="str">
+      <c r="K106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtCiudad.setPromptText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
       </c>
@@ -5318,7 +5348,7 @@
         <v>163</v>
       </c>
       <c r="C107" t="str">
-        <f>CONCATENATE(A107,".",B107)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblDescripcion</v>
       </c>
       <c r="D107" t="s">
@@ -5332,19 +5362,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblDescripcion=</v>
       </c>
-      <c r="H107" s="1" t="str">
+      <c r="H107" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblDescripcion")</v>
       </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J107" s="1" t="str">
+      <c r="I107" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDescripcion.setText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
       </c>
-      <c r="K107" s="1" t="str">
+      <c r="K107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDescripcion.setPromptText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
       </c>
@@ -5357,7 +5387,7 @@
         <v>164</v>
       </c>
       <c r="C108" t="str">
-        <f>CONCATENATE(A108,".",B108)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.txtDescripcion</v>
       </c>
       <c r="D108" t="s">
@@ -5371,19 +5401,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.txtDescripcion=</v>
       </c>
-      <c r="H108" s="1" t="str">
+      <c r="H108" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.txtDescripcion")</v>
       </c>
-      <c r="I108" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J108" s="1" t="str">
+      <c r="I108" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDescripcion.setText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
       </c>
-      <c r="K108" s="1" t="str">
+      <c r="K108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDescripcion.setPromptText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
       </c>
@@ -5396,7 +5426,7 @@
         <v>38</v>
       </c>
       <c r="C109" t="str">
-        <f>CONCATENATE(A109,".",B109)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblClima</v>
       </c>
       <c r="D109" t="s">
@@ -5410,19 +5440,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblClima=</v>
       </c>
-      <c r="H109" s="1" t="str">
+      <c r="H109" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblClima")</v>
       </c>
-      <c r="I109" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J109" s="1" t="str">
+      <c r="I109" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblClima.setText(bundle.getString("RegistroDestinoController.lblClima"));</v>
       </c>
-      <c r="K109" s="1" t="str">
+      <c r="K109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblClima.setPromptText(bundle.getString("RegistroDestinoController.lblClima"));</v>
       </c>
@@ -5435,7 +5465,7 @@
         <v>165</v>
       </c>
       <c r="C110" t="str">
-        <f>CONCATENATE(A110,".",B110)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.cbClima</v>
       </c>
       <c r="D110" t="s">
@@ -5449,19 +5479,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.cbClima=</v>
       </c>
-      <c r="H110" s="1" t="str">
+      <c r="H110" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.cbClima")</v>
       </c>
-      <c r="I110" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J110" s="1" t="str">
+      <c r="I110" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>cbClima.setText(bundle.getString("RegistroDestinoController.cbClima"));</v>
       </c>
-      <c r="K110" s="1" t="str">
+      <c r="K110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>cbClima.setPromptText(bundle.getString("RegistroDestinoController.cbClima"));</v>
       </c>
@@ -5474,7 +5504,7 @@
         <v>166</v>
       </c>
       <c r="C111" t="str">
-        <f>CONCATENATE(A111,".",B111)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.lblSeleccionarImagen</v>
       </c>
       <c r="D111" t="s">
@@ -5488,19 +5518,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.lblSeleccionarImagen=</v>
       </c>
-      <c r="H111" s="1" t="str">
+      <c r="H111" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.lblSeleccionarImagen")</v>
       </c>
-      <c r="I111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J111" s="1" t="str">
+      <c r="I111" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSeleccionarImagen.setText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
       </c>
-      <c r="K111" s="1" t="str">
+      <c r="K111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSeleccionarImagen.setPromptText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
       </c>
@@ -5513,7 +5543,7 @@
         <v>167</v>
       </c>
       <c r="C112" t="str">
-        <f>CONCATENATE(A112,".",B112)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.btnSeleccionar</v>
       </c>
       <c r="D112" t="s">
@@ -5527,19 +5557,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.btnSeleccionar=</v>
       </c>
-      <c r="H112" s="1" t="str">
+      <c r="H112" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.btnSeleccionar")</v>
       </c>
-      <c r="I112" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J112" s="1" t="str">
+      <c r="I112" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnSeleccionar.setText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
       </c>
-      <c r="K112" s="1" t="str">
+      <c r="K112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnSeleccionar.setPromptText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
       </c>
@@ -5552,7 +5582,7 @@
         <v>55</v>
       </c>
       <c r="C113" t="str">
-        <f>CONCATENATE(A113,".",B113)</f>
+        <f t="shared" si="6"/>
         <v>RegistroDestinoController.btnAgregar</v>
       </c>
       <c r="D113" t="s">
@@ -5566,19 +5596,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroDestinoController.btnAgregar=</v>
       </c>
-      <c r="H113" s="1" t="str">
+      <c r="H113" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroDestinoController.btnAgregar")</v>
       </c>
-      <c r="I113" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J113" s="1" t="str">
+      <c r="I113" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAgregar.setText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
       </c>
-      <c r="K113" s="1" t="str">
+      <c r="K113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAgregar.setPromptText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
       </c>
@@ -5591,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="str">
-        <f>CONCATENATE(A114,".",B114)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblTitle</v>
       </c>
       <c r="D114" t="s">
@@ -5605,19 +5635,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblTitle=</v>
       </c>
-      <c r="H114" s="1" t="str">
+      <c r="H114" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblTitle")</v>
       </c>
-      <c r="I114" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J114" s="1" t="str">
+      <c r="I114" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
       </c>
-      <c r="K114" s="1" t="str">
+      <c r="K114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
       </c>
@@ -5630,7 +5660,7 @@
         <v>195</v>
       </c>
       <c r="C115" t="str">
-        <f>CONCATENATE(A115,".",B115)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblIdentificacion</v>
       </c>
       <c r="D115" t="s">
@@ -5644,19 +5674,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblIdentificacion=</v>
       </c>
-      <c r="H115" s="1" t="str">
+      <c r="H115" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblIdentificacion")</v>
       </c>
-      <c r="I115" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J115" s="1" t="str">
+      <c r="I115" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblIdentificacion.setText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
       </c>
-      <c r="K115" s="1" t="str">
+      <c r="K115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
       </c>
@@ -5669,7 +5699,7 @@
         <v>111</v>
       </c>
       <c r="C116" t="str">
-        <f>CONCATENATE(A116,".",B116)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.txtIdentificacion</v>
       </c>
       <c r="D116" t="s">
@@ -5683,19 +5713,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.txtIdentificacion=</v>
       </c>
-      <c r="H116" s="1" t="str">
+      <c r="H116" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.txtIdentificacion")</v>
       </c>
-      <c r="I116" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J116" s="1" t="str">
+      <c r="I116" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
       </c>
-      <c r="K116" s="1" t="str">
+      <c r="K116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
       </c>
@@ -5708,7 +5738,7 @@
         <v>161</v>
       </c>
       <c r="C117" t="str">
-        <f>CONCATENATE(A117,".",B117)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblNombre</v>
       </c>
       <c r="D117" t="s">
@@ -5722,19 +5752,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblNombre=</v>
       </c>
-      <c r="H117" s="1" t="str">
+      <c r="H117" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblNombre")</v>
       </c>
-      <c r="I117" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J117" s="1" t="str">
+      <c r="I117" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
       </c>
-      <c r="K117" s="1" t="str">
+      <c r="K117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setPromptText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
       </c>
@@ -5747,7 +5777,7 @@
         <v>110</v>
       </c>
       <c r="C118" t="str">
-        <f>CONCATENATE(A118,".",B118)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.txtNombre</v>
       </c>
       <c r="D118" t="s">
@@ -5761,19 +5791,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.txtNombre=</v>
       </c>
-      <c r="H118" s="1" t="str">
+      <c r="H118" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.txtNombre")</v>
       </c>
-      <c r="I118" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J118" s="1" t="str">
+      <c r="I118" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
       </c>
-      <c r="K118" s="1" t="str">
+      <c r="K118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setPromptText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
       </c>
@@ -5786,7 +5816,7 @@
         <v>194</v>
       </c>
       <c r="C119" t="str">
-        <f>CONCATENATE(A119,".",B119)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblHoras</v>
       </c>
       <c r="D119" t="s">
@@ -5800,19 +5830,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblHoras=</v>
       </c>
-      <c r="H119" s="1" t="str">
+      <c r="H119" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblHoras")</v>
       </c>
-      <c r="I119" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J119" s="1" t="str">
+      <c r="I119" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblHoras.setText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
       </c>
-      <c r="K119" s="1" t="str">
+      <c r="K119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblHoras.setPromptText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
       </c>
@@ -5825,7 +5855,7 @@
         <v>193</v>
       </c>
       <c r="C120" t="str">
-        <f>CONCATENATE(A120,".",B120)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.txtHoras</v>
       </c>
       <c r="D120" t="s">
@@ -5839,19 +5869,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.txtHoras=</v>
       </c>
-      <c r="H120" s="1" t="str">
+      <c r="H120" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.txtHoras")</v>
       </c>
-      <c r="I120" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J120" s="1" t="str">
+      <c r="I120" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtHoras.setText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
       </c>
-      <c r="K120" s="1" t="str">
+      <c r="K120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtHoras.setPromptText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
       </c>
@@ -5864,7 +5894,7 @@
         <v>192</v>
       </c>
       <c r="C121" t="str">
-        <f>CONCATENATE(A121,".",B121)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblImagen</v>
       </c>
       <c r="D121" t="s">
@@ -5878,19 +5908,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblImagen=</v>
       </c>
-      <c r="H121" s="1" t="str">
+      <c r="H121" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblImagen")</v>
       </c>
-      <c r="I121" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J121" s="1" t="str">
+      <c r="I121" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblImagen.setText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
       </c>
-      <c r="K121" s="1" t="str">
+      <c r="K121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblImagen.setPromptText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
       </c>
@@ -5903,7 +5933,7 @@
         <v>191</v>
       </c>
       <c r="C122" t="str">
-        <f>CONCATENATE(A122,".",B122)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.btnImagen</v>
       </c>
       <c r="D122" t="s">
@@ -5917,19 +5947,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.btnImagen=</v>
       </c>
-      <c r="H122" s="1" t="str">
+      <c r="H122" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.btnImagen")</v>
       </c>
-      <c r="I122" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J122" s="1" t="str">
+      <c r="I122" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnImagen.setText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
       </c>
-      <c r="K122" s="1" t="str">
+      <c r="K122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnImagen.setPromptText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
       </c>
@@ -5942,7 +5972,7 @@
         <v>190</v>
       </c>
       <c r="C123" t="str">
-        <f>CONCATENATE(A123,".",B123)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.lblImagenSeleccionada</v>
       </c>
       <c r="D123" t="s">
@@ -5956,19 +5986,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.lblImagenSeleccionada=</v>
       </c>
-      <c r="H123" s="1" t="str">
+      <c r="H123" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.lblImagenSeleccionada")</v>
       </c>
-      <c r="I123" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J123" s="1" t="str">
+      <c r="I123" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblImagenSeleccionada.setText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
       </c>
-      <c r="K123" s="1" t="str">
+      <c r="K123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblImagenSeleccionada.setPromptText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
       </c>
@@ -5981,7 +6011,7 @@
         <v>88</v>
       </c>
       <c r="C124" t="str">
-        <f>CONCATENATE(A124,".",B124)</f>
+        <f t="shared" si="6"/>
         <v>RegistroGuiaController.btnRegistrar</v>
       </c>
       <c r="D124" t="s">
@@ -5995,19 +6025,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroGuiaController.btnRegistrar=</v>
       </c>
-      <c r="H124" s="1" t="str">
+      <c r="H124" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroGuiaController.btnRegistrar")</v>
       </c>
-      <c r="I124" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J124" s="1" t="str">
+      <c r="I124" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistrar.setText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
       </c>
-      <c r="K124" s="1" t="str">
+      <c r="K124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnRegistrar.setPromptText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
       </c>
@@ -6020,7 +6050,7 @@
         <v>160</v>
       </c>
       <c r="C125" t="str">
-        <f>CONCATENATE(A125,".",B125)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.lblTitulo</v>
       </c>
       <c r="D125" t="s">
@@ -6034,19 +6064,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblTitulo=</v>
       </c>
-      <c r="H125" s="1" t="str">
+      <c r="H125" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblTitulo")</v>
       </c>
-      <c r="I125" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J125" s="1" t="str">
+      <c r="I125" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitulo.setText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
       </c>
-      <c r="K125" s="1" t="str">
+      <c r="K125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitulo.setPromptText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
       </c>
@@ -6059,7 +6089,7 @@
         <v>161</v>
       </c>
       <c r="C126" t="str">
-        <f>CONCATENATE(A126,".",B126)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.lblNombre</v>
       </c>
       <c r="D126" t="s">
@@ -6073,19 +6103,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblNombre=</v>
       </c>
-      <c r="H126" s="1" t="str">
+      <c r="H126" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblNombre")</v>
       </c>
-      <c r="I126" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J126" s="1" t="str">
+      <c r="I126" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
       </c>
-      <c r="K126" s="1" t="str">
+      <c r="K126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblNombre.setPromptText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
       </c>
@@ -6098,7 +6128,7 @@
         <v>110</v>
       </c>
       <c r="C127" t="str">
-        <f>CONCATENATE(A127,".",B127)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.txtNombre</v>
       </c>
       <c r="D127" t="s">
@@ -6112,19 +6142,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.txtNombre=</v>
       </c>
-      <c r="H127" s="1" t="str">
+      <c r="H127" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.txtNombre")</v>
       </c>
-      <c r="I127" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J127" s="1" t="str">
+      <c r="I127" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
       </c>
-      <c r="K127" s="1" t="str">
+      <c r="K127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtNombre.setPromptText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
       </c>
@@ -6137,7 +6167,7 @@
         <v>217</v>
       </c>
       <c r="C128" t="str">
-        <f>CONCATENATE(A128,".",B128)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.lblDuracion</v>
       </c>
       <c r="D128" t="s">
@@ -6151,19 +6181,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblDuracion=</v>
       </c>
-      <c r="H128" s="1" t="str">
+      <c r="H128" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblDuracion")</v>
       </c>
-      <c r="I128" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J128" s="1" t="str">
+      <c r="I128" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDuracion.setText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
       </c>
-      <c r="K128" s="1" t="str">
+      <c r="K128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDuracion.setPromptText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
       </c>
@@ -6176,7 +6206,7 @@
         <v>218</v>
       </c>
       <c r="C129" t="str">
-        <f>CONCATENATE(A129,".",B129)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.txtDuracion</v>
       </c>
       <c r="D129" t="s">
@@ -6190,19 +6220,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.txtDuracion=</v>
       </c>
-      <c r="H129" s="1" t="str">
+      <c r="H129" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.txtDuracion")</v>
       </c>
-      <c r="I129" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J129" s="1" t="str">
+      <c r="I129" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDuracion.setText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
       </c>
-      <c r="K129" s="1" t="str">
+      <c r="K129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDuracion.setPromptText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
       </c>
@@ -6215,7 +6245,7 @@
         <v>219</v>
       </c>
       <c r="C130" t="str">
-        <f>CONCATENATE(A130,".",B130)</f>
+        <f t="shared" si="6"/>
         <v>RegistroPaquetesController.lblServicios</v>
       </c>
       <c r="D130" t="s">
@@ -6229,19 +6259,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblServicios=</v>
       </c>
-      <c r="H130" s="1" t="str">
+      <c r="H130" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblServicios")</v>
       </c>
-      <c r="I130" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J130" s="1" t="str">
+      <c r="I130" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblServicios.setText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
       </c>
-      <c r="K130" s="1" t="str">
+      <c r="K130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblServicios.setPromptText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
       </c>
@@ -6254,7 +6284,7 @@
         <v>220</v>
       </c>
       <c r="C131" t="str">
-        <f>CONCATENATE(A131,".",B131)</f>
+        <f t="shared" ref="C131:C157" si="8">CONCATENATE(A131,".",B131)</f>
         <v>RegistroPaquetesController.txtServicios</v>
       </c>
       <c r="D131" t="s">
@@ -6268,19 +6298,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.txtServicios=</v>
       </c>
-      <c r="H131" s="1" t="str">
+      <c r="H131" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.txtServicios")</v>
       </c>
-      <c r="I131" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J131" s="1" t="str">
+      <c r="I131" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtServicios.setText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
       </c>
-      <c r="K131" s="1" t="str">
+      <c r="K131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtServicios.setPromptText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
       </c>
@@ -6293,7 +6323,7 @@
         <v>118</v>
       </c>
       <c r="C132" t="str">
-        <f>CONCATENATE(A132,".",B132)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.lblPrecio</v>
       </c>
       <c r="D132" t="s">
@@ -6307,19 +6337,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblPrecio=</v>
       </c>
-      <c r="H132" s="1" t="str">
+      <c r="H132" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblPrecio")</v>
       </c>
-      <c r="I132" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"</v>
-      </c>
-      <c r="J132" s="1" t="str">
+      <c r="I132" t="str">
+        <f t="shared" si="7"/>
+        <v>"</v>
+      </c>
+      <c r="J132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
       </c>
-      <c r="K132" s="1" t="str">
+      <c r="K132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPrecio.setPromptText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
       </c>
@@ -6332,7 +6362,7 @@
         <v>221</v>
       </c>
       <c r="C133" t="str">
-        <f>CONCATENATE(A133,".",B133)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.txtPrecio</v>
       </c>
       <c r="D133" t="s">
@@ -6346,19 +6376,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.txtPrecio=</v>
       </c>
-      <c r="H133" s="1" t="str">
+      <c r="H133" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.txtPrecio")</v>
       </c>
-      <c r="I133" s="1" t="str">
-        <f t="shared" ref="I133:I157" si="4">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J133" s="1" t="str">
+      <c r="I133" t="str">
+        <f t="shared" ref="I133:I157" si="9">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPrecio.setText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
       </c>
-      <c r="K133" s="1" t="str">
+      <c r="K133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtPrecio.setPromptText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
       </c>
@@ -6371,7 +6401,7 @@
         <v>222</v>
       </c>
       <c r="C134" t="str">
-        <f>CONCATENATE(A134,".",B134)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.lblCupo</v>
       </c>
       <c r="D134" t="s">
@@ -6385,19 +6415,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblCupo=</v>
       </c>
-      <c r="H134" s="1" t="str">
+      <c r="H134" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblCupo")</v>
       </c>
-      <c r="I134" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J134" s="1" t="str">
+      <c r="I134" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCupo.setText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
       </c>
-      <c r="K134" s="1" t="str">
+      <c r="K134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblCupo.setPromptText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
       </c>
@@ -6410,7 +6440,7 @@
         <v>223</v>
       </c>
       <c r="C135" t="str">
-        <f>CONCATENATE(A135,".",B135)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.txtCupo</v>
       </c>
       <c r="D135" t="s">
@@ -6424,19 +6454,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.txtCupo=</v>
       </c>
-      <c r="H135" s="1" t="str">
+      <c r="H135" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.txtCupo")</v>
       </c>
-      <c r="I135" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J135" s="1" t="str">
+      <c r="I135" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtCupo.setText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
       </c>
-      <c r="K135" s="1" t="str">
+      <c r="K135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtCupo.setPromptText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
       </c>
@@ -6449,7 +6479,7 @@
         <v>224</v>
       </c>
       <c r="C136" t="str">
-        <f>CONCATENATE(A136,".",B136)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.lblFechaInicio</v>
       </c>
       <c r="D136" t="s">
@@ -6463,19 +6493,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblFechaInicio=</v>
       </c>
-      <c r="H136" s="1" t="str">
+      <c r="H136" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblFechaInicio")</v>
       </c>
-      <c r="I136" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J136" s="1" t="str">
+      <c r="I136" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicio.setText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
       </c>
-      <c r="K136" s="1" t="str">
+      <c r="K136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaInicio.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
       </c>
@@ -6488,7 +6518,7 @@
         <v>225</v>
       </c>
       <c r="C137" t="str">
-        <f>CONCATENATE(A137,".",B137)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.dpInicio</v>
       </c>
       <c r="D137" t="s">
@@ -6502,19 +6532,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.dpInicio=</v>
       </c>
-      <c r="H137" s="1" t="str">
+      <c r="H137" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.dpInicio")</v>
       </c>
-      <c r="I137" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J137" s="1" t="str">
+      <c r="I137" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>dpInicio.setText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
       </c>
-      <c r="K137" s="1" t="str">
+      <c r="K137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>dpInicio.setPromptText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
       </c>
@@ -6527,7 +6557,7 @@
         <v>226</v>
       </c>
       <c r="C138" t="str">
-        <f>CONCATENATE(A138,".",B138)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.lblFechaFin</v>
       </c>
       <c r="D138" t="s">
@@ -6541,19 +6571,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblFechaFin=</v>
       </c>
-      <c r="H138" s="1" t="str">
+      <c r="H138" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblFechaFin")</v>
       </c>
-      <c r="I138" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J138" s="1" t="str">
+      <c r="I138" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFin.setText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
       </c>
-      <c r="K138" s="1" t="str">
+      <c r="K138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblFechaFin.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
       </c>
@@ -6566,7 +6596,7 @@
         <v>227</v>
       </c>
       <c r="C139" t="str">
-        <f>CONCATENATE(A139,".",B139)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.dpFin</v>
       </c>
       <c r="D139" t="s">
@@ -6580,19 +6610,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.dpFin=</v>
       </c>
-      <c r="H139" s="1" t="str">
+      <c r="H139" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.dpFin")</v>
       </c>
-      <c r="I139" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J139" s="1" t="str">
+      <c r="I139" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>dpFin.setText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
       </c>
-      <c r="K139" s="1" t="str">
+      <c r="K139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>dpFin.setPromptText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
       </c>
@@ -6605,7 +6635,7 @@
         <v>228</v>
       </c>
       <c r="C140" t="str">
-        <f>CONCATENATE(A140,".",B140)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.lblSeleccionar</v>
       </c>
       <c r="D140" t="s">
@@ -6619,19 +6649,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.lblSeleccionar=</v>
       </c>
-      <c r="H140" s="1" t="str">
+      <c r="H140" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.lblSeleccionar")</v>
       </c>
-      <c r="I140" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J140" s="1" t="str">
+      <c r="I140" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSeleccionar.setText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
       </c>
-      <c r="K140" s="1" t="str">
+      <c r="K140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblSeleccionar.setPromptText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
       </c>
@@ -6644,7 +6674,7 @@
         <v>44</v>
       </c>
       <c r="C141" t="str">
-        <f>CONCATENATE(A141,".",B141)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colId</v>
       </c>
       <c r="D141" t="s">
@@ -6658,19 +6688,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colId=</v>
       </c>
-      <c r="H141" s="1" t="str">
+      <c r="H141" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colId")</v>
       </c>
-      <c r="I141" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J141" s="1" t="str">
+      <c r="I141" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setText(bundle.getString("RegistroPaquetesController.colId"));</v>
       </c>
-      <c r="K141" s="1" t="str">
+      <c r="K141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colId.setPromptText(bundle.getString("RegistroPaquetesController.colId"));</v>
       </c>
@@ -6683,7 +6713,7 @@
         <v>46</v>
       </c>
       <c r="C142" t="str">
-        <f>CONCATENATE(A142,".",B142)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colNombre</v>
       </c>
       <c r="D142" t="s">
@@ -6697,19 +6727,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colNombre=</v>
       </c>
-      <c r="H142" s="1" t="str">
+      <c r="H142" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colNombre")</v>
       </c>
-      <c r="I142" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J142" s="1" t="str">
+      <c r="I142" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
       </c>
-      <c r="K142" s="1" t="str">
+      <c r="K142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setPromptText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
       </c>
@@ -6722,7 +6752,7 @@
         <v>47</v>
       </c>
       <c r="C143" t="str">
-        <f>CONCATENATE(A143,".",B143)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colCiudad</v>
       </c>
       <c r="D143" t="s">
@@ -6736,19 +6766,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colCiudad=</v>
       </c>
-      <c r="H143" s="1" t="str">
+      <c r="H143" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colCiudad")</v>
       </c>
-      <c r="I143" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J143" s="1" t="str">
+      <c r="I143" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCiudad.setText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
       </c>
-      <c r="K143" s="1" t="str">
+      <c r="K143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colCiudad.setPromptText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
       </c>
@@ -6761,7 +6791,7 @@
         <v>48</v>
       </c>
       <c r="C144" t="str">
-        <f>CONCATENATE(A144,".",B144)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colDescripcion</v>
       </c>
       <c r="D144" t="s">
@@ -6775,19 +6805,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colDescripcion=</v>
       </c>
-      <c r="H144" s="1" t="str">
+      <c r="H144" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colDescripcion")</v>
       </c>
-      <c r="I144" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J144" s="1" t="str">
+      <c r="I144" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDescripcion.setText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
       </c>
-      <c r="K144" s="1" t="str">
+      <c r="K144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colDescripcion.setPromptText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
       </c>
@@ -6800,7 +6830,7 @@
         <v>49</v>
       </c>
       <c r="C145" t="str">
-        <f>CONCATENATE(A145,".",B145)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colClima</v>
       </c>
       <c r="D145" t="s">
@@ -6814,19 +6844,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colClima=</v>
       </c>
-      <c r="H145" s="1" t="str">
+      <c r="H145" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colClima")</v>
       </c>
-      <c r="I145" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J145" s="1" t="str">
+      <c r="I145" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colClima.setText(bundle.getString("RegistroPaquetesController.colClima"));</v>
       </c>
-      <c r="K145" s="1" t="str">
+      <c r="K145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colClima.setPromptText(bundle.getString("RegistroPaquetesController.colClima"));</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>215</v>
       </c>
       <c r="C146" t="str">
-        <f>CONCATENATE(A146,".",B146)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colIdSelect</v>
       </c>
       <c r="D146" t="s">
@@ -6853,19 +6883,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colIdSelect=</v>
       </c>
-      <c r="H146" s="1" t="str">
+      <c r="H146" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colIdSelect")</v>
       </c>
-      <c r="I146" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J146" s="1" t="str">
+      <c r="I146" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdSelect.setText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
       </c>
-      <c r="K146" s="1" t="str">
+      <c r="K146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdSelect.setPromptText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
       </c>
@@ -6878,7 +6908,7 @@
         <v>216</v>
       </c>
       <c r="C147" t="str">
-        <f>CONCATENATE(A147,".",B147)</f>
+        <f t="shared" si="8"/>
         <v>RegistroPaquetesController.colNombreSelect</v>
       </c>
       <c r="D147" t="s">
@@ -6892,19 +6922,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistroPaquetesController.colNombreSelect=</v>
       </c>
-      <c r="H147" s="1" t="str">
+      <c r="H147" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistroPaquetesController.colNombreSelect")</v>
       </c>
-      <c r="I147" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J147" s="1" t="str">
+      <c r="I147" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombreSelect.setText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
       </c>
-      <c r="K147" s="1" t="str">
+      <c r="K147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombreSelect.setPromptText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
       </c>
@@ -6917,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="str">
-        <f>CONCATENATE(A148,".",B148)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.lblTitle</v>
       </c>
       <c r="D148" t="s">
@@ -6931,19 +6961,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.lblTitle=</v>
       </c>
-      <c r="H148" s="1" t="str">
+      <c r="H148" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.lblTitle")</v>
       </c>
-      <c r="I148" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J148" s="1" t="str">
+      <c r="I148" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
       </c>
-      <c r="K148" s="1" t="str">
+      <c r="K148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
       </c>
@@ -6956,7 +6986,7 @@
         <v>42</v>
       </c>
       <c r="C149" t="str">
-        <f>CONCATENATE(A149,".",B149)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.txtBuscar</v>
       </c>
       <c r="D149" t="s">
@@ -6970,19 +7000,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.txtBuscar=</v>
       </c>
-      <c r="H149" s="1" t="str">
+      <c r="H149" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.txtBuscar")</v>
       </c>
-      <c r="I149" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J149" s="1" t="str">
+      <c r="I149" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
       </c>
-      <c r="K149" s="1" t="str">
+      <c r="K149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtBuscar.setPromptText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
       </c>
@@ -6995,7 +7025,7 @@
         <v>46</v>
       </c>
       <c r="C150" t="str">
-        <f>CONCATENATE(A150,".",B150)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.colNombre</v>
       </c>
       <c r="D150" t="s">
@@ -7009,19 +7039,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.colNombre=</v>
       </c>
-      <c r="H150" s="1" t="str">
+      <c r="H150" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.colNombre")</v>
       </c>
-      <c r="I150" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J150" s="1" t="str">
+      <c r="I150" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
       </c>
-      <c r="K150" s="1" t="str">
+      <c r="K150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colNombre.setPromptText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
       </c>
@@ -7034,7 +7064,7 @@
         <v>59</v>
       </c>
       <c r="C151" t="str">
-        <f>CONCATENATE(A151,".",B151)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.colIdentificacion</v>
       </c>
       <c r="D151" t="s">
@@ -7048,19 +7078,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.colIdentificacion=</v>
       </c>
-      <c r="H151" s="1" t="str">
+      <c r="H151" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.colIdentificacion")</v>
       </c>
-      <c r="I151" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J151" s="1" t="str">
+      <c r="I151" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdentificacion.setText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
       </c>
-      <c r="K151" s="1" t="str">
+      <c r="K151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdentificacion.setPromptText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
       </c>
@@ -7073,7 +7103,7 @@
         <v>60</v>
       </c>
       <c r="C152" t="str">
-        <f>CONCATENATE(A152,".",B152)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.colHorasExperiencia</v>
       </c>
       <c r="D152" t="s">
@@ -7087,19 +7117,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.colHorasExperiencia=</v>
       </c>
-      <c r="H152" s="1" t="str">
+      <c r="H152" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.colHorasExperiencia")</v>
       </c>
-      <c r="I152" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J152" s="1" t="str">
+      <c r="I152" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colHorasExperiencia.setText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
       </c>
-      <c r="K152" s="1" t="str">
+      <c r="K152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colHorasExperiencia.setPromptText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
       </c>
@@ -7112,7 +7142,7 @@
         <v>62</v>
       </c>
       <c r="C153" t="str">
-        <f>CONCATENATE(A153,".",B153)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.colIdiomas</v>
       </c>
       <c r="D153" t="s">
@@ -7126,19 +7156,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.colIdiomas=</v>
       </c>
-      <c r="H153" s="1" t="str">
+      <c r="H153" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.colIdiomas")</v>
       </c>
-      <c r="I153" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J153" s="1" t="str">
+      <c r="I153" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdiomas.setText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
       </c>
-      <c r="K153" s="1" t="str">
+      <c r="K153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>colIdiomas.setPromptText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
       </c>
@@ -7151,7 +7181,7 @@
         <v>233</v>
       </c>
       <c r="C154" t="str">
-        <f>CONCATENATE(A154,".",B154)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.btnAceptar</v>
       </c>
       <c r="D154" t="s">
@@ -7165,19 +7195,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.btnAceptar=</v>
       </c>
-      <c r="H154" s="1" t="str">
+      <c r="H154" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.btnAceptar")</v>
       </c>
-      <c r="I154" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J154" s="1" t="str">
+      <c r="I154" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAceptar.setText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
       </c>
-      <c r="K154" s="1" t="str">
+      <c r="K154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnAceptar.setPromptText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
       </c>
@@ -7190,7 +7220,7 @@
         <v>234</v>
       </c>
       <c r="C155" t="str">
-        <f>CONCATENATE(A155,".",B155)</f>
+        <f t="shared" si="8"/>
         <v>SolicitudGuiaController.btnDenegar</v>
       </c>
       <c r="D155" t="s">
@@ -7204,19 +7234,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>SolicitudGuiaController.btnDenegar=</v>
       </c>
-      <c r="H155" s="1" t="str">
+      <c r="H155" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("SolicitudGuiaController.btnDenegar")</v>
       </c>
-      <c r="I155" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J155" s="1" t="str">
+      <c r="I155" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnDenegar.setText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
       </c>
-      <c r="K155" s="1" t="str">
+      <c r="K155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnDenegar.setPromptText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
       </c>
@@ -7229,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="str">
-        <f>CONCATENATE(A156,".",B156)</f>
+        <f t="shared" si="8"/>
         <v>ViewDestinosController.lblTitle</v>
       </c>
       <c r="D156" t="s">
@@ -7243,19 +7273,19 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ViewDestinosController.lblTitle=</v>
       </c>
-      <c r="H156" s="1" t="str">
+      <c r="H156" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ViewDestinosController.lblTitle")</v>
       </c>
-      <c r="I156" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J156" s="1" t="str">
+      <c r="I156" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("ViewDestinosController.lblTitle"));</v>
       </c>
-      <c r="K156" s="1" t="str">
+      <c r="K156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("ViewDestinosController.lblTitle"));</v>
       </c>
@@ -7268,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="str">
-        <f>CONCATENATE(A157,".",B157)</f>
+        <f t="shared" si="8"/>
         <v>ViewPaquetesController.lblTitle</v>
       </c>
       <c r="D157" t="s">
@@ -7282,21 +7312,216 @@
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ViewPaquetesController.lblTitle=</v>
       </c>
-      <c r="H157" s="1" t="str">
+      <c r="H157" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ViewPaquetesController.lblTitle")</v>
       </c>
-      <c r="I157" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"</v>
-      </c>
-      <c r="J157" s="1" t="str">
+      <c r="I157" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
       </c>
-      <c r="K157" s="1" t="str">
+      <c r="K157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblTitle.setPromptText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>248</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f>CONCATENATE(A158,".",B158)</f>
+        <v>EstadisticasController.lblTitle</v>
+      </c>
+      <c r="D158" t="s">
+        <v>249</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblTitle=ESTADÍSTICAS</v>
+      </c>
+      <c r="G158" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblTitle=</v>
+      </c>
+      <c r="H158" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblTitle")</v>
+      </c>
+      <c r="I158" s="1" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="J158" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setText(bundle.getString("EstadisticasController.lblTitle"));</v>
+      </c>
+      <c r="K158" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setPromptText(bundle.getString("EstadisticasController.lblTitle"));</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f t="shared" ref="C159:C161" si="10">CONCATENATE(A159,".",B159)</f>
+        <v>EstadisticasController.lblDestinosReservados</v>
+      </c>
+      <c r="D159" t="s">
+        <v>251</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblDestinosReservados=DESTINOS MAS RESERVADOS</v>
+      </c>
+      <c r="G159" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblDestinosReservados=</v>
+      </c>
+      <c r="H159" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblDestinosReservados")</v>
+      </c>
+      <c r="I159" s="1" t="str">
+        <f t="shared" ref="I159:I162" si="11">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J159" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosReservados.setText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
+      </c>
+      <c r="K159" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosReservados.setPromptText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>248</v>
+      </c>
+      <c r="B160" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>EstadisticasController.lblDestinosBuscados</v>
+      </c>
+      <c r="D160" t="s">
+        <v>253</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblDestinosBuscados=DESTINOS MAS BUSCADOS</v>
+      </c>
+      <c r="G160" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblDestinosBuscados=</v>
+      </c>
+      <c r="H160" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblDestinosBuscados")</v>
+      </c>
+      <c r="I160" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"</v>
+      </c>
+      <c r="J160" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosBuscados.setText(bundle.getString("EstadisticasController.lblDestinosBuscados"));</v>
+      </c>
+      <c r="K160" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosBuscados.setPromptText(bundle.getString("EstadisticasController.lblDestinosBuscados"));</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>248</v>
+      </c>
+      <c r="B161" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>EstadisticasController.lblGuiasPuntuados</v>
+      </c>
+      <c r="D161" t="s">
+        <v>257</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblGuiasPuntuados=GUIAS MEJOR PUNTUADOS</v>
+      </c>
+      <c r="G161" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblGuiasPuntuados=</v>
+      </c>
+      <c r="H161" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblGuiasPuntuados")</v>
+      </c>
+      <c r="I161" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"</v>
+      </c>
+      <c r="J161" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblGuiasPuntuados.setText(bundle.getString("EstadisticasController.lblGuiasPuntuados"));</v>
+      </c>
+      <c r="K161" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblGuiasPuntuados.setPromptText(bundle.getString("EstadisticasController.lblGuiasPuntuados"));</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>248</v>
+      </c>
+      <c r="B162" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f>CONCATENATE(A162,".",B162)</f>
+        <v>EstadisticasController.lblPaquetesReservados</v>
+      </c>
+      <c r="D162" t="s">
+        <v>256</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblPaquetesReservados=PAQUETES MAS RESERVADOS</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblPaquetesReservados=</v>
+      </c>
+      <c r="H162" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblPaquetesReservados")</v>
+      </c>
+      <c r="I162" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>"</v>
+      </c>
+      <c r="J162" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblPaquetesReservados.setText(bundle.getString("EstadisticasController.lblPaquetesReservados"));</v>
+      </c>
+      <c r="K162" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblPaquetesReservados.setPromptText(bundle.getString("EstadisticasController.lblPaquetesReservados"));</v>
       </c>
     </row>
   </sheetData>

--- a/info/ResourceBundle.xlsx
+++ b/info/ResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\GitHub\agenciaDeViajes\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO 5\Documents\GitHub\agenciaDeViajes\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073184F9-6125-424A-9E53-B82E374A778B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2024C4FD-96D0-4133-B12B-5463D3352C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5ACD5306-D8F0-41FA-948E-8F34C9ACE6C0}"/>
   </bookViews>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="381">
   <si>
     <t>CrearReservaController</t>
   </si>
@@ -813,6 +810,375 @@
   </si>
   <si>
     <t>GUIAS MEJOR PUNTUADOS</t>
+  </si>
+  <si>
+    <t>Confirm Your Reservation!</t>
+  </si>
+  <si>
+    <t>Selected Package</t>
+  </si>
+  <si>
+    <t>Travel Date</t>
+  </si>
+  <si>
+    <t>* Remember the range in which it is available</t>
+  </si>
+  <si>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>To:</t>
+  </si>
+  <si>
+    <t>Number of people</t>
+  </si>
+  <si>
+    <t>* Maximum capacity:</t>
+  </si>
+  <si>
+    <t>Would you like to select a Tour Guide?</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Experience (Hours)</t>
+  </si>
+  <si>
+    <t>Clear Selection</t>
+  </si>
+  <si>
+    <t>Book Now!</t>
+  </si>
+  <si>
+    <t>Destination Detail</t>
+  </si>
+  <si>
+    <t>City:</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Weather:</t>
+  </si>
+  <si>
+    <t>MANAGE DESTINATIONS</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>MANAGE GUIDES</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Hours of experience</t>
+  </si>
+  <si>
+    <t>APPLICATIONS</t>
+  </si>
+  <si>
+    <t>MANAGE PACKAGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Max C</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Hello again!</t>
+  </si>
+  <si>
+    <t>Welcome back, we have missed you</t>
+  </si>
+  <si>
+    <t>Not registered?</t>
+  </si>
+  <si>
+    <t>Register now</t>
+  </si>
+  <si>
+    <t>Destinations</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Guides</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Update your information!</t>
+  </si>
+  <si>
+    <t>Update your information and continue enjoying our application.</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package </t>
+  </si>
+  <si>
+    <t>There are %d spaces left!</t>
+  </si>
+  <si>
+    <t>Reserve now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price COP $ $. </t>
+  </si>
+  <si>
+    <t>Additional Services</t>
+  </si>
+  <si>
+    <t>Start date:</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>The best destinations for your pokeadventures</t>
+  </si>
+  <si>
+    <t>Invoice To:</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice: </t>
+  </si>
+  <si>
+    <t>Thank you for your purchase, enjoy your trip</t>
+  </si>
+  <si>
+    <t>txtAddress</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Already registered?</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>ADD DESTINATIONS</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Enter name</t>
+  </si>
+  <si>
+    <t>Enter the city</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Enter description</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Select images</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>TOUR GUIDE REGISTRATION</t>
+  </si>
+  <si>
+    <t>Your ID:</t>
+  </si>
+  <si>
+    <t>Enter your ID</t>
+  </si>
+  <si>
+    <t>Full Name:</t>
+  </si>
+  <si>
+    <t>Enter your name</t>
+  </si>
+  <si>
+    <t>Hours of experience:</t>
+  </si>
+  <si>
+    <t>Enter experience in hours</t>
+  </si>
+  <si>
+    <t>Image:</t>
+  </si>
+  <si>
+    <t>Select image</t>
+  </si>
+  <si>
+    <t>Selected image:</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>PACKAGE REGISTRATION</t>
+  </si>
+  <si>
+    <t>Duration in days:</t>
+  </si>
+  <si>
+    <t>Enter the duration of the package</t>
+  </si>
+  <si>
+    <t>Additional services:</t>
+  </si>
+  <si>
+    <t>Enter the additional services</t>
+  </si>
+  <si>
+    <t>Price in days:</t>
+  </si>
+  <si>
+    <t>Enter the price</t>
+  </si>
+  <si>
+    <t>Maximum quota:</t>
+  </si>
+  <si>
+    <t>Enter the maximum quota</t>
+  </si>
+  <si>
+    <t>Enter the start date of the package</t>
+  </si>
+  <si>
+    <t>End date:</t>
+  </si>
+  <si>
+    <t>Enter the end date of the package</t>
+  </si>
+  <si>
+    <t>Select the destinations that the package will contain</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>WEATHER</t>
+  </si>
+  <si>
+    <t>MANAGE GUIDE REQUESTS</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>STATISTICS</t>
+  </si>
+  <si>
+    <t>MOST BOOKED DESTINATIONS</t>
+  </si>
+  <si>
+    <t>MOST SEARCHED DESTINATIONS</t>
+  </si>
+  <si>
+    <t>TOP RATED GUIDES</t>
+  </si>
+  <si>
+    <t>MOST BOOKED PACKAGES</t>
+  </si>
+  <si>
+    <t>GuiaTuristicoController</t>
+  </si>
+  <si>
+    <t>txtDescription</t>
+  </si>
+  <si>
+    <t>Idiomas Hablados: %s\nExp Horas: %d</t>
+  </si>
+  <si>
+    <t>Languages Spoken: %s\nHours: %d</t>
   </si>
 </sst>
 </file>
@@ -897,8 +1263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K162" totalsRowShown="0">
-  <autoFilter ref="A2:K162" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K163" totalsRowShown="0">
+  <autoFilter ref="A2:K163" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DB61A800-468E-4337-AB63-C4B3FCA1212A}" name="Controller"/>
     <tableColumn id="2" xr3:uid="{859C3FBF-7B94-4EC0-9049-1A9A7EFB23B5}" name="ID"/>
@@ -1227,11 +1593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD659E6-F76E-49E6-BFF1-9AC73BCA288A}">
-  <dimension ref="A2:K162"/>
+  <dimension ref="A2:K163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J158" sqref="J158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1605,7 @@
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
@@ -1298,13 +1664,16 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
       <c r="F3" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblTitle=¡Confirma Tu Reserva!</v>
       </c>
       <c r="G3" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblTitle=</v>
+        <v>CrearReservaController.lblTitle=Confirm Your Reservation!</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1337,13 +1706,16 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
       <c r="F4" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblinfoPackage=Paquete Seleccionado</v>
       </c>
       <c r="G4" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblinfoPackage=</v>
+        <v>CrearReservaController.lblinfoPackage=Selected Package</v>
       </c>
       <c r="H4" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1376,13 +1748,16 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
       <c r="F5" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblFecha=Fecha de Viaje</v>
       </c>
       <c r="G5" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblFecha=</v>
+        <v>CrearReservaController.lblFecha=Travel Date</v>
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1415,13 +1790,16 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
       <c r="F6" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblRangoDisponible=* Recuerda el rango en el que está disponible</v>
       </c>
       <c r="G6" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblRangoDisponible=</v>
+        <v>CrearReservaController.lblRangoDisponible=* Remember the range in which it is available</v>
       </c>
       <c r="H6" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1454,13 +1832,16 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>262</v>
+      </c>
       <c r="F7" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblFechaInicial=Desde:</v>
       </c>
       <c r="G7" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblFechaInicial=</v>
+        <v>CrearReservaController.lblFechaInicial=From:</v>
       </c>
       <c r="H7" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1493,13 +1874,16 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
       <c r="F8" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblFechaFinal=Hasta:</v>
       </c>
       <c r="G8" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblFechaFinal=</v>
+        <v>CrearReservaController.lblFechaFinal=To:</v>
       </c>
       <c r="H8" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1532,13 +1916,16 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
       <c r="F9" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblCant=Cantidad Personas</v>
       </c>
       <c r="G9" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblCant=</v>
+        <v>CrearReservaController.lblCant=Number of people</v>
       </c>
       <c r="H9" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1571,13 +1958,16 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
       <c r="F10" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblCupoMaximo=* Cupo máximo:</v>
       </c>
       <c r="G10" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblCupoMaximo=</v>
+        <v>CrearReservaController.lblCupoMaximo=* Maximum capacity:</v>
       </c>
       <c r="H10" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1610,13 +2000,16 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
       <c r="F11" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.lblGuia=¿Deseas Seleccionar Un Guia Turistico?</v>
       </c>
       <c r="G11" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.lblGuia=</v>
+        <v>CrearReservaController.lblGuia=Would you like to select a Tour Guide?</v>
       </c>
       <c r="H11" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1649,13 +2042,16 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
       <c r="F12" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.clmIdioma=Idiomas</v>
       </c>
       <c r="G12" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.clmIdioma=</v>
+        <v>CrearReservaController.clmIdioma=Languages</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1688,13 +2084,16 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
       <c r="F13" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.clmId=Identificacion</v>
       </c>
       <c r="G13" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.clmId=</v>
+        <v>CrearReservaController.clmId=Identity</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1727,13 +2126,16 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
+      <c r="E14" t="s">
+        <v>269</v>
+      </c>
       <c r="F14" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.clmName=Nombre</v>
       </c>
       <c r="G14" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.clmName=</v>
+        <v>CrearReservaController.clmName=Name</v>
       </c>
       <c r="H14" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1766,13 +2168,16 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
       <c r="F15" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.clmExp=Experiencia (Horas)</v>
       </c>
       <c r="G15" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.clmExp=</v>
+        <v>CrearReservaController.clmExp=Experience (Hours)</v>
       </c>
       <c r="H15" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1805,13 +2210,16 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
+      <c r="E16" t="s">
+        <v>271</v>
+      </c>
       <c r="F16" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.btnLimpiarSeleccion=Limpiar Selección</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.btnLimpiarSeleccion=</v>
+        <v>CrearReservaController.btnLimpiarSeleccion=Clear Selection</v>
       </c>
       <c r="H16" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1844,13 +2252,16 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
       <c r="F17" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>CrearReservaController.btnReservar=¡Reserva Ya!</v>
       </c>
       <c r="G17" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>CrearReservaController.btnReservar=</v>
+        <v>CrearReservaController.btnReservar=Book Now!</v>
       </c>
       <c r="H17" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1883,13 +2294,16 @@
       <c r="D18" t="s">
         <v>246</v>
       </c>
+      <c r="E18" t="s">
+        <v>273</v>
+      </c>
       <c r="F18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblTitle=Detalle Destino</v>
       </c>
       <c r="G18" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>DestinoDetailsController.lblTitle=</v>
+        <v>DestinoDetailsController.lblTitle=Destination Detail</v>
       </c>
       <c r="H18" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1922,13 +2336,16 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
+      <c r="E19" t="s">
+        <v>274</v>
+      </c>
       <c r="F19" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblCiudad=Ciudad:</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>DestinoDetailsController.lblCiudad=</v>
+        <v>DestinoDetailsController.lblCiudad=City:</v>
       </c>
       <c r="H19" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -1961,13 +2378,16 @@
       <c r="D20" t="s">
         <v>51</v>
       </c>
+      <c r="E20" t="s">
+        <v>275</v>
+      </c>
       <c r="F20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblDescription=Descripcion</v>
       </c>
       <c r="G20" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>DestinoDetailsController.lblDescription=</v>
+        <v>DestinoDetailsController.lblDescription=Description</v>
       </c>
       <c r="H20" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2000,13 +2420,16 @@
       <c r="D21" t="s">
         <v>39</v>
       </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
       <c r="F21" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>DestinoDetailsController.lblClima=Clima:</v>
       </c>
       <c r="G21" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>DestinoDetailsController.lblClima=</v>
+        <v>DestinoDetailsController.lblClima=Weather:</v>
       </c>
       <c r="H21" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2039,13 +2462,16 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
+      <c r="E22" t="s">
+        <v>277</v>
+      </c>
       <c r="F22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.lblTitle=GESTIONAR DESTINOS</v>
       </c>
       <c r="G22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.lblTitle=</v>
+        <v>GestionarDestinosController.lblTitle=MANAGE DESTINATIONS</v>
       </c>
       <c r="H22" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2078,13 +2504,16 @@
       <c r="D23" t="s">
         <v>43</v>
       </c>
+      <c r="E23" t="s">
+        <v>278</v>
+      </c>
       <c r="F23" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.txtBuscar=Buscar</v>
       </c>
       <c r="G23" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.txtBuscar=</v>
+        <v>GestionarDestinosController.txtBuscar=Search</v>
       </c>
       <c r="H23" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2117,13 +2546,16 @@
       <c r="D24" t="s">
         <v>45</v>
       </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.colId=Id</v>
       </c>
       <c r="G24" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.colId=</v>
+        <v>GestionarDestinosController.colId=Id</v>
       </c>
       <c r="H24" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2156,13 +2588,16 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
+      <c r="E25" t="s">
+        <v>269</v>
+      </c>
       <c r="F25" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.colNombre=Nombre</v>
       </c>
       <c r="G25" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.colNombre=</v>
+        <v>GestionarDestinosController.colNombre=Name</v>
       </c>
       <c r="H25" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2195,13 +2630,16 @@
       <c r="D26" t="s">
         <v>52</v>
       </c>
+      <c r="E26" t="s">
+        <v>279</v>
+      </c>
       <c r="F26" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.colCiudad=Ciudad</v>
       </c>
       <c r="G26" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.colCiudad=</v>
+        <v>GestionarDestinosController.colCiudad=City</v>
       </c>
       <c r="H26" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2234,13 +2672,16 @@
       <c r="D27" t="s">
         <v>51</v>
       </c>
+      <c r="E27" t="s">
+        <v>275</v>
+      </c>
       <c r="F27" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.colDescripcion=Descripcion</v>
       </c>
       <c r="G27" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.colDescripcion=</v>
+        <v>GestionarDestinosController.colDescripcion=Description</v>
       </c>
       <c r="H27" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2273,13 +2714,16 @@
       <c r="D28" t="s">
         <v>50</v>
       </c>
+      <c r="E28" t="s">
+        <v>280</v>
+      </c>
       <c r="F28" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.colClima=Clima</v>
       </c>
       <c r="G28" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.colClima=</v>
+        <v>GestionarDestinosController.colClima=Weather</v>
       </c>
       <c r="H28" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2312,13 +2756,16 @@
       <c r="D29" t="s">
         <v>53</v>
       </c>
+      <c r="E29" t="s">
+        <v>281</v>
+      </c>
       <c r="F29" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.btnEliminar=ELIMINAR</v>
       </c>
       <c r="G29" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.btnEliminar=</v>
+        <v>GestionarDestinosController.btnEliminar=REMOVE</v>
       </c>
       <c r="H29" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2351,13 +2798,16 @@
       <c r="D30" t="s">
         <v>56</v>
       </c>
+      <c r="E30" t="s">
+        <v>282</v>
+      </c>
       <c r="F30" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarDestinosController.btnAgregar=AGREGAR</v>
       </c>
       <c r="G30" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.btnAgregar=</v>
+        <v>GestionarDestinosController.btnAgregar=ADD</v>
       </c>
       <c r="H30" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2390,13 +2840,16 @@
       <c r="D31" t="s">
         <v>58</v>
       </c>
+      <c r="E31" t="s">
+        <v>283</v>
+      </c>
       <c r="F31" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.lblTitle=GESTIONAR GUIAS</v>
       </c>
       <c r="G31" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.lblTitle=</v>
+        <v>GestionarGuiasController.lblTitle=MANAGE GUIDES</v>
       </c>
       <c r="H31" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2429,13 +2882,16 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
+      <c r="E32" t="s">
+        <v>278</v>
+      </c>
       <c r="F32" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.txtBuscar=Buscar</v>
       </c>
       <c r="G32" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.txtBuscar=</v>
+        <v>GestionarGuiasController.txtBuscar=Search</v>
       </c>
       <c r="H32" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2468,13 +2924,16 @@
       <c r="D33" t="s">
         <v>27</v>
       </c>
+      <c r="E33" t="s">
+        <v>269</v>
+      </c>
       <c r="F33" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.colNombre=Nombre</v>
       </c>
       <c r="G33" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.colNombre=</v>
+        <v>GestionarGuiasController.colNombre=Name</v>
       </c>
       <c r="H33" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2507,13 +2966,16 @@
       <c r="D34" t="s">
         <v>26</v>
       </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
       <c r="F34" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.colIdentificacion=Identificacion</v>
       </c>
       <c r="G34" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.colIdentificacion=</v>
+        <v>GestionarGuiasController.colIdentificacion=Login</v>
       </c>
       <c r="H34" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2546,13 +3008,16 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
+      <c r="E35" t="s">
+        <v>285</v>
+      </c>
       <c r="F35" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.colHorasExperiencia=Horas de experiencia</v>
       </c>
       <c r="G35" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.colHorasExperiencia=</v>
+        <v>GestionarGuiasController.colHorasExperiencia=Hours of experience</v>
       </c>
       <c r="H35" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2585,13 +3050,16 @@
       <c r="D36" t="s">
         <v>25</v>
       </c>
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
       <c r="F36" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.colIdiomas=Idiomas</v>
       </c>
       <c r="G36" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.colIdiomas=</v>
+        <v>GestionarGuiasController.colIdiomas=Languages</v>
       </c>
       <c r="H36" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2624,13 +3092,16 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
+      <c r="E37" t="s">
+        <v>281</v>
+      </c>
       <c r="F37" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.btnEliminar=ELIMINAR</v>
       </c>
       <c r="G37" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.btnEliminar=</v>
+        <v>GestionarGuiasController.btnEliminar=REMOVE</v>
       </c>
       <c r="H37" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2663,13 +3134,16 @@
       <c r="D38" t="s">
         <v>64</v>
       </c>
+      <c r="E38" t="s">
+        <v>286</v>
+      </c>
       <c r="F38" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarGuiasController.btnSolicitudes=SOLICITUDES</v>
       </c>
       <c r="G38" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarGuiasController.btnSolicitudes=</v>
+        <v>GestionarGuiasController.btnSolicitudes=APPLICATIONS</v>
       </c>
       <c r="H38" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2702,13 +3176,16 @@
       <c r="D39" t="s">
         <v>65</v>
       </c>
+      <c r="E39" t="s">
+        <v>287</v>
+      </c>
       <c r="F39" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.lblTitle=GESTIONAR PAQUETES</v>
       </c>
       <c r="G39" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.lblTitle=</v>
+        <v>GestionarPaquetesController.lblTitle=MANAGE PACKAGES</v>
       </c>
       <c r="H39" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2741,13 +3218,16 @@
       <c r="D40" t="s">
         <v>43</v>
       </c>
+      <c r="E40" t="s">
+        <v>278</v>
+      </c>
       <c r="F40" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.txtBuscar=Buscar</v>
       </c>
       <c r="G40" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.txtBuscar=</v>
+        <v>GestionarPaquetesController.txtBuscar=Search</v>
       </c>
       <c r="H40" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2780,13 +3260,16 @@
       <c r="D41" t="s">
         <v>45</v>
       </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
       <c r="F41" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colId=Id</v>
       </c>
       <c r="G41" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colId=</v>
+        <v>GestionarPaquetesController.colId=Id</v>
       </c>
       <c r="H41" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2819,13 +3302,16 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
+      <c r="E42" t="s">
+        <v>269</v>
+      </c>
       <c r="F42" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colNombre=Nombre</v>
       </c>
       <c r="G42" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colNombre=</v>
+        <v>GestionarPaquetesController.colNombre=Name</v>
       </c>
       <c r="H42" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2858,13 +3344,16 @@
       <c r="D43" t="s">
         <v>67</v>
       </c>
+      <c r="E43" t="s">
+        <v>288</v>
+      </c>
       <c r="F43" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v xml:space="preserve">GestionarPaquetesController.colDuracion=Duracion </v>
       </c>
       <c r="G43" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colDuracion=</v>
+        <v xml:space="preserve">GestionarPaquetesController.colDuracion=Duration </v>
       </c>
       <c r="H43" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2897,13 +3386,16 @@
       <c r="D44" t="s">
         <v>76</v>
       </c>
+      <c r="E44" t="s">
+        <v>289</v>
+      </c>
       <c r="F44" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colServicios=Servicios</v>
       </c>
       <c r="G44" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colServicios=</v>
+        <v>GestionarPaquetesController.colServicios=Services</v>
       </c>
       <c r="H44" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2936,13 +3428,16 @@
       <c r="D45" t="s">
         <v>71</v>
       </c>
+      <c r="E45" t="s">
+        <v>290</v>
+      </c>
       <c r="F45" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colCupoMaximo=C Maximo</v>
       </c>
       <c r="G45" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colCupoMaximo=</v>
+        <v>GestionarPaquetesController.colCupoMaximo=Max C</v>
       </c>
       <c r="H45" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2975,13 +3470,16 @@
       <c r="D46" t="s">
         <v>73</v>
       </c>
+      <c r="E46" t="s">
+        <v>291</v>
+      </c>
       <c r="F46" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colFechaInicio=Fecha inicio</v>
       </c>
       <c r="G46" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colFechaInicio=</v>
+        <v>GestionarPaquetesController.colFechaInicio=Start Date</v>
       </c>
       <c r="H46" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3014,13 +3512,16 @@
       <c r="D47" t="s">
         <v>75</v>
       </c>
+      <c r="E47" t="s">
+        <v>292</v>
+      </c>
       <c r="F47" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GestionarPaquetesController.colFechaFin=Fecha fin</v>
       </c>
       <c r="G47" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarPaquetesController.colFechaFin=</v>
+        <v>GestionarPaquetesController.colFechaFin=End Date</v>
       </c>
       <c r="H47" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3053,13 +3554,16 @@
       <c r="D48" t="s">
         <v>79</v>
       </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
       <c r="F48" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.lblTitle=¡Hola de nuevo!</v>
       </c>
       <c r="G48" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.lblTitle=</v>
+        <v>LoginController.lblTitle=Hello again!</v>
       </c>
       <c r="H48" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3092,13 +3596,16 @@
       <c r="D49" t="s">
         <v>80</v>
       </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
       <c r="F49" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.lblInfo=Bienvenido de nuevo, te hemos extrañado</v>
       </c>
       <c r="G49" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.lblInfo=</v>
+        <v>LoginController.lblInfo=Welcome back, we have missed you</v>
       </c>
       <c r="H49" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3131,13 +3638,16 @@
       <c r="D50" t="s">
         <v>26</v>
       </c>
+      <c r="E50" t="s">
+        <v>284</v>
+      </c>
       <c r="F50" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.txtEmail=Identificacion</v>
       </c>
       <c r="G50" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.txtEmail=</v>
+        <v>LoginController.txtEmail=Login</v>
       </c>
       <c r="H50" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3170,13 +3680,16 @@
       <c r="D51" t="s">
         <v>83</v>
       </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
       <c r="F51" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.txtPassword=Contraseña</v>
       </c>
       <c r="G51" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.txtPassword=</v>
+        <v>LoginController.txtPassword=Password</v>
       </c>
       <c r="H51" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3209,13 +3722,16 @@
       <c r="D52" t="s">
         <v>85</v>
       </c>
+      <c r="E52" t="s">
+        <v>284</v>
+      </c>
       <c r="F52" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.btnIniciar=Iniciar Sesión</v>
       </c>
       <c r="G52" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.btnIniciar=</v>
+        <v>LoginController.btnIniciar=Login</v>
       </c>
       <c r="H52" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3248,13 +3764,16 @@
       <c r="D53" t="s">
         <v>86</v>
       </c>
+      <c r="E53" t="s">
+        <v>295</v>
+      </c>
       <c r="F53" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.lblNoRegistrado=¿No esta registrado?</v>
       </c>
       <c r="G53" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.lblNoRegistrado=</v>
+        <v>LoginController.lblNoRegistrado=Not registered?</v>
       </c>
       <c r="H53" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3287,13 +3806,16 @@
       <c r="D54" t="s">
         <v>89</v>
       </c>
+      <c r="E54" t="s">
+        <v>296</v>
+      </c>
       <c r="F54" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>LoginController.btnRegistrar=Registrarse ahora</v>
       </c>
       <c r="G54" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>LoginController.btnRegistrar=</v>
+        <v>LoginController.btnRegistrar=Register now</v>
       </c>
       <c r="H54" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3326,13 +3848,16 @@
       <c r="D55" t="s">
         <v>95</v>
       </c>
+      <c r="E55" t="s">
+        <v>297</v>
+      </c>
       <c r="F55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MainMenuController.lblBtnDestinos=Destinos</v>
       </c>
       <c r="G55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblBtnDestinos=</v>
+        <v>MainMenuController.lblBtnDestinos=Destinations</v>
       </c>
       <c r="H55" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3365,13 +3890,16 @@
       <c r="D56" t="s">
         <v>94</v>
       </c>
+      <c r="E56" t="s">
+        <v>298</v>
+      </c>
       <c r="F56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MainMenuController.lblbtnPaquetes=Paquetes</v>
       </c>
       <c r="G56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblbtnPaquetes=</v>
+        <v>MainMenuController.lblbtnPaquetes=Packages</v>
       </c>
       <c r="H56" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3404,13 +3932,16 @@
       <c r="D57" t="s">
         <v>93</v>
       </c>
+      <c r="E57" t="s">
+        <v>299</v>
+      </c>
       <c r="F57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MainMenuController.lblBtnGuias=Guias</v>
       </c>
       <c r="G57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblBtnGuias=</v>
+        <v>MainMenuController.lblBtnGuias=Guides</v>
       </c>
       <c r="H57" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3443,13 +3974,16 @@
       <c r="D58" t="s">
         <v>95</v>
       </c>
+      <c r="E58" t="s">
+        <v>297</v>
+      </c>
       <c r="F58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MenuPrincipalAdminController.lblBtnDestinos=Destinos</v>
       </c>
       <c r="G58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnDestinos=</v>
+        <v>MenuPrincipalAdminController.lblBtnDestinos=Destinations</v>
       </c>
       <c r="H58" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3482,13 +4016,16 @@
       <c r="D59" t="s">
         <v>94</v>
       </c>
+      <c r="E59" t="s">
+        <v>298</v>
+      </c>
       <c r="F59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MenuPrincipalAdminController.lblbtnPaquetes=Paquetes</v>
       </c>
       <c r="G59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblbtnPaquetes=</v>
+        <v>MenuPrincipalAdminController.lblbtnPaquetes=Packages</v>
       </c>
       <c r="H59" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3521,13 +4058,16 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
+      <c r="E60" t="s">
+        <v>299</v>
+      </c>
       <c r="F60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MenuPrincipalAdminController.lblBtnGuias=Guias</v>
       </c>
       <c r="G60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnGuias=</v>
+        <v>MenuPrincipalAdminController.lblBtnGuias=Guides</v>
       </c>
       <c r="H60" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3560,13 +4100,16 @@
       <c r="D61" t="s">
         <v>97</v>
       </c>
+      <c r="E61" t="s">
+        <v>300</v>
+      </c>
       <c r="F61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>MenuPrincipalAdminController.lblBtnClientes=Clientes</v>
       </c>
       <c r="G61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnClientes=</v>
+        <v>MenuPrincipalAdminController.lblBtnClientes=Customers</v>
       </c>
       <c r="H61" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3599,13 +4142,16 @@
       <c r="D62" t="s">
         <v>100</v>
       </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
       <c r="F62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.lblTitle=¡Actualiza tu informacion!</v>
       </c>
       <c r="G62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.lblTitle=</v>
+        <v>ModificarClienteController.lblTitle=Update your information!</v>
       </c>
       <c r="H62" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3638,13 +4184,16 @@
       <c r="D63" t="s">
         <v>101</v>
       </c>
+      <c r="E63" t="s">
+        <v>302</v>
+      </c>
       <c r="F63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.lblInfo=Actualiza tus datos y continua disfrutando de nuestra aplicacion</v>
       </c>
       <c r="G63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.lblInfo=</v>
+        <v>ModificarClienteController.lblInfo=Update your information and continue enjoying our application.</v>
       </c>
       <c r="H63" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3677,13 +4226,16 @@
       <c r="D64" t="s">
         <v>26</v>
       </c>
+      <c r="E64" t="s">
+        <v>284</v>
+      </c>
       <c r="F64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtIdentificacion=Identificacion</v>
       </c>
       <c r="G64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtIdentificacion=</v>
+        <v>ModificarClienteController.txtIdentificacion=Login</v>
       </c>
       <c r="H64" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3716,13 +4268,16 @@
       <c r="D65" t="s">
         <v>102</v>
       </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
       <c r="F65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtNombre=Nombre Completo</v>
       </c>
       <c r="G65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtNombre=</v>
+        <v>ModificarClienteController.txtNombre=Full Name</v>
       </c>
       <c r="H65" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3755,13 +4310,16 @@
       <c r="D66" t="s">
         <v>103</v>
       </c>
+      <c r="E66" t="s">
+        <v>103</v>
+      </c>
       <c r="F66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtPassword=Password</v>
       </c>
       <c r="G66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtPassword=</v>
+        <v>ModificarClienteController.txtPassword=Password</v>
       </c>
       <c r="H66" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3794,13 +4352,16 @@
       <c r="D67" t="s">
         <v>104</v>
       </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
       <c r="F67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtEmail=Email</v>
       </c>
       <c r="G67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtEmail=</v>
+        <v>ModificarClienteController.txtEmail=Email</v>
       </c>
       <c r="H67" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3833,13 +4394,16 @@
       <c r="D68" t="s">
         <v>154</v>
       </c>
+      <c r="E68" t="s">
+        <v>304</v>
+      </c>
       <c r="F68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtTelefono=Teléfono</v>
       </c>
       <c r="G68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtTelefono=</v>
+        <v>ModificarClienteController.txtTelefono=Phone</v>
       </c>
       <c r="H68" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3872,13 +4436,16 @@
       <c r="D69" t="s">
         <v>105</v>
       </c>
+      <c r="E69" t="s">
+        <v>305</v>
+      </c>
       <c r="F69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.txtDireccion=Direccion</v>
       </c>
       <c r="G69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtDireccion=</v>
+        <v>ModificarClienteController.txtDireccion=Address</v>
       </c>
       <c r="H69" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3911,13 +4478,16 @@
       <c r="D70" t="s">
         <v>106</v>
       </c>
+      <c r="E70" t="s">
+        <v>306</v>
+      </c>
       <c r="F70" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.btnActualizar=Actualizar</v>
       </c>
       <c r="G70" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.btnActualizar=</v>
+        <v>ModificarClienteController.btnActualizar=Update</v>
       </c>
       <c r="H70" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3950,13 +4520,16 @@
       <c r="D71" t="s">
         <v>113</v>
       </c>
+      <c r="E71" t="s">
+        <v>307</v>
+      </c>
       <c r="F71" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Paquete </v>
       </c>
       <c r="G71" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblPaquete=</v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Package </v>
       </c>
       <c r="H71" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -3989,13 +4562,16 @@
       <c r="D72" t="s">
         <v>124</v>
       </c>
+      <c r="E72" t="s">
+        <v>308</v>
+      </c>
       <c r="F72" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.lblInfoCupos=¡Quedan %d cupos!</v>
       </c>
       <c r="G72" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblInfoCupos=</v>
+        <v>PaqueteDetailsController.lblInfoCupos=There are %d spaces left!</v>
       </c>
       <c r="H72" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4028,13 +4604,16 @@
       <c r="D73" t="s">
         <v>116</v>
       </c>
+      <c r="E73" t="s">
+        <v>309</v>
+      </c>
       <c r="F73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.btnReservar=Reserva ahora</v>
       </c>
       <c r="G73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.btnReservar=</v>
+        <v>PaqueteDetailsController.btnReservar=Reserve now</v>
       </c>
       <c r="H73" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4067,13 +4646,16 @@
       <c r="D74" t="s">
         <v>117</v>
       </c>
+      <c r="E74" t="s">
+        <v>310</v>
+      </c>
       <c r="F74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Precio COP $ </v>
       </c>
       <c r="G74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblPrecio=</v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Price COP $ $. </v>
       </c>
       <c r="H74" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4106,13 +4688,16 @@
       <c r="D75" t="s">
         <v>123</v>
       </c>
+      <c r="E75" t="s">
+        <v>311</v>
+      </c>
       <c r="F75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.lblServiciosExtra=Servicios Adicionales</v>
       </c>
       <c r="G75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblServiciosExtra=</v>
+        <v>PaqueteDetailsController.lblServiciosExtra=Additional Services</v>
       </c>
       <c r="H75" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4145,13 +4730,16 @@
       <c r="D76" t="s">
         <v>95</v>
       </c>
+      <c r="E76" t="s">
+        <v>297</v>
+      </c>
       <c r="F76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.lblDestinos=Destinos</v>
       </c>
       <c r="G76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblDestinos=</v>
+        <v>PaqueteDetailsController.lblDestinos=Destinations</v>
       </c>
       <c r="H76" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4184,13 +4772,16 @@
       <c r="D77" t="s">
         <v>120</v>
       </c>
+      <c r="E77" t="s">
+        <v>312</v>
+      </c>
       <c r="F77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.lblFechaInicial=Fecha Inicial:</v>
       </c>
       <c r="G77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblFechaInicial=</v>
+        <v>PaqueteDetailsController.lblFechaInicial=Start date:</v>
       </c>
       <c r="H77" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4223,13 +4814,16 @@
       <c r="D78" t="s">
         <v>121</v>
       </c>
+      <c r="E78" t="s">
+        <v>313</v>
+      </c>
       <c r="F78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PaqueteDetailsController.lblFechaFinal=Fecha Final:</v>
       </c>
       <c r="G78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblFechaFinal=</v>
+        <v>PaqueteDetailsController.lblFechaFinal=End Date:</v>
       </c>
       <c r="H78" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4262,13 +4856,16 @@
       <c r="D79" t="s">
         <v>146</v>
       </c>
+      <c r="E79" t="s">
+        <v>314</v>
+      </c>
       <c r="F79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblEstado=Estado</v>
       </c>
       <c r="G79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblEstado=</v>
+        <v>PDFFacturaController.lblEstado=Status</v>
       </c>
       <c r="H79" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4301,13 +4898,16 @@
       <c r="D80" t="s">
         <v>145</v>
       </c>
+      <c r="E80" t="s">
+        <v>315</v>
+      </c>
       <c r="F80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblVeterinario=Veterinario</v>
       </c>
       <c r="G80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblVeterinario=</v>
+        <v>PDFFacturaController.lblVeterinario=Veterinarian</v>
       </c>
       <c r="H80" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4340,13 +4940,16 @@
       <c r="D81" t="s">
         <v>144</v>
       </c>
+      <c r="E81" t="s">
+        <v>316</v>
+      </c>
       <c r="F81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblMascota=Mascota</v>
       </c>
       <c r="G81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblMascota=</v>
+        <v>PDFFacturaController.lblMascota=Pet</v>
       </c>
       <c r="H81" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4379,13 +4982,16 @@
       <c r="D82" t="s">
         <v>143</v>
       </c>
+      <c r="E82" t="s">
+        <v>317</v>
+      </c>
       <c r="F82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblTipo=Tipo</v>
       </c>
       <c r="G82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTipo=</v>
+        <v>PDFFacturaController.lblTipo=Type</v>
       </c>
       <c r="H82" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4418,13 +5024,16 @@
       <c r="D83" t="s">
         <v>142</v>
       </c>
+      <c r="E83" t="s">
+        <v>318</v>
+      </c>
       <c r="F83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblSexo=Sexo</v>
       </c>
       <c r="G83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblSexo=</v>
+        <v>PDFFacturaController.lblSexo=Sex</v>
       </c>
       <c r="H83" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4457,13 +5066,16 @@
       <c r="D84" t="s">
         <v>141</v>
       </c>
+      <c r="E84" t="s">
+        <v>319</v>
+      </c>
       <c r="F84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblDiagnostico=Diagnostico</v>
       </c>
       <c r="G84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblDiagnostico=</v>
+        <v>PDFFacturaController.lblDiagnostico=Diagnosis</v>
       </c>
       <c r="H84" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4496,13 +5108,16 @@
       <c r="D85" t="s">
         <v>140</v>
       </c>
+      <c r="E85" t="s">
+        <v>320</v>
+      </c>
       <c r="F85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblTratamiento=Tratamiento</v>
       </c>
       <c r="G85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTratamiento=</v>
+        <v>PDFFacturaController.lblTratamiento=Treatment</v>
       </c>
       <c r="H85" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4535,13 +5150,16 @@
       <c r="D86" t="s">
         <v>139</v>
       </c>
+      <c r="E86" t="s">
+        <v>321</v>
+      </c>
       <c r="F86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblPrecio=Precio</v>
       </c>
       <c r="G86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblPrecio=</v>
+        <v>PDFFacturaController.lblPrecio=Price</v>
       </c>
       <c r="H86" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4574,13 +5192,16 @@
       <c r="D87" t="s">
         <v>138</v>
       </c>
+      <c r="E87" t="s">
+        <v>322</v>
+      </c>
       <c r="F87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblLema=Los mejores destinos para tus pokeaventuras</v>
       </c>
       <c r="G87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblLema=</v>
+        <v>PDFFacturaController.lblLema=The best destinations for your pokeadventures</v>
       </c>
       <c r="H87" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4613,13 +5234,16 @@
       <c r="D88" t="s">
         <v>147</v>
       </c>
+      <c r="E88" t="s">
+        <v>323</v>
+      </c>
       <c r="F88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblFacturaPara=Factura Para:</v>
       </c>
       <c r="G88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblFacturaPara=</v>
+        <v>PDFFacturaController.lblFacturaPara=Invoice To:</v>
       </c>
       <c r="H88" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4652,13 +5276,16 @@
       <c r="D89" t="s">
         <v>148</v>
       </c>
+      <c r="E89" t="s">
+        <v>324</v>
+      </c>
       <c r="F89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblTelefono=Telefono:</v>
       </c>
       <c r="G89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTelefono=</v>
+        <v>PDFFacturaController.lblTelefono=Phone:</v>
       </c>
       <c r="H89" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4691,13 +5318,16 @@
       <c r="D90" t="s">
         <v>149</v>
       </c>
+      <c r="E90" t="s">
+        <v>325</v>
+      </c>
       <c r="F90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblDireccion=Direccion:</v>
       </c>
       <c r="G90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblDireccion=</v>
+        <v>PDFFacturaController.lblDireccion=Address:</v>
       </c>
       <c r="H90" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4730,13 +5360,16 @@
       <c r="D91" t="s">
         <v>151</v>
       </c>
+      <c r="E91" t="s">
+        <v>326</v>
+      </c>
       <c r="F91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v xml:space="preserve">PDFFacturaController.lblFactura=Factura: </v>
       </c>
       <c r="G91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblFactura=</v>
+        <v xml:space="preserve">PDFFacturaController.lblFactura=Invoice: </v>
       </c>
       <c r="H91" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4769,13 +5402,16 @@
       <c r="D92" t="s">
         <v>153</v>
       </c>
+      <c r="E92" t="s">
+        <v>327</v>
+      </c>
       <c r="F92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>PDFFacturaController.lblThx=Gracias por tu compra, disfruta tu viaje</v>
       </c>
       <c r="G92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblThx=</v>
+        <v>PDFFacturaController.lblThx=Thank you for your purchase, enjoy your trip</v>
       </c>
       <c r="H92" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4808,13 +5444,16 @@
       <c r="D93" t="s">
         <v>26</v>
       </c>
+      <c r="E93" t="s">
+        <v>284</v>
+      </c>
       <c r="F93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtIdentificacion=Identificacion</v>
       </c>
       <c r="G93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtIdentificacion=</v>
+        <v>RegistrationController.txtIdentificacion=Login</v>
       </c>
       <c r="H93" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4847,13 +5486,16 @@
       <c r="D94" t="s">
         <v>102</v>
       </c>
+      <c r="E94" t="s">
+        <v>303</v>
+      </c>
       <c r="F94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtNombre=Nombre Completo</v>
       </c>
       <c r="G94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtNombre=</v>
+        <v>RegistrationController.txtNombre=Full Name</v>
       </c>
       <c r="H94" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4886,13 +5528,16 @@
       <c r="D95" t="s">
         <v>83</v>
       </c>
+      <c r="E95" t="s">
+        <v>103</v>
+      </c>
       <c r="F95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtPassword=Contraseña</v>
       </c>
       <c r="G95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtPassword=</v>
+        <v>RegistrationController.txtPassword=Password</v>
       </c>
       <c r="H95" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4925,13 +5570,16 @@
       <c r="D96" t="s">
         <v>104</v>
       </c>
+      <c r="E96" t="s">
+        <v>104</v>
+      </c>
       <c r="F96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtEmail=Email</v>
       </c>
       <c r="G96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtEmail=</v>
+        <v>RegistrationController.txtEmail=Email</v>
       </c>
       <c r="H96" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -4964,13 +5612,16 @@
       <c r="D97" t="s">
         <v>154</v>
       </c>
+      <c r="E97" t="s">
+        <v>304</v>
+      </c>
       <c r="F97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtTelefono=Teléfono</v>
       </c>
       <c r="G97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtTelefono=</v>
+        <v>RegistrationController.txtTelefono=Phone</v>
       </c>
       <c r="H97" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5003,13 +5654,16 @@
       <c r="D98" t="s">
         <v>108</v>
       </c>
+      <c r="E98" t="s">
+        <v>328</v>
+      </c>
       <c r="F98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.txtDireccion=txtDireccion</v>
       </c>
       <c r="G98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtDireccion=</v>
+        <v>RegistrationController.txtDireccion=txtAddress</v>
       </c>
       <c r="H98" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5042,13 +5696,16 @@
       <c r="D99" t="s">
         <v>155</v>
       </c>
+      <c r="E99" t="s">
+        <v>329</v>
+      </c>
       <c r="F99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.btnRegistro=Registrarse</v>
       </c>
       <c r="G99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.btnRegistro=</v>
+        <v>RegistrationController.btnRegistro=Register</v>
       </c>
       <c r="H99" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5081,13 +5738,16 @@
       <c r="D100" t="s">
         <v>159</v>
       </c>
+      <c r="E100" t="s">
+        <v>330</v>
+      </c>
       <c r="F100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.lblYaRegistrado=¿Ya te registraste?</v>
       </c>
       <c r="G100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.lblYaRegistrado=</v>
+        <v>RegistrationController.lblYaRegistrado=Already registered?</v>
       </c>
       <c r="H100" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5120,13 +5780,16 @@
       <c r="D101" t="s">
         <v>158</v>
       </c>
+      <c r="E101" t="s">
+        <v>331</v>
+      </c>
       <c r="F101" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.btnLogin=Iniciar sesión</v>
       </c>
       <c r="G101" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.btnLogin=</v>
+        <v>RegistrationController.btnLogin=Sign in</v>
       </c>
       <c r="H101" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5159,13 +5822,16 @@
       <c r="D102" t="s">
         <v>168</v>
       </c>
+      <c r="E102" t="s">
+        <v>332</v>
+      </c>
       <c r="F102" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblTitulo=AGREGAR DESTINOS</v>
       </c>
       <c r="G102" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblTitulo=</v>
+        <v>RegistroDestinoController.lblTitulo=ADD DESTINATIONS</v>
       </c>
       <c r="H102" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5198,13 +5864,16 @@
       <c r="D103" t="s">
         <v>169</v>
       </c>
+      <c r="E103" t="s">
+        <v>333</v>
+      </c>
       <c r="F103" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblNombre=Nombre:</v>
       </c>
       <c r="G103" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblNombre=</v>
+        <v>RegistroDestinoController.lblNombre=Name:</v>
       </c>
       <c r="H103" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5237,13 +5906,16 @@
       <c r="D104" t="s">
         <v>174</v>
       </c>
+      <c r="E104" t="s">
+        <v>334</v>
+      </c>
       <c r="F104" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.txtNombre=Ingrese el nombre</v>
       </c>
       <c r="G104" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtNombre=</v>
+        <v>RegistroDestinoController.txtNombre=Enter name</v>
       </c>
       <c r="H104" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5276,13 +5948,16 @@
       <c r="D105" t="s">
         <v>37</v>
       </c>
+      <c r="E105" t="s">
+        <v>274</v>
+      </c>
       <c r="F105" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblCiudad=Ciudad:</v>
       </c>
       <c r="G105" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblCiudad=</v>
+        <v>RegistroDestinoController.lblCiudad=City:</v>
       </c>
       <c r="H105" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5315,13 +5990,16 @@
       <c r="D106" t="s">
         <v>173</v>
       </c>
+      <c r="E106" t="s">
+        <v>335</v>
+      </c>
       <c r="F106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.txtCiudad=Ingrese la ciudad</v>
       </c>
       <c r="G106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtCiudad=</v>
+        <v>RegistroDestinoController.txtCiudad=Enter the city</v>
       </c>
       <c r="H106" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5354,13 +6032,16 @@
       <c r="D107" t="s">
         <v>170</v>
       </c>
+      <c r="E107" t="s">
+        <v>336</v>
+      </c>
       <c r="F107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblDescripcion=Descripcion:</v>
       </c>
       <c r="G107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblDescripcion=</v>
+        <v>RegistroDestinoController.lblDescripcion=Description:</v>
       </c>
       <c r="H107" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5393,13 +6074,16 @@
       <c r="D108" t="s">
         <v>172</v>
       </c>
+      <c r="E108" t="s">
+        <v>337</v>
+      </c>
       <c r="F108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.txtDescripcion=Ingrese la descripcion</v>
       </c>
       <c r="G108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtDescripcion=</v>
+        <v>RegistroDestinoController.txtDescripcion=Enter description</v>
       </c>
       <c r="H108" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5432,13 +6116,16 @@
       <c r="D109" t="s">
         <v>39</v>
       </c>
+      <c r="E109" t="s">
+        <v>276</v>
+      </c>
       <c r="F109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblClima=Clima:</v>
       </c>
       <c r="G109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblClima=</v>
+        <v>RegistroDestinoController.lblClima=Weather:</v>
       </c>
       <c r="H109" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5471,13 +6158,16 @@
       <c r="D110" t="s">
         <v>171</v>
       </c>
+      <c r="E110" t="s">
+        <v>338</v>
+      </c>
       <c r="F110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.cbClima=Seleccionar</v>
       </c>
       <c r="G110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.cbClima=</v>
+        <v>RegistroDestinoController.cbClima=Select</v>
       </c>
       <c r="H110" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5510,13 +6200,16 @@
       <c r="D111" t="s">
         <v>175</v>
       </c>
+      <c r="E111" t="s">
+        <v>339</v>
+      </c>
       <c r="F111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.lblSeleccionarImagen=Seleccionar imagenes</v>
       </c>
       <c r="G111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblSeleccionarImagen=</v>
+        <v>RegistroDestinoController.lblSeleccionarImagen=Select images</v>
       </c>
       <c r="H111" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5549,13 +6242,16 @@
       <c r="D112" t="s">
         <v>176</v>
       </c>
+      <c r="E112" t="s">
+        <v>340</v>
+      </c>
       <c r="F112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.btnSeleccionar=SELECCIONAR</v>
       </c>
       <c r="G112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.btnSeleccionar=</v>
+        <v>RegistroDestinoController.btnSeleccionar=SELECT</v>
       </c>
       <c r="H112" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5588,13 +6284,16 @@
       <c r="D113" t="s">
         <v>56</v>
       </c>
+      <c r="E113" t="s">
+        <v>282</v>
+      </c>
       <c r="F113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroDestinoController.btnAgregar=AGREGAR</v>
       </c>
       <c r="G113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.btnAgregar=</v>
+        <v>RegistroDestinoController.btnAgregar=ADD</v>
       </c>
       <c r="H113" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5627,13 +6326,16 @@
       <c r="D114" t="s">
         <v>180</v>
       </c>
+      <c r="E114" t="s">
+        <v>341</v>
+      </c>
       <c r="F114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblTitle=REGISTRO DE GUIA TURISTICO</v>
       </c>
       <c r="G114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblTitle=</v>
+        <v>RegistroGuiaController.lblTitle=TOUR GUIDE REGISTRATION</v>
       </c>
       <c r="H114" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5666,13 +6368,16 @@
       <c r="D115" t="s">
         <v>181</v>
       </c>
+      <c r="E115" t="s">
+        <v>342</v>
+      </c>
       <c r="F115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblIdentificacion=Identificacion:</v>
       </c>
       <c r="G115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblIdentificacion=</v>
+        <v>RegistroGuiaController.lblIdentificacion=Your ID:</v>
       </c>
       <c r="H115" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5705,13 +6410,16 @@
       <c r="D116" t="s">
         <v>183</v>
       </c>
+      <c r="E116" t="s">
+        <v>343</v>
+      </c>
       <c r="F116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.txtIdentificacion=Ingrese su identificacion</v>
       </c>
       <c r="G116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtIdentificacion=</v>
+        <v>RegistroGuiaController.txtIdentificacion=Enter your ID</v>
       </c>
       <c r="H116" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5744,13 +6452,16 @@
       <c r="D117" t="s">
         <v>182</v>
       </c>
+      <c r="E117" t="s">
+        <v>344</v>
+      </c>
       <c r="F117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblNombre=Nombre completo:</v>
       </c>
       <c r="G117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblNombre=</v>
+        <v>RegistroGuiaController.lblNombre=Full Name:</v>
       </c>
       <c r="H117" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5783,13 +6494,16 @@
       <c r="D118" t="s">
         <v>184</v>
       </c>
+      <c r="E118" t="s">
+        <v>345</v>
+      </c>
       <c r="F118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.txtNombre=Ingrese su nombre</v>
       </c>
       <c r="G118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtNombre=</v>
+        <v>RegistroGuiaController.txtNombre=Enter your name</v>
       </c>
       <c r="H118" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5822,13 +6536,16 @@
       <c r="D119" t="s">
         <v>186</v>
       </c>
+      <c r="E119" t="s">
+        <v>346</v>
+      </c>
       <c r="F119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblHoras=Horas de experiencia:</v>
       </c>
       <c r="G119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblHoras=</v>
+        <v>RegistroGuiaController.lblHoras=Hours of experience:</v>
       </c>
       <c r="H119" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5861,13 +6578,16 @@
       <c r="D120" t="s">
         <v>185</v>
       </c>
+      <c r="E120" t="s">
+        <v>347</v>
+      </c>
       <c r="F120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.txtHoras=Ingrese la experiencia en horas</v>
       </c>
       <c r="G120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtHoras=</v>
+        <v>RegistroGuiaController.txtHoras=Enter experience in hours</v>
       </c>
       <c r="H120" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5900,13 +6620,16 @@
       <c r="D121" t="s">
         <v>187</v>
       </c>
+      <c r="E121" t="s">
+        <v>348</v>
+      </c>
       <c r="F121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblImagen=Imagen:</v>
       </c>
       <c r="G121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblImagen=</v>
+        <v>RegistroGuiaController.lblImagen=Image:</v>
       </c>
       <c r="H121" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5939,13 +6662,16 @@
       <c r="D122" t="s">
         <v>188</v>
       </c>
+      <c r="E122" t="s">
+        <v>349</v>
+      </c>
       <c r="F122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.btnImagen=Seleccionar imagen</v>
       </c>
       <c r="G122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.btnImagen=</v>
+        <v>RegistroGuiaController.btnImagen=Select image</v>
       </c>
       <c r="H122" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -5978,13 +6704,16 @@
       <c r="D123" t="s">
         <v>189</v>
       </c>
+      <c r="E123" t="s">
+        <v>350</v>
+      </c>
       <c r="F123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.lblImagenSeleccionada=Imagen seleccionada:</v>
       </c>
       <c r="G123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblImagenSeleccionada=</v>
+        <v>RegistroGuiaController.lblImagenSeleccionada=Selected image:</v>
       </c>
       <c r="H123" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6017,13 +6746,16 @@
       <c r="D124" t="s">
         <v>196</v>
       </c>
+      <c r="E124" t="s">
+        <v>351</v>
+      </c>
       <c r="F124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroGuiaController.btnRegistrar=REGISTRAR</v>
       </c>
       <c r="G124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.btnRegistrar=</v>
+        <v>RegistroGuiaController.btnRegistrar=REGISTER</v>
       </c>
       <c r="H124" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6056,13 +6788,16 @@
       <c r="D125" t="s">
         <v>197</v>
       </c>
+      <c r="E125" t="s">
+        <v>352</v>
+      </c>
       <c r="F125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblTitulo=REGISTRO DE PAQUETES</v>
       </c>
       <c r="G125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblTitulo=</v>
+        <v>RegistroPaquetesController.lblTitulo=PACKAGE REGISTRATION</v>
       </c>
       <c r="H125" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6095,13 +6830,16 @@
       <c r="D126" t="s">
         <v>169</v>
       </c>
+      <c r="E126" t="s">
+        <v>333</v>
+      </c>
       <c r="F126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblNombre=Nombre:</v>
       </c>
       <c r="G126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblNombre=</v>
+        <v>RegistroPaquetesController.lblNombre=Name:</v>
       </c>
       <c r="H126" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6134,13 +6872,16 @@
       <c r="D127" t="s">
         <v>174</v>
       </c>
+      <c r="E127" t="s">
+        <v>334</v>
+      </c>
       <c r="F127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.txtNombre=Ingrese el nombre</v>
       </c>
       <c r="G127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtNombre=</v>
+        <v>RegistroPaquetesController.txtNombre=Enter name</v>
       </c>
       <c r="H127" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6173,13 +6914,16 @@
       <c r="D128" t="s">
         <v>198</v>
       </c>
+      <c r="E128" t="s">
+        <v>353</v>
+      </c>
       <c r="F128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblDuracion=Duracion en dias:</v>
       </c>
       <c r="G128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblDuracion=</v>
+        <v>RegistroPaquetesController.lblDuracion=Duration in days:</v>
       </c>
       <c r="H128" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6212,13 +6956,16 @@
       <c r="D129" t="s">
         <v>199</v>
       </c>
+      <c r="E129" t="s">
+        <v>354</v>
+      </c>
       <c r="F129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.txtDuracion=Ingrese la duracion del paquete</v>
       </c>
       <c r="G129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtDuracion=</v>
+        <v>RegistroPaquetesController.txtDuracion=Enter the duration of the package</v>
       </c>
       <c r="H129" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6251,13 +6998,16 @@
       <c r="D130" t="s">
         <v>200</v>
       </c>
+      <c r="E130" t="s">
+        <v>355</v>
+      </c>
       <c r="F130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblServicios=Servicios adicionales:</v>
       </c>
       <c r="G130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblServicios=</v>
+        <v>RegistroPaquetesController.lblServicios=Additional services:</v>
       </c>
       <c r="H130" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6290,13 +7040,16 @@
       <c r="D131" t="s">
         <v>201</v>
       </c>
+      <c r="E131" t="s">
+        <v>356</v>
+      </c>
       <c r="F131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.txtServicios=Ingrese los servicios adicionales</v>
       </c>
       <c r="G131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtServicios=</v>
+        <v>RegistroPaquetesController.txtServicios=Enter the additional services</v>
       </c>
       <c r="H131" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6329,13 +7082,16 @@
       <c r="D132" t="s">
         <v>202</v>
       </c>
+      <c r="E132" t="s">
+        <v>357</v>
+      </c>
       <c r="F132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblPrecio=Precio:</v>
       </c>
       <c r="G132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblPrecio=</v>
+        <v>RegistroPaquetesController.lblPrecio=Price in days:</v>
       </c>
       <c r="H132" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6368,13 +7124,16 @@
       <c r="D133" t="s">
         <v>203</v>
       </c>
+      <c r="E133" t="s">
+        <v>358</v>
+      </c>
       <c r="F133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.txtPrecio=Digite el precio</v>
       </c>
       <c r="G133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtPrecio=</v>
+        <v>RegistroPaquetesController.txtPrecio=Enter the price</v>
       </c>
       <c r="H133" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6407,13 +7166,16 @@
       <c r="D134" t="s">
         <v>204</v>
       </c>
+      <c r="E134" t="s">
+        <v>359</v>
+      </c>
       <c r="F134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblCupo=Cupo maximo:</v>
       </c>
       <c r="G134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblCupo=</v>
+        <v>RegistroPaquetesController.lblCupo=Maximum quota:</v>
       </c>
       <c r="H134" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6446,13 +7208,16 @@
       <c r="D135" t="s">
         <v>205</v>
       </c>
+      <c r="E135" t="s">
+        <v>360</v>
+      </c>
       <c r="F135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.txtCupo=Digite el cupo maximo</v>
       </c>
       <c r="G135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtCupo=</v>
+        <v>RegistroPaquetesController.txtCupo=Enter the maximum quota</v>
       </c>
       <c r="H135" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6485,13 +7250,16 @@
       <c r="D136" t="s">
         <v>206</v>
       </c>
+      <c r="E136" t="s">
+        <v>312</v>
+      </c>
       <c r="F136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblFechaInicio=Fecha inicio:</v>
       </c>
       <c r="G136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblFechaInicio=</v>
+        <v>RegistroPaquetesController.lblFechaInicio=Start date:</v>
       </c>
       <c r="H136" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6524,13 +7292,16 @@
       <c r="D137" t="s">
         <v>207</v>
       </c>
+      <c r="E137" t="s">
+        <v>361</v>
+      </c>
       <c r="F137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.dpInicio=Ingrese la fecha de inicio del paquete</v>
       </c>
       <c r="G137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.dpInicio=</v>
+        <v>RegistroPaquetesController.dpInicio=Enter the start date of the package</v>
       </c>
       <c r="H137" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6563,13 +7334,16 @@
       <c r="D138" t="s">
         <v>208</v>
       </c>
+      <c r="E138" t="s">
+        <v>362</v>
+      </c>
       <c r="F138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblFechaFin=Fecha fin:</v>
       </c>
       <c r="G138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblFechaFin=</v>
+        <v>RegistroPaquetesController.lblFechaFin=End date:</v>
       </c>
       <c r="H138" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6602,13 +7376,16 @@
       <c r="D139" t="s">
         <v>209</v>
       </c>
+      <c r="E139" t="s">
+        <v>363</v>
+      </c>
       <c r="F139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.dpFin=Ingrese la fecha de finalizacion del paquete</v>
       </c>
       <c r="G139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.dpFin=</v>
+        <v>RegistroPaquetesController.dpFin=Enter the end date of the package</v>
       </c>
       <c r="H139" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6641,13 +7418,16 @@
       <c r="D140" t="s">
         <v>210</v>
       </c>
+      <c r="E140" t="s">
+        <v>364</v>
+      </c>
       <c r="F140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.lblSeleccionar=Seleccione los destinos que va a contener el paquete</v>
       </c>
       <c r="G140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblSeleccionar=</v>
+        <v>RegistroPaquetesController.lblSeleccionar=Select the destinations that the package will contain</v>
       </c>
       <c r="H140" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6680,13 +7460,16 @@
       <c r="D141" t="s">
         <v>32</v>
       </c>
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
       <c r="F141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colId=ID</v>
       </c>
       <c r="G141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colId=</v>
+        <v>RegistroPaquetesController.colId=ID</v>
       </c>
       <c r="H141" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6719,13 +7502,16 @@
       <c r="D142" t="s">
         <v>211</v>
       </c>
+      <c r="E142" t="s">
+        <v>365</v>
+      </c>
       <c r="F142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colNombre=NOMBRE</v>
       </c>
       <c r="G142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colNombre=</v>
+        <v>RegistroPaquetesController.colNombre=NAME</v>
       </c>
       <c r="H142" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6758,13 +7544,16 @@
       <c r="D143" t="s">
         <v>212</v>
       </c>
+      <c r="E143" t="s">
+        <v>366</v>
+      </c>
       <c r="F143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colCiudad=CIUDAD</v>
       </c>
       <c r="G143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colCiudad=</v>
+        <v>RegistroPaquetesController.colCiudad=CITY</v>
       </c>
       <c r="H143" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6797,13 +7586,16 @@
       <c r="D144" t="s">
         <v>213</v>
       </c>
+      <c r="E144" t="s">
+        <v>367</v>
+      </c>
       <c r="F144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colDescripcion=DESCRIPCION</v>
       </c>
       <c r="G144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colDescripcion=</v>
+        <v>RegistroPaquetesController.colDescripcion=DESCRIPTION</v>
       </c>
       <c r="H144" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6836,13 +7628,16 @@
       <c r="D145" t="s">
         <v>214</v>
       </c>
+      <c r="E145" t="s">
+        <v>368</v>
+      </c>
       <c r="F145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colClima=CLIMA</v>
       </c>
       <c r="G145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colClima=</v>
+        <v>RegistroPaquetesController.colClima=WEATHER</v>
       </c>
       <c r="H145" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6875,13 +7670,16 @@
       <c r="D146" t="s">
         <v>32</v>
       </c>
+      <c r="E146" t="s">
+        <v>32</v>
+      </c>
       <c r="F146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colIdSelect=ID</v>
       </c>
       <c r="G146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colIdSelect=</v>
+        <v>RegistroPaquetesController.colIdSelect=ID</v>
       </c>
       <c r="H146" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6914,13 +7712,16 @@
       <c r="D147" t="s">
         <v>211</v>
       </c>
+      <c r="E147" t="s">
+        <v>365</v>
+      </c>
       <c r="F147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistroPaquetesController.colNombreSelect=NOMBRE</v>
       </c>
       <c r="G147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colNombreSelect=</v>
+        <v>RegistroPaquetesController.colNombreSelect=NAME</v>
       </c>
       <c r="H147" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6953,13 +7754,16 @@
       <c r="D148" t="s">
         <v>230</v>
       </c>
+      <c r="E148" t="s">
+        <v>369</v>
+      </c>
       <c r="F148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.lblTitle=GESTIONAR SOLICITUDES GUIAS</v>
       </c>
       <c r="G148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.lblTitle=</v>
+        <v>SolicitudGuiaController.lblTitle=MANAGE GUIDE REQUESTS</v>
       </c>
       <c r="H148" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -6992,13 +7796,16 @@
       <c r="D149" t="s">
         <v>43</v>
       </c>
+      <c r="E149" t="s">
+        <v>278</v>
+      </c>
       <c r="F149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.txtBuscar=Buscar</v>
       </c>
       <c r="G149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.txtBuscar=</v>
+        <v>SolicitudGuiaController.txtBuscar=Search</v>
       </c>
       <c r="H149" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7031,13 +7838,16 @@
       <c r="D150" t="s">
         <v>27</v>
       </c>
+      <c r="E150" t="s">
+        <v>269</v>
+      </c>
       <c r="F150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.colNombre=Nombre</v>
       </c>
       <c r="G150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colNombre=</v>
+        <v>SolicitudGuiaController.colNombre=Name</v>
       </c>
       <c r="H150" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7070,13 +7880,16 @@
       <c r="D151" t="s">
         <v>26</v>
       </c>
+      <c r="E151" t="s">
+        <v>32</v>
+      </c>
       <c r="F151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.colIdentificacion=Identificacion</v>
       </c>
       <c r="G151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colIdentificacion=</v>
+        <v>SolicitudGuiaController.colIdentificacion=ID</v>
       </c>
       <c r="H151" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7109,13 +7922,16 @@
       <c r="D152" t="s">
         <v>61</v>
       </c>
+      <c r="E152" t="s">
+        <v>285</v>
+      </c>
       <c r="F152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.colHorasExperiencia=Horas de experiencia</v>
       </c>
       <c r="G152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colHorasExperiencia=</v>
+        <v>SolicitudGuiaController.colHorasExperiencia=Hours of experience</v>
       </c>
       <c r="H152" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7148,13 +7964,16 @@
       <c r="D153" t="s">
         <v>25</v>
       </c>
+      <c r="E153" t="s">
+        <v>267</v>
+      </c>
       <c r="F153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.colIdiomas=Idiomas</v>
       </c>
       <c r="G153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colIdiomas=</v>
+        <v>SolicitudGuiaController.colIdiomas=Languages</v>
       </c>
       <c r="H153" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7187,13 +8006,16 @@
       <c r="D154" t="s">
         <v>231</v>
       </c>
+      <c r="E154" t="s">
+        <v>370</v>
+      </c>
       <c r="F154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.btnAceptar=ACEPTAR</v>
       </c>
       <c r="G154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.btnAceptar=</v>
+        <v>SolicitudGuiaController.btnAceptar=ACCEPT</v>
       </c>
       <c r="H154" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7226,13 +8048,16 @@
       <c r="D155" t="s">
         <v>232</v>
       </c>
+      <c r="E155" t="s">
+        <v>371</v>
+      </c>
       <c r="F155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>SolicitudGuiaController.btnDenegar=DENEGAR</v>
       </c>
       <c r="G155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.btnDenegar=</v>
+        <v>SolicitudGuiaController.btnDenegar=DENY</v>
       </c>
       <c r="H155" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7265,13 +8090,16 @@
       <c r="D156" t="s">
         <v>95</v>
       </c>
+      <c r="E156" t="s">
+        <v>297</v>
+      </c>
       <c r="F156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ViewDestinosController.lblTitle=Destinos</v>
       </c>
       <c r="G156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ViewDestinosController.lblTitle=</v>
+        <v>ViewDestinosController.lblTitle=Destinations</v>
       </c>
       <c r="H156" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7304,13 +8132,16 @@
       <c r="D157" t="s">
         <v>94</v>
       </c>
+      <c r="E157" t="s">
+        <v>298</v>
+      </c>
       <c r="F157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ViewPaquetesController.lblTitle=Paquetes</v>
       </c>
       <c r="G157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ViewPaquetesController.lblTitle=</v>
+        <v>ViewPaquetesController.lblTitle=Packages</v>
       </c>
       <c r="H157" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7343,13 +8174,16 @@
       <c r="D158" t="s">
         <v>249</v>
       </c>
+      <c r="E158" t="s">
+        <v>372</v>
+      </c>
       <c r="F158" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblTitle=ESTADÍSTICAS</v>
       </c>
       <c r="G158" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblTitle=</v>
+        <v>EstadisticasController.lblTitle=STATISTICS</v>
       </c>
       <c r="H158" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7382,13 +8216,16 @@
       <c r="D159" t="s">
         <v>251</v>
       </c>
+      <c r="E159" t="s">
+        <v>373</v>
+      </c>
       <c r="F159" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblDestinosReservados=DESTINOS MAS RESERVADOS</v>
       </c>
       <c r="G159" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblDestinosReservados=</v>
+        <v>EstadisticasController.lblDestinosReservados=MOST BOOKED DESTINATIONS</v>
       </c>
       <c r="H159" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7421,13 +8258,16 @@
       <c r="D160" t="s">
         <v>253</v>
       </c>
+      <c r="E160" t="s">
+        <v>374</v>
+      </c>
       <c r="F160" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblDestinosBuscados=DESTINOS MAS BUSCADOS</v>
       </c>
       <c r="G160" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblDestinosBuscados=</v>
+        <v>EstadisticasController.lblDestinosBuscados=MOST SEARCHED DESTINATIONS</v>
       </c>
       <c r="H160" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7460,13 +8300,16 @@
       <c r="D161" t="s">
         <v>257</v>
       </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
       <c r="F161" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblGuiasPuntuados=GUIAS MEJOR PUNTUADOS</v>
       </c>
       <c r="G161" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblGuiasPuntuados=</v>
+        <v>EstadisticasController.lblGuiasPuntuados=TOP RATED GUIDES</v>
       </c>
       <c r="H161" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7499,13 +8342,16 @@
       <c r="D162" t="s">
         <v>256</v>
       </c>
+      <c r="E162" t="s">
+        <v>376</v>
+      </c>
       <c r="F162" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblPaquetesReservados=PAQUETES MAS RESERVADOS</v>
       </c>
       <c r="G162" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblPaquetesReservados=</v>
+        <v>EstadisticasController.lblPaquetesReservados=MOST BOOKED PACKAGES</v>
       </c>
       <c r="H162" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -7522,6 +8368,48 @@
       <c r="K162" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPaquetesReservados.setPromptText(bundle.getString("EstadisticasController.lblPaquetesReservados"));</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>377</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f>CONCATENATE(A163,".",B163)</f>
+        <v>GuiaTuristicoController.txtDescription</v>
+      </c>
+      <c r="D163" t="s">
+        <v>379</v>
+      </c>
+      <c r="E163" t="s">
+        <v>380</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>GuiaTuristicoController.txtDescription=Idiomas Hablados: %s\nExp Horas: %d</v>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>GuiaTuristicoController.txtDescription=Languages Spoken: %s\nHours: %d</v>
+      </c>
+      <c r="H163" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("GuiaTuristicoController.txtDescription")</v>
+      </c>
+      <c r="I163" s="1" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="J163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDescription.setText(bundle.getString("GuiaTuristicoController.txtDescription"));</v>
+      </c>
+      <c r="K163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDescription.setPromptText(bundle.getString("GuiaTuristicoController.txtDescription"));</v>
       </c>
     </row>
   </sheetData>

--- a/info/ResourceBundle.xlsx
+++ b/info/ResourceBundle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO 5\Documents\GitHub\agenciaDeViajes\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2024C4FD-96D0-4133-B12B-5463D3352C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBCB40-12C2-477B-941F-D22350B3A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5ACD5306-D8F0-41FA-948E-8F34C9ACE6C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="394">
   <si>
     <t>CrearReservaController</t>
   </si>
@@ -869,9 +869,6 @@
     <t>Weather:</t>
   </si>
   <si>
-    <t>MANAGE DESTINATIONS</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -929,9 +926,6 @@
     <t>Register now</t>
   </si>
   <si>
-    <t>Destinations</t>
-  </si>
-  <si>
     <t>Packages</t>
   </si>
   <si>
@@ -1004,9 +998,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>The best destinations for your pokeadventures</t>
-  </si>
-  <si>
     <t>Invoice To:</t>
   </si>
   <si>
@@ -1022,9 +1013,6 @@
     <t>Thank you for your purchase, enjoy your trip</t>
   </si>
   <si>
-    <t>txtAddress</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -1034,9 +1022,6 @@
     <t>Sign in</t>
   </si>
   <si>
-    <t>ADD DESTINATIONS</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -1130,9 +1115,6 @@
     <t>Enter the end date of the package</t>
   </si>
   <si>
-    <t>Select the destinations that the package will contain</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -1157,12 +1139,6 @@
     <t>STATISTICS</t>
   </si>
   <si>
-    <t>MOST BOOKED DESTINATIONS</t>
-  </si>
-  <si>
-    <t>MOST SEARCHED DESTINATIONS</t>
-  </si>
-  <si>
     <t>TOP RATED GUIDES</t>
   </si>
   <si>
@@ -1179,6 +1155,69 @@
   </si>
   <si>
     <t>Languages Spoken: %s\nHours: %d</t>
+  </si>
+  <si>
+    <t>MANAGE Landings</t>
+  </si>
+  <si>
+    <t>Landings</t>
+  </si>
+  <si>
+    <t>The best Landings for your pokeadventures</t>
+  </si>
+  <si>
+    <t>ADD Landings</t>
+  </si>
+  <si>
+    <t>Select the Landings that the package will contain</t>
+  </si>
+  <si>
+    <t>MOST BOOKED Landings</t>
+  </si>
+  <si>
+    <t>MOST SEARCHED Landings</t>
+  </si>
+  <si>
+    <t>lblLogin</t>
+  </si>
+  <si>
+    <t>lblRegister</t>
+  </si>
+  <si>
+    <t>Registrate</t>
+  </si>
+  <si>
+    <t>Inicia Sesión</t>
+  </si>
+  <si>
+    <t>btnSearch</t>
+  </si>
+  <si>
+    <t>¡Register!</t>
+  </si>
+  <si>
+    <t>Enter your details to enjoy our application</t>
+  </si>
+  <si>
+    <t>¡Registrate!</t>
+  </si>
+  <si>
+    <t>Ingresa tus datos para disfrutar de nuestra aplicacion</t>
+  </si>
+  <si>
+    <t>ViewGuiasController</t>
+  </si>
+  <si>
+    <t>Guias Turisticos</t>
+  </si>
+  <si>
+    <t>Tourist Guides</t>
+  </si>
+  <si>
+    <t>Direccion de Residencia</t>
+  </si>
+  <si>
+    <t>Residence Address</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K163" totalsRowShown="0">
-  <autoFilter ref="A2:K163" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}" name="Tabla1" displayName="Tabla1" ref="A2:K169" totalsRowShown="0">
+  <autoFilter ref="A2:K169" xr:uid="{A29758FD-B1B3-44DD-940D-D7130236B3EF}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DB61A800-468E-4337-AB63-C4B3FCA1212A}" name="Controller"/>
     <tableColumn id="2" xr3:uid="{859C3FBF-7B94-4EC0-9049-1A9A7EFB23B5}" name="ID"/>
@@ -1593,11 +1632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD659E6-F76E-49E6-BFF1-9AC73BCA288A}">
-  <dimension ref="A2:K163"/>
+  <dimension ref="A2:K169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C167" sqref="C167"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,7 +1645,7 @@
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
     <col min="8" max="8" width="56.21875" customWidth="1"/>
@@ -2463,7 +2502,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="F22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2471,7 +2510,7 @@
       </c>
       <c r="G22" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>GestionarDestinosController.lblTitle=MANAGE DESTINATIONS</v>
+        <v>GestionarDestinosController.lblTitle=MANAGE Landings</v>
       </c>
       <c r="H22" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
@@ -2505,7 +2544,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F23" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2631,7 +2670,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2715,7 +2754,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2757,7 +2796,7 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F29" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2799,7 +2838,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F30" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2841,7 +2880,7 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2883,7 +2922,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F32" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -2967,7 +3006,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3002,14 +3041,14 @@
         <v>60</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C66" si="2">CONCATENATE(A35,".",B35)</f>
+        <f t="shared" ref="C35:C69" si="2">CONCATENATE(A35,".",B35)</f>
         <v>GestionarGuiasController.colHorasExperiencia</v>
       </c>
       <c r="D35" t="s">
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3093,7 +3132,7 @@
         <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F37" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3108,7 +3147,7 @@
         <v>bundle.getString("GestionarGuiasController.btnEliminar")</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I68" si="3">""""</f>
+        <f t="shared" ref="I37:I71" si="3">""""</f>
         <v>"</v>
       </c>
       <c r="J37" t="str">
@@ -3135,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F38" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3177,7 +3216,7 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F39" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3219,7 +3258,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F40" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3345,7 +3384,7 @@
         <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3387,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3429,7 +3468,7 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F45" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3471,7 +3510,7 @@
         <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3513,7 +3552,7 @@
         <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F47" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3555,7 +3594,7 @@
         <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F48" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3597,7 +3636,7 @@
         <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3639,7 +3678,7 @@
         <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F50" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3723,7 +3762,7 @@
         <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F52" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3765,7 +3804,7 @@
         <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F53" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3807,7 +3846,7 @@
         <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F54" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
@@ -3839,41 +3878,41 @@
         <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="2"/>
-        <v>MainMenuController.lblBtnDestinos</v>
+        <f>CONCATENATE(A55,".",B55)</f>
+        <v>MainMenuController.btnSearch</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MainMenuController.lblBtnDestinos=Destinos</v>
+        <v>MainMenuController.btnSearch=Buscar</v>
       </c>
       <c r="G55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblBtnDestinos=Destinations</v>
+        <v>MainMenuController.btnSearch=Search</v>
       </c>
       <c r="H55" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MainMenuController.lblBtnDestinos")</v>
+        <v>bundle.getString("MainMenuController.btnSearch")</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="3"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="J55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnDestinos.setText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
+        <v>btnSearch.setText(bundle.getString("MainMenuController.btnSearch"));</v>
       </c>
       <c r="K55" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnDestinos.setPromptText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
+        <v>btnSearch.setPromptText(bundle.getString("MainMenuController.btnSearch"));</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3881,29 +3920,29 @@
         <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
-        <v>MainMenuController.lblbtnPaquetes</v>
+        <v>MainMenuController.lblBtnDestinos</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="F56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MainMenuController.lblbtnPaquetes=Paquetes</v>
+        <v>MainMenuController.lblBtnDestinos=Destinos</v>
       </c>
       <c r="G56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblbtnPaquetes=Packages</v>
+        <v>MainMenuController.lblBtnDestinos=Landings</v>
       </c>
       <c r="H56" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MainMenuController.lblbtnPaquetes")</v>
+        <v>bundle.getString("MainMenuController.lblBtnDestinos")</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="3"/>
@@ -3911,11 +3950,11 @@
       </c>
       <c r="J56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblbtnPaquetes.setText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
+        <v>lblBtnDestinos.setText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
       </c>
       <c r="K56" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblbtnPaquetes.setPromptText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
+        <v>lblBtnDestinos.setPromptText(bundle.getString("MainMenuController.lblBtnDestinos"));</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3923,29 +3962,29 @@
         <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
-        <v>MainMenuController.lblBtnGuias</v>
+        <v>MainMenuController.lblbtnPaquetes</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MainMenuController.lblBtnGuias=Guias</v>
+        <v>MainMenuController.lblbtnPaquetes=Paquetes</v>
       </c>
       <c r="G57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MainMenuController.lblBtnGuias=Guides</v>
+        <v>MainMenuController.lblbtnPaquetes=Packages</v>
       </c>
       <c r="H57" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MainMenuController.lblBtnGuias")</v>
+        <v>bundle.getString("MainMenuController.lblbtnPaquetes")</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="3"/>
@@ -3953,125 +3992,125 @@
       </c>
       <c r="J57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnGuias.setText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
+        <v>lblbtnPaquetes.setText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
       </c>
       <c r="K57" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnGuias.setPromptText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
+        <v>lblbtnPaquetes.setPromptText(bundle.getString("MainMenuController.lblbtnPaquetes"));</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="2"/>
-        <v>MenuPrincipalAdminController.lblBtnDestinos</v>
+        <f>CONCATENATE(A58,".",B58)</f>
+        <v>MainMenuController.lblRegister</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MenuPrincipalAdminController.lblBtnDestinos=Destinos</v>
+        <v>MainMenuController.lblRegister=Registrate</v>
       </c>
       <c r="G58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnDestinos=Destinations</v>
+        <v>MainMenuController.lblRegister=Register</v>
       </c>
       <c r="H58" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MenuPrincipalAdminController.lblBtnDestinos")</v>
+        <v>bundle.getString("MainMenuController.lblRegister")</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="3"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="J58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnDestinos.setText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
+        <v>lblRegister.setText(bundle.getString("MainMenuController.lblRegister"));</v>
       </c>
       <c r="K58" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnDestinos.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
+        <v>lblRegister.setPromptText(bundle.getString("MainMenuController.lblRegister"));</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="2"/>
-        <v>MenuPrincipalAdminController.lblbtnPaquetes</v>
+        <f>CONCATENATE(A59,".",B59)</f>
+        <v>MainMenuController.lblLogin</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>383</v>
       </c>
       <c r="E59" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MenuPrincipalAdminController.lblbtnPaquetes=Paquetes</v>
+        <v>MainMenuController.lblLogin=Inicia Sesión</v>
       </c>
       <c r="G59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblbtnPaquetes=Packages</v>
+        <v>MainMenuController.lblLogin=Login</v>
       </c>
       <c r="H59" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes")</v>
+        <v>bundle.getString("MainMenuController.lblLogin")</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="3"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="J59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblbtnPaquetes.setText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
+        <v>lblLogin.setText(bundle.getString("MainMenuController.lblLogin"));</v>
       </c>
       <c r="K59" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblbtnPaquetes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
+        <v>lblLogin.setPromptText(bundle.getString("MainMenuController.lblLogin"));</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>92</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
-        <v>MenuPrincipalAdminController.lblBtnGuias</v>
+        <v>MainMenuController.lblBtnGuias</v>
       </c>
       <c r="D60" t="s">
         <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MenuPrincipalAdminController.lblBtnGuias=Guias</v>
+        <v>MainMenuController.lblBtnGuias=Guias</v>
       </c>
       <c r="G60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnGuias=Guides</v>
+        <v>MainMenuController.lblBtnGuias=Guides</v>
       </c>
       <c r="H60" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MenuPrincipalAdminController.lblBtnGuias")</v>
+        <v>bundle.getString("MainMenuController.lblBtnGuias")</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="3"/>
@@ -4079,11 +4118,11 @@
       </c>
       <c r="J60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnGuias.setText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
+        <v>lblBtnGuias.setText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
       </c>
       <c r="K60" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnGuias.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
+        <v>lblBtnGuias.setPromptText(bundle.getString("MainMenuController.lblBtnGuias"));</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4091,29 +4130,29 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
-        <v>MenuPrincipalAdminController.lblBtnClientes</v>
+        <v>MenuPrincipalAdminController.lblBtnDestinos</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="F61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>MenuPrincipalAdminController.lblBtnClientes=Clientes</v>
+        <v>MenuPrincipalAdminController.lblBtnDestinos=Destinos</v>
       </c>
       <c r="G61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>MenuPrincipalAdminController.lblBtnClientes=Customers</v>
+        <v>MenuPrincipalAdminController.lblBtnDestinos=Landings</v>
       </c>
       <c r="H61" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("MenuPrincipalAdminController.lblBtnClientes")</v>
+        <v>bundle.getString("MenuPrincipalAdminController.lblBtnDestinos")</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="3"/>
@@ -4121,41 +4160,41 @@
       </c>
       <c r="J61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnClientes.setText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
+        <v>lblBtnDestinos.setText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
       </c>
       <c r="K61" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblBtnClientes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
+        <v>lblBtnDestinos.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnDestinos"));</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
-        <v>ModificarClienteController.lblTitle</v>
+        <v>MenuPrincipalAdminController.lblbtnPaquetes</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.lblTitle=¡Actualiza tu informacion!</v>
+        <v>MenuPrincipalAdminController.lblbtnPaquetes=Paquetes</v>
       </c>
       <c r="G62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.lblTitle=Update your information!</v>
+        <v>MenuPrincipalAdminController.lblbtnPaquetes=Packages</v>
       </c>
       <c r="H62" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.lblTitle")</v>
+        <v>bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes")</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="3"/>
@@ -4163,41 +4202,41 @@
       </c>
       <c r="J62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("ModificarClienteController.lblTitle"));</v>
+        <v>lblbtnPaquetes.setText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
       </c>
       <c r="K62" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("ModificarClienteController.lblTitle"));</v>
+        <v>lblbtnPaquetes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblbtnPaquetes"));</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
-        <v>ModificarClienteController.lblInfo</v>
+        <v>MenuPrincipalAdminController.lblBtnGuias</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.lblInfo=Actualiza tus datos y continua disfrutando de nuestra aplicacion</v>
+        <v>MenuPrincipalAdminController.lblBtnGuias=Guias</v>
       </c>
       <c r="G63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.lblInfo=Update your information and continue enjoying our application.</v>
+        <v>MenuPrincipalAdminController.lblBtnGuias=Guides</v>
       </c>
       <c r="H63" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.lblInfo")</v>
+        <v>bundle.getString("MenuPrincipalAdminController.lblBtnGuias")</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="3"/>
@@ -4205,41 +4244,41 @@
       </c>
       <c r="J63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblInfo.setText(bundle.getString("ModificarClienteController.lblInfo"));</v>
+        <v>lblBtnGuias.setText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
       </c>
       <c r="K63" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblInfo.setPromptText(bundle.getString("ModificarClienteController.lblInfo"));</v>
+        <v>lblBtnGuias.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnGuias"));</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
-        <v>ModificarClienteController.txtIdentificacion</v>
+        <v>MenuPrincipalAdminController.lblBtnClientes</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtIdentificacion=Identificacion</v>
+        <v>MenuPrincipalAdminController.lblBtnClientes=Clientes</v>
       </c>
       <c r="G64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtIdentificacion=Login</v>
+        <v>MenuPrincipalAdminController.lblBtnClientes=Customers</v>
       </c>
       <c r="H64" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtIdentificacion")</v>
+        <v>bundle.getString("MenuPrincipalAdminController.lblBtnClientes")</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="3"/>
@@ -4247,11 +4286,11 @@
       </c>
       <c r="J64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
+        <v>lblBtnClientes.setText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
       </c>
       <c r="K64" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setPromptText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
+        <v>lblBtnClientes.setPromptText(bundle.getString("MenuPrincipalAdminController.lblBtnClientes"));</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4259,29 +4298,29 @@
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
-        <v>ModificarClienteController.txtNombre</v>
+        <v>ModificarClienteController.lblTitle</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtNombre=Nombre Completo</v>
+        <v>ModificarClienteController.lblTitle=¡Actualiza tu informacion!</v>
       </c>
       <c r="G65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtNombre=Full Name</v>
+        <v>ModificarClienteController.lblTitle=Update your information!</v>
       </c>
       <c r="H65" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtNombre")</v>
+        <v>bundle.getString("ModificarClienteController.lblTitle")</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="3"/>
@@ -4289,11 +4328,11 @@
       </c>
       <c r="J65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setText(bundle.getString("ModificarClienteController.txtNombre"));</v>
+        <v>lblTitle.setText(bundle.getString("ModificarClienteController.lblTitle"));</v>
       </c>
       <c r="K65" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setPromptText(bundle.getString("ModificarClienteController.txtNombre"));</v>
+        <v>lblTitle.setPromptText(bundle.getString("ModificarClienteController.lblTitle"));</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4301,29 +4340,29 @@
         <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v>ModificarClienteController.txtPassword</v>
+        <v>ModificarClienteController.lblInfo</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="F66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtPassword=Password</v>
+        <v>ModificarClienteController.lblInfo=Actualiza tus datos y continua disfrutando de nuestra aplicacion</v>
       </c>
       <c r="G66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtPassword=Password</v>
+        <v>ModificarClienteController.lblInfo=Update your information and continue enjoying our application.</v>
       </c>
       <c r="H66" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtPassword")</v>
+        <v>bundle.getString("ModificarClienteController.lblInfo")</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="3"/>
@@ -4331,11 +4370,11 @@
       </c>
       <c r="J66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPassword.setText(bundle.getString("ModificarClienteController.txtPassword"));</v>
+        <v>lblInfo.setText(bundle.getString("ModificarClienteController.lblInfo"));</v>
       </c>
       <c r="K66" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPassword.setPromptText(bundle.getString("ModificarClienteController.txtPassword"));</v>
+        <v>lblInfo.setPromptText(bundle.getString("ModificarClienteController.lblInfo"));</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4343,29 +4382,29 @@
         <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C98" si="4">CONCATENATE(A67,".",B67)</f>
-        <v>ModificarClienteController.txtEmail</v>
+        <f t="shared" si="2"/>
+        <v>ModificarClienteController.txtIdentificacion</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="F67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtEmail=Email</v>
+        <v>ModificarClienteController.txtIdentificacion=Identificacion</v>
       </c>
       <c r="G67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtEmail=Email</v>
+        <v>ModificarClienteController.txtIdentificacion=Login</v>
       </c>
       <c r="H67" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtEmail")</v>
+        <v>bundle.getString("ModificarClienteController.txtIdentificacion")</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="3"/>
@@ -4373,11 +4412,11 @@
       </c>
       <c r="J67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtEmail.setText(bundle.getString("ModificarClienteController.txtEmail"));</v>
+        <v>txtIdentificacion.setText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
       </c>
       <c r="K67" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtEmail.setPromptText(bundle.getString("ModificarClienteController.txtEmail"));</v>
+        <v>txtIdentificacion.setPromptText(bundle.getString("ModificarClienteController.txtIdentificacion"));</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4385,29 +4424,29 @@
         <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
-        <v>ModificarClienteController.txtTelefono</v>
+        <f t="shared" si="2"/>
+        <v>ModificarClienteController.txtNombre</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtTelefono=Teléfono</v>
+        <v>ModificarClienteController.txtNombre=Nombre Completo</v>
       </c>
       <c r="G68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtTelefono=Phone</v>
+        <v>ModificarClienteController.txtNombre=Full Name</v>
       </c>
       <c r="H68" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtTelefono")</v>
+        <v>bundle.getString("ModificarClienteController.txtNombre")</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="3"/>
@@ -4415,11 +4454,11 @@
       </c>
       <c r="J68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtTelefono.setText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
+        <v>txtNombre.setText(bundle.getString("ModificarClienteController.txtNombre"));</v>
       </c>
       <c r="K68" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtTelefono.setPromptText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
+        <v>txtNombre.setPromptText(bundle.getString("ModificarClienteController.txtNombre"));</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4427,41 +4466,41 @@
         <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
-        <v>ModificarClienteController.txtDireccion</v>
+        <f t="shared" si="2"/>
+        <v>ModificarClienteController.txtPassword</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="F69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ModificarClienteController.txtDireccion=Direccion</v>
+        <v>ModificarClienteController.txtPassword=Password</v>
       </c>
       <c r="G69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ModificarClienteController.txtDireccion=Address</v>
+        <v>ModificarClienteController.txtPassword=Password</v>
       </c>
       <c r="H69" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ModificarClienteController.txtDireccion")</v>
+        <v>bundle.getString("ModificarClienteController.txtPassword")</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I100" si="5">""""</f>
+        <f t="shared" si="3"/>
         <v>"</v>
       </c>
       <c r="J69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDireccion.setText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
+        <v>txtPassword.setText(bundle.getString("ModificarClienteController.txtPassword"));</v>
       </c>
       <c r="K69" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDireccion.setPromptText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
+        <v>txtPassword.setPromptText(bundle.getString("ModificarClienteController.txtPassword"));</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4469,155 +4508,155 @@
         <v>112</v>
       </c>
       <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C103" si="4">CONCATENATE(A70,".",B70)</f>
+        <v>ModificarClienteController.txtEmail</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ModificarClienteController.txtEmail=Email</v>
+      </c>
+      <c r="G70" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ModificarClienteController.txtEmail=Email</v>
+      </c>
+      <c r="H70" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ModificarClienteController.txtEmail")</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J70" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtEmail.setText(bundle.getString("ModificarClienteController.txtEmail"));</v>
+      </c>
+      <c r="K70" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtEmail.setPromptText(bundle.getString("ModificarClienteController.txtEmail"));</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="4"/>
+        <v>ModificarClienteController.txtTelefono</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ModificarClienteController.txtTelefono=Teléfono</v>
+      </c>
+      <c r="G71" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ModificarClienteController.txtTelefono=Phone</v>
+      </c>
+      <c r="H71" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ModificarClienteController.txtTelefono")</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="3"/>
+        <v>"</v>
+      </c>
+      <c r="J71" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtTelefono.setText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
+      </c>
+      <c r="K71" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtTelefono.setPromptText(bundle.getString("ModificarClienteController.txtTelefono"));</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="4"/>
+        <v>ModificarClienteController.txtDireccion</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ModificarClienteController.txtDireccion=Direccion</v>
+      </c>
+      <c r="G72" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ModificarClienteController.txtDireccion=Address</v>
+      </c>
+      <c r="H72" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ModificarClienteController.txtDireccion")</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" ref="I72:I105" si="5">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J72" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDireccion.setText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
+      </c>
+      <c r="K72" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDireccion.setPromptText(bundle.getString("ModificarClienteController.txtDireccion"));</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="4"/>
         <v>ModificarClienteController.btnActualizar</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="E70" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" t="str">
+      <c r="E73" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>ModificarClienteController.btnActualizar=Actualizar</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>ModificarClienteController.btnActualizar=Update</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H73" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("ModificarClienteController.btnActualizar")</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="5"/>
-        <v>"</v>
-      </c>
-      <c r="J70" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnActualizar.setText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
-      </c>
-      <c r="K70" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnActualizar.setPromptText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblPaquete</v>
-      </c>
-      <c r="D71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E71" t="s">
-        <v>307</v>
-      </c>
-      <c r="F71" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Paquete </v>
-      </c>
-      <c r="G71" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Package </v>
-      </c>
-      <c r="H71" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblPaquete")</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="5"/>
-        <v>"</v>
-      </c>
-      <c r="J71" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPaquete.setText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
-      </c>
-      <c r="K71" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPaquete.setPromptText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblInfoCupos</v>
-      </c>
-      <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.lblInfoCupos=¡Quedan %d cupos!</v>
-      </c>
-      <c r="G72" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblInfoCupos=There are %d spaces left!</v>
-      </c>
-      <c r="H72" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblInfoCupos")</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="5"/>
-        <v>"</v>
-      </c>
-      <c r="J72" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblInfoCupos.setText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
-      </c>
-      <c r="K72" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblInfoCupos.setPromptText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.btnReservar</v>
-      </c>
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" t="s">
-        <v>309</v>
-      </c>
-      <c r="F73" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.btnReservar=Reserva ahora</v>
-      </c>
-      <c r="G73" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.btnReservar=Reserve now</v>
-      </c>
-      <c r="H73" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.btnReservar")</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="5"/>
@@ -4625,11 +4664,11 @@
       </c>
       <c r="J73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnReservar.setText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
+        <v>btnActualizar.setText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
       </c>
       <c r="K73" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnReservar.setPromptText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
+        <v>btnActualizar.setPromptText(bundle.getString("ModificarClienteController.btnActualizar"));</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4637,29 +4676,29 @@
         <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblPrecio</v>
+        <v>PaqueteDetailsController.lblPaquete</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Precio COP $ </v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Paquete </v>
       </c>
       <c r="G74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Price COP $ $. </v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPaquete=Package </v>
       </c>
       <c r="H74" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblPrecio")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblPaquete")</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="5"/>
@@ -4667,11 +4706,11 @@
       </c>
       <c r="J74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
+        <v>lblPaquete.setText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
       </c>
       <c r="K74" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setPromptText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
+        <v>lblPaquete.setPromptText(bundle.getString("PaqueteDetailsController.lblPaquete"));</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4679,29 +4718,29 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblServiciosExtra</v>
+        <v>PaqueteDetailsController.lblInfoCupos</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.lblServiciosExtra=Servicios Adicionales</v>
+        <v>PaqueteDetailsController.lblInfoCupos=¡Quedan %d cupos!</v>
       </c>
       <c r="G75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblServiciosExtra=Additional Services</v>
+        <v>PaqueteDetailsController.lblInfoCupos=There are %d spaces left!</v>
       </c>
       <c r="H75" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblServiciosExtra")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblInfoCupos")</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="5"/>
@@ -4709,11 +4748,11 @@
       </c>
       <c r="J75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblServiciosExtra.setText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
+        <v>lblInfoCupos.setText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
       </c>
       <c r="K75" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblServiciosExtra.setPromptText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
+        <v>lblInfoCupos.setPromptText(bundle.getString("PaqueteDetailsController.lblInfoCupos"));</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4721,29 +4760,29 @@
         <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblDestinos</v>
+        <v>PaqueteDetailsController.btnReservar</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.lblDestinos=Destinos</v>
+        <v>PaqueteDetailsController.btnReservar=Reserva ahora</v>
       </c>
       <c r="G76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblDestinos=Destinations</v>
+        <v>PaqueteDetailsController.btnReservar=Reserve now</v>
       </c>
       <c r="H76" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblDestinos")</v>
+        <v>bundle.getString("PaqueteDetailsController.btnReservar")</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="5"/>
@@ -4751,11 +4790,11 @@
       </c>
       <c r="J76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDestinos.setText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
+        <v>btnReservar.setText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
       </c>
       <c r="K76" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDestinos.setPromptText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
+        <v>btnReservar.setPromptText(bundle.getString("PaqueteDetailsController.btnReservar"));</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4763,29 +4802,29 @@
         <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblFechaInicial</v>
+        <v>PaqueteDetailsController.lblPrecio</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.lblFechaInicial=Fecha Inicial:</v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Precio COP $ </v>
       </c>
       <c r="G77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblFechaInicial=Start date:</v>
+        <v xml:space="preserve">PaqueteDetailsController.lblPrecio=Price COP $ $. </v>
       </c>
       <c r="H77" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblFechaInicial")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblPrecio")</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="5"/>
@@ -4793,11 +4832,11 @@
       </c>
       <c r="J77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaInicial.setText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
+        <v>lblPrecio.setText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
       </c>
       <c r="K77" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaInicial.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
+        <v>lblPrecio.setPromptText(bundle.getString("PaqueteDetailsController.lblPrecio"));</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4805,29 +4844,29 @@
         <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
-        <v>PaqueteDetailsController.lblFechaFinal</v>
+        <v>PaqueteDetailsController.lblServiciosExtra</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PaqueteDetailsController.lblFechaFinal=Fecha Final:</v>
+        <v>PaqueteDetailsController.lblServiciosExtra=Servicios Adicionales</v>
       </c>
       <c r="G78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PaqueteDetailsController.lblFechaFinal=End Date:</v>
+        <v>PaqueteDetailsController.lblServiciosExtra=Additional Services</v>
       </c>
       <c r="H78" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PaqueteDetailsController.lblFechaFinal")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblServiciosExtra")</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="5"/>
@@ -4835,41 +4874,41 @@
       </c>
       <c r="J78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaFinal.setText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
+        <v>lblServiciosExtra.setText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
       </c>
       <c r="K78" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaFinal.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
+        <v>lblServiciosExtra.setPromptText(bundle.getString("PaqueteDetailsController.lblServiciosExtra"));</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblEstado</v>
+        <v>PaqueteDetailsController.lblDestinos</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="F79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblEstado=Estado</v>
+        <v>PaqueteDetailsController.lblDestinos=Destinos</v>
       </c>
       <c r="G79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblEstado=Status</v>
+        <v>PaqueteDetailsController.lblDestinos=Landings</v>
       </c>
       <c r="H79" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblEstado")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblDestinos")</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="5"/>
@@ -4877,41 +4916,41 @@
       </c>
       <c r="J79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblEstado.setText(bundle.getString("PDFFacturaController.lblEstado"));</v>
+        <v>lblDestinos.setText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
       </c>
       <c r="K79" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblEstado.setPromptText(bundle.getString("PDFFacturaController.lblEstado"));</v>
+        <v>lblDestinos.setPromptText(bundle.getString("PaqueteDetailsController.lblDestinos"));</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblVeterinario</v>
+        <v>PaqueteDetailsController.lblFechaInicial</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblVeterinario=Veterinario</v>
+        <v>PaqueteDetailsController.lblFechaInicial=Fecha Inicial:</v>
       </c>
       <c r="G80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblVeterinario=Veterinarian</v>
+        <v>PaqueteDetailsController.lblFechaInicial=Start date:</v>
       </c>
       <c r="H80" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblVeterinario")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblFechaInicial")</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="5"/>
@@ -4919,41 +4958,41 @@
       </c>
       <c r="J80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblVeterinario.setText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
+        <v>lblFechaInicial.setText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
       </c>
       <c r="K80" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblVeterinario.setPromptText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
+        <v>lblFechaInicial.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaInicial"));</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblMascota</v>
+        <v>PaqueteDetailsController.lblFechaFinal</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblMascota=Mascota</v>
+        <v>PaqueteDetailsController.lblFechaFinal=Fecha Final:</v>
       </c>
       <c r="G81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblMascota=Pet</v>
+        <v>PaqueteDetailsController.lblFechaFinal=End Date:</v>
       </c>
       <c r="H81" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblMascota")</v>
+        <v>bundle.getString("PaqueteDetailsController.lblFechaFinal")</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="5"/>
@@ -4961,11 +5000,11 @@
       </c>
       <c r="J81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblMascota.setText(bundle.getString("PDFFacturaController.lblMascota"));</v>
+        <v>lblFechaFinal.setText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
       </c>
       <c r="K81" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblMascota.setPromptText(bundle.getString("PDFFacturaController.lblMascota"));</v>
+        <v>lblFechaFinal.setPromptText(bundle.getString("PaqueteDetailsController.lblFechaFinal"));</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4973,29 +5012,29 @@
         <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblTipo</v>
+        <v>PDFFacturaController.lblEstado</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblTipo=Tipo</v>
+        <v>PDFFacturaController.lblEstado=Estado</v>
       </c>
       <c r="G82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTipo=Type</v>
+        <v>PDFFacturaController.lblEstado=Status</v>
       </c>
       <c r="H82" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblTipo")</v>
+        <v>bundle.getString("PDFFacturaController.lblEstado")</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="5"/>
@@ -5003,11 +5042,11 @@
       </c>
       <c r="J82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTipo.setText(bundle.getString("PDFFacturaController.lblTipo"));</v>
+        <v>lblEstado.setText(bundle.getString("PDFFacturaController.lblEstado"));</v>
       </c>
       <c r="K82" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTipo.setPromptText(bundle.getString("PDFFacturaController.lblTipo"));</v>
+        <v>lblEstado.setPromptText(bundle.getString("PDFFacturaController.lblEstado"));</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -5015,29 +5054,29 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblSexo</v>
+        <v>PDFFacturaController.lblVeterinario</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblSexo=Sexo</v>
+        <v>PDFFacturaController.lblVeterinario=Veterinario</v>
       </c>
       <c r="G83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblSexo=Sex</v>
+        <v>PDFFacturaController.lblVeterinario=Veterinarian</v>
       </c>
       <c r="H83" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblSexo")</v>
+        <v>bundle.getString("PDFFacturaController.lblVeterinario")</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="5"/>
@@ -5045,11 +5084,11 @@
       </c>
       <c r="J83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSexo.setText(bundle.getString("PDFFacturaController.lblSexo"));</v>
+        <v>lblVeterinario.setText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
       </c>
       <c r="K83" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSexo.setPromptText(bundle.getString("PDFFacturaController.lblSexo"));</v>
+        <v>lblVeterinario.setPromptText(bundle.getString("PDFFacturaController.lblVeterinario"));</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5057,29 +5096,29 @@
         <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblDiagnostico</v>
+        <v>PDFFacturaController.lblMascota</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblDiagnostico=Diagnostico</v>
+        <v>PDFFacturaController.lblMascota=Mascota</v>
       </c>
       <c r="G84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblDiagnostico=Diagnosis</v>
+        <v>PDFFacturaController.lblMascota=Pet</v>
       </c>
       <c r="H84" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblDiagnostico")</v>
+        <v>bundle.getString("PDFFacturaController.lblMascota")</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="5"/>
@@ -5087,11 +5126,11 @@
       </c>
       <c r="J84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDiagnostico.setText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
+        <v>lblMascota.setText(bundle.getString("PDFFacturaController.lblMascota"));</v>
       </c>
       <c r="K84" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDiagnostico.setPromptText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
+        <v>lblMascota.setPromptText(bundle.getString("PDFFacturaController.lblMascota"));</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5099,29 +5138,29 @@
         <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblTratamiento</v>
+        <v>PDFFacturaController.lblTipo</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblTratamiento=Tratamiento</v>
+        <v>PDFFacturaController.lblTipo=Tipo</v>
       </c>
       <c r="G85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTratamiento=Treatment</v>
+        <v>PDFFacturaController.lblTipo=Type</v>
       </c>
       <c r="H85" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblTratamiento")</v>
+        <v>bundle.getString("PDFFacturaController.lblTipo")</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="5"/>
@@ -5129,11 +5168,11 @@
       </c>
       <c r="J85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTratamiento.setText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
+        <v>lblTipo.setText(bundle.getString("PDFFacturaController.lblTipo"));</v>
       </c>
       <c r="K85" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTratamiento.setPromptText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
+        <v>lblTipo.setPromptText(bundle.getString("PDFFacturaController.lblTipo"));</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5141,29 +5180,29 @@
         <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblPrecio</v>
+        <v>PDFFacturaController.lblSexo</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblPrecio=Precio</v>
+        <v>PDFFacturaController.lblSexo=Sexo</v>
       </c>
       <c r="G86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblPrecio=Price</v>
+        <v>PDFFacturaController.lblSexo=Sex</v>
       </c>
       <c r="H86" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblPrecio")</v>
+        <v>bundle.getString("PDFFacturaController.lblSexo")</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="5"/>
@@ -5171,11 +5210,11 @@
       </c>
       <c r="J86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
+        <v>lblSexo.setText(bundle.getString("PDFFacturaController.lblSexo"));</v>
       </c>
       <c r="K86" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setPromptText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
+        <v>lblSexo.setPromptText(bundle.getString("PDFFacturaController.lblSexo"));</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5183,29 +5222,29 @@
         <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblLema</v>
+        <v>PDFFacturaController.lblDiagnostico</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblLema=Los mejores destinos para tus pokeaventuras</v>
+        <v>PDFFacturaController.lblDiagnostico=Diagnostico</v>
       </c>
       <c r="G87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblLema=The best destinations for your pokeadventures</v>
+        <v>PDFFacturaController.lblDiagnostico=Diagnosis</v>
       </c>
       <c r="H87" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblLema")</v>
+        <v>bundle.getString("PDFFacturaController.lblDiagnostico")</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="5"/>
@@ -5213,11 +5252,11 @@
       </c>
       <c r="J87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblLema.setText(bundle.getString("PDFFacturaController.lblLema"));</v>
+        <v>lblDiagnostico.setText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
       </c>
       <c r="K87" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblLema.setPromptText(bundle.getString("PDFFacturaController.lblLema"));</v>
+        <v>lblDiagnostico.setPromptText(bundle.getString("PDFFacturaController.lblDiagnostico"));</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5225,29 +5264,29 @@
         <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblFacturaPara</v>
+        <v>PDFFacturaController.lblTratamiento</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblFacturaPara=Factura Para:</v>
+        <v>PDFFacturaController.lblTratamiento=Tratamiento</v>
       </c>
       <c r="G88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblFacturaPara=Invoice To:</v>
+        <v>PDFFacturaController.lblTratamiento=Treatment</v>
       </c>
       <c r="H88" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblFacturaPara")</v>
+        <v>bundle.getString("PDFFacturaController.lblTratamiento")</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="5"/>
@@ -5255,11 +5294,11 @@
       </c>
       <c r="J88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFacturaPara.setText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
+        <v>lblTratamiento.setText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
       </c>
       <c r="K88" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFacturaPara.setPromptText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
+        <v>lblTratamiento.setPromptText(bundle.getString("PDFFacturaController.lblTratamiento"));</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5267,29 +5306,29 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblTelefono</v>
+        <v>PDFFacturaController.lblPrecio</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblTelefono=Telefono:</v>
+        <v>PDFFacturaController.lblPrecio=Precio</v>
       </c>
       <c r="G89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblTelefono=Phone:</v>
+        <v>PDFFacturaController.lblPrecio=Price</v>
       </c>
       <c r="H89" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblTelefono")</v>
+        <v>bundle.getString("PDFFacturaController.lblPrecio")</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="5"/>
@@ -5297,11 +5336,11 @@
       </c>
       <c r="J89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTelefono.setText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
+        <v>lblPrecio.setText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
       </c>
       <c r="K89" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTelefono.setPromptText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
+        <v>lblPrecio.setPromptText(bundle.getString("PDFFacturaController.lblPrecio"));</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5309,29 +5348,29 @@
         <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblDireccion</v>
+        <v>PDFFacturaController.lblLema</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="F90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblDireccion=Direccion:</v>
+        <v>PDFFacturaController.lblLema=Los mejores destinos para tus pokeaventuras</v>
       </c>
       <c r="G90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblDireccion=Address:</v>
+        <v>PDFFacturaController.lblLema=The best Landings for your pokeadventures</v>
       </c>
       <c r="H90" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblDireccion")</v>
+        <v>bundle.getString("PDFFacturaController.lblLema")</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="5"/>
@@ -5339,11 +5378,11 @@
       </c>
       <c r="J90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDireccion.setText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
+        <v>lblLema.setText(bundle.getString("PDFFacturaController.lblLema"));</v>
       </c>
       <c r="K90" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDireccion.setPromptText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
+        <v>lblLema.setPromptText(bundle.getString("PDFFacturaController.lblLema"));</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5351,29 +5390,29 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblFactura</v>
+        <v>PDFFacturaController.lblFacturaPara</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v xml:space="preserve">PDFFacturaController.lblFactura=Factura: </v>
+        <v>PDFFacturaController.lblFacturaPara=Factura Para:</v>
       </c>
       <c r="G91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v xml:space="preserve">PDFFacturaController.lblFactura=Invoice: </v>
+        <v>PDFFacturaController.lblFacturaPara=Invoice To:</v>
       </c>
       <c r="H91" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblFactura")</v>
+        <v>bundle.getString("PDFFacturaController.lblFacturaPara")</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="5"/>
@@ -5381,11 +5420,11 @@
       </c>
       <c r="J91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFactura.setText(bundle.getString("PDFFacturaController.lblFactura"));</v>
+        <v>lblFacturaPara.setText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
       </c>
       <c r="K91" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFactura.setPromptText(bundle.getString("PDFFacturaController.lblFactura"));</v>
+        <v>lblFacturaPara.setPromptText(bundle.getString("PDFFacturaController.lblFacturaPara"));</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5393,29 +5432,29 @@
         <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v>PDFFacturaController.lblThx</v>
+        <v>PDFFacturaController.lblTelefono</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>PDFFacturaController.lblThx=Gracias por tu compra, disfruta tu viaje</v>
+        <v>PDFFacturaController.lblTelefono=Telefono:</v>
       </c>
       <c r="G92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>PDFFacturaController.lblThx=Thank you for your purchase, enjoy your trip</v>
+        <v>PDFFacturaController.lblTelefono=Phone:</v>
       </c>
       <c r="H92" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("PDFFacturaController.lblThx")</v>
+        <v>bundle.getString("PDFFacturaController.lblTelefono")</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="5"/>
@@ -5423,41 +5462,41 @@
       </c>
       <c r="J92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblThx.setText(bundle.getString("PDFFacturaController.lblThx"));</v>
+        <v>lblTelefono.setText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
       </c>
       <c r="K92" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblThx.setPromptText(bundle.getString("PDFFacturaController.lblThx"));</v>
+        <v>lblTelefono.setPromptText(bundle.getString("PDFFacturaController.lblTelefono"));</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v>RegistrationController.txtIdentificacion</v>
+        <v>PDFFacturaController.lblDireccion</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="F93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtIdentificacion=Identificacion</v>
+        <v>PDFFacturaController.lblDireccion=Direccion:</v>
       </c>
       <c r="G93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtIdentificacion=Login</v>
+        <v>PDFFacturaController.lblDireccion=Address:</v>
       </c>
       <c r="H93" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtIdentificacion")</v>
+        <v>bundle.getString("PDFFacturaController.lblDireccion")</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="5"/>
@@ -5465,41 +5504,41 @@
       </c>
       <c r="J93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
+        <v>lblDireccion.setText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
       </c>
       <c r="K93" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setPromptText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
+        <v>lblDireccion.setPromptText(bundle.getString("PDFFacturaController.lblDireccion"));</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
-        <v>RegistrationController.txtNombre</v>
+        <v>PDFFacturaController.lblFactura</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtNombre=Nombre Completo</v>
+        <v xml:space="preserve">PDFFacturaController.lblFactura=Factura: </v>
       </c>
       <c r="G94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtNombre=Full Name</v>
+        <v xml:space="preserve">PDFFacturaController.lblFactura=Invoice: </v>
       </c>
       <c r="H94" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtNombre")</v>
+        <v>bundle.getString("PDFFacturaController.lblFactura")</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="5"/>
@@ -5507,41 +5546,41 @@
       </c>
       <c r="J94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setText(bundle.getString("RegistrationController.txtNombre"));</v>
+        <v>lblFactura.setText(bundle.getString("PDFFacturaController.lblFactura"));</v>
       </c>
       <c r="K94" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setPromptText(bundle.getString("RegistrationController.txtNombre"));</v>
+        <v>lblFactura.setPromptText(bundle.getString("PDFFacturaController.lblFactura"));</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
-        <v>RegistrationController.txtPassword</v>
+        <v>PDFFacturaController.lblThx</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="F95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtPassword=Contraseña</v>
+        <v>PDFFacturaController.lblThx=Gracias por tu compra, disfruta tu viaje</v>
       </c>
       <c r="G95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtPassword=Password</v>
+        <v>PDFFacturaController.lblThx=Thank you for your purchase, enjoy your trip</v>
       </c>
       <c r="H95" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtPassword")</v>
+        <v>bundle.getString("PDFFacturaController.lblThx")</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="5"/>
@@ -5549,11 +5588,11 @@
       </c>
       <c r="J95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPassword.setText(bundle.getString("RegistrationController.txtPassword"));</v>
+        <v>lblThx.setText(bundle.getString("PDFFacturaController.lblThx"));</v>
       </c>
       <c r="K95" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPassword.setPromptText(bundle.getString("RegistrationController.txtPassword"));</v>
+        <v>lblThx.setPromptText(bundle.getString("PDFFacturaController.lblThx"));</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5561,29 +5600,29 @@
         <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
-        <v>RegistrationController.txtEmail</v>
+        <v>RegistrationController.txtIdentificacion</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="F96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtEmail=Email</v>
+        <v>RegistrationController.txtIdentificacion=Identificacion</v>
       </c>
       <c r="G96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtEmail=Email</v>
+        <v>RegistrationController.txtIdentificacion=Login</v>
       </c>
       <c r="H96" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtEmail")</v>
+        <v>bundle.getString("RegistrationController.txtIdentificacion")</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="5"/>
@@ -5591,11 +5630,11 @@
       </c>
       <c r="J96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtEmail.setText(bundle.getString("RegistrationController.txtEmail"));</v>
+        <v>txtIdentificacion.setText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
       </c>
       <c r="K96" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtEmail.setPromptText(bundle.getString("RegistrationController.txtEmail"));</v>
+        <v>txtIdentificacion.setPromptText(bundle.getString("RegistrationController.txtIdentificacion"));</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5603,41 +5642,41 @@
         <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="4"/>
-        <v>RegistrationController.txtTelefono</v>
+        <f>CONCATENATE(A97,".",B97)</f>
+        <v>RegistrationController.lblTitle</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="F97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtTelefono=Teléfono</v>
+        <v>RegistrationController.lblTitle=¡Registrate!</v>
       </c>
       <c r="G97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtTelefono=Phone</v>
+        <v>RegistrationController.lblTitle=¡Register!</v>
       </c>
       <c r="H97" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtTelefono")</v>
+        <v>bundle.getString("RegistrationController.lblTitle")</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="5"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="J97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtTelefono.setText(bundle.getString("RegistrationController.txtTelefono"));</v>
+        <v>lblTitle.setText(bundle.getString("RegistrationController.lblTitle"));</v>
       </c>
       <c r="K97" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtTelefono.setPromptText(bundle.getString("RegistrationController.txtTelefono"));</v>
+        <v>lblTitle.setPromptText(bundle.getString("RegistrationController.lblTitle"));</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5645,41 +5684,41 @@
         <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="4"/>
-        <v>RegistrationController.txtDireccion</v>
+        <f>CONCATENATE(A98,".",B98)</f>
+        <v>RegistrationController.lblInfo</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.txtDireccion=txtDireccion</v>
+        <v>RegistrationController.lblInfo=Ingresa tus datos para disfrutar de nuestra aplicacion</v>
       </c>
       <c r="G98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.txtDireccion=txtAddress</v>
+        <v>RegistrationController.lblInfo=Enter your details to enjoy our application</v>
       </c>
       <c r="H98" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.txtDireccion")</v>
+        <v>bundle.getString("RegistrationController.lblInfo")</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="5"/>
+        <f>""""</f>
         <v>"</v>
       </c>
       <c r="J98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDireccion.setText(bundle.getString("RegistrationController.txtDireccion"));</v>
+        <v>lblInfo.setText(bundle.getString("RegistrationController.lblInfo"));</v>
       </c>
       <c r="K98" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDireccion.setPromptText(bundle.getString("RegistrationController.txtDireccion"));</v>
+        <v>lblInfo.setPromptText(bundle.getString("RegistrationController.lblInfo"));</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5687,29 +5726,29 @@
         <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:C130" si="6">CONCATENATE(A99,".",B99)</f>
-        <v>RegistrationController.btnRegistro</v>
+        <f t="shared" si="4"/>
+        <v>RegistrationController.txtNombre</v>
       </c>
       <c r="D99" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="F99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.btnRegistro=Registrarse</v>
+        <v>RegistrationController.txtNombre=Nombre Completo</v>
       </c>
       <c r="G99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.btnRegistro=Register</v>
+        <v>RegistrationController.txtNombre=Full Name</v>
       </c>
       <c r="H99" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.btnRegistro")</v>
+        <v>bundle.getString("RegistrationController.txtNombre")</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="5"/>
@@ -5717,11 +5756,11 @@
       </c>
       <c r="J99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnRegistro.setText(bundle.getString("RegistrationController.btnRegistro"));</v>
+        <v>txtNombre.setText(bundle.getString("RegistrationController.txtNombre"));</v>
       </c>
       <c r="K99" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnRegistro.setPromptText(bundle.getString("RegistrationController.btnRegistro"));</v>
+        <v>txtNombre.setPromptText(bundle.getString("RegistrationController.txtNombre"));</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5729,29 +5768,29 @@
         <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistrationController.lblYaRegistrado</v>
+        <f t="shared" si="4"/>
+        <v>RegistrationController.txtPassword</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="E100" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="F100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistrationController.lblYaRegistrado=¿Ya te registraste?</v>
+        <v>RegistrationController.txtPassword=Contraseña</v>
       </c>
       <c r="G100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistrationController.lblYaRegistrado=Already registered?</v>
+        <v>RegistrationController.txtPassword=Password</v>
       </c>
       <c r="H100" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistrationController.lblYaRegistrado")</v>
+        <v>bundle.getString("RegistrationController.txtPassword")</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="5"/>
@@ -5759,11 +5798,11 @@
       </c>
       <c r="J100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblYaRegistrado.setText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
+        <v>txtPassword.setText(bundle.getString("RegistrationController.txtPassword"));</v>
       </c>
       <c r="K100" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblYaRegistrado.setPromptText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
+        <v>txtPassword.setPromptText(bundle.getString("RegistrationController.txtPassword"));</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5771,251 +5810,251 @@
         <v>177</v>
       </c>
       <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="4"/>
+        <v>RegistrationController.txtEmail</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>RegistrationController.txtEmail=Email</v>
+      </c>
+      <c r="G101" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>RegistrationController.txtEmail=Email</v>
+      </c>
+      <c r="H101" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("RegistrationController.txtEmail")</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J101" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtEmail.setText(bundle.getString("RegistrationController.txtEmail"));</v>
+      </c>
+      <c r="K101" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtEmail.setPromptText(bundle.getString("RegistrationController.txtEmail"));</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="4"/>
+        <v>RegistrationController.txtTelefono</v>
+      </c>
+      <c r="D102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>RegistrationController.txtTelefono=Teléfono</v>
+      </c>
+      <c r="G102" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>RegistrationController.txtTelefono=Phone</v>
+      </c>
+      <c r="H102" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("RegistrationController.txtTelefono")</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J102" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtTelefono.setText(bundle.getString("RegistrationController.txtTelefono"));</v>
+      </c>
+      <c r="K102" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtTelefono.setPromptText(bundle.getString("RegistrationController.txtTelefono"));</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="4"/>
+        <v>RegistrationController.txtDireccion</v>
+      </c>
+      <c r="D103" t="s">
+        <v>392</v>
+      </c>
+      <c r="E103" t="s">
+        <v>393</v>
+      </c>
+      <c r="F103" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>RegistrationController.txtDireccion=Direccion de Residencia</v>
+      </c>
+      <c r="G103" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>RegistrationController.txtDireccion=Residence Address</v>
+      </c>
+      <c r="H103" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("RegistrationController.txtDireccion")</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J103" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDireccion.setText(bundle.getString("RegistrationController.txtDireccion"));</v>
+      </c>
+      <c r="K103" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>txtDireccion.setPromptText(bundle.getString("RegistrationController.txtDireccion"));</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104:C135" si="6">CONCATENATE(A104,".",B104)</f>
+        <v>RegistrationController.btnRegistro</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" t="s">
+        <v>325</v>
+      </c>
+      <c r="F104" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>RegistrationController.btnRegistro=Registrarse</v>
+      </c>
+      <c r="G104" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>RegistrationController.btnRegistro=Register</v>
+      </c>
+      <c r="H104" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("RegistrationController.btnRegistro")</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J104" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnRegistro.setText(bundle.getString("RegistrationController.btnRegistro"));</v>
+      </c>
+      <c r="K104" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnRegistro.setPromptText(bundle.getString("RegistrationController.btnRegistro"));</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="6"/>
+        <v>RegistrationController.lblYaRegistrado</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" t="s">
+        <v>326</v>
+      </c>
+      <c r="F105" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>RegistrationController.lblYaRegistrado=¿Ya te registraste?</v>
+      </c>
+      <c r="G105" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>RegistrationController.lblYaRegistrado=Already registered?</v>
+      </c>
+      <c r="H105" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("RegistrationController.lblYaRegistrado")</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="5"/>
+        <v>"</v>
+      </c>
+      <c r="J105" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblYaRegistrado.setText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
+      </c>
+      <c r="K105" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblYaRegistrado.setPromptText(bundle.getString("RegistrationController.lblYaRegistrado"));</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" t="s">
         <v>157</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C106" t="str">
         <f t="shared" si="6"/>
         <v>RegistrationController.btnLogin</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D106" t="s">
         <v>158</v>
       </c>
-      <c r="E101" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" t="str">
+      <c r="E106" t="s">
+        <v>327</v>
+      </c>
+      <c r="F106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>RegistrationController.btnLogin=Iniciar sesión</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>RegistrationController.btnLogin=Sign in</v>
       </c>
-      <c r="H101" t="str">
+      <c r="H106" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("RegistrationController.btnLogin")</v>
       </c>
-      <c r="I101" t="str">
-        <f t="shared" ref="I101:I132" si="7">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J101" t="str">
+      <c r="I106" t="str">
+        <f t="shared" ref="I106:I137" si="7">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLogin.setText(bundle.getString("RegistrationController.btnLogin"));</v>
       </c>
-      <c r="K101" t="str">
+      <c r="K106" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>btnLogin.setPromptText(bundle.getString("RegistrationController.btnLogin"));</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblTitulo</v>
-      </c>
-      <c r="D102" t="s">
-        <v>168</v>
-      </c>
-      <c r="E102" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblTitulo=AGREGAR DESTINOS</v>
-      </c>
-      <c r="G102" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblTitulo=ADD DESTINATIONS</v>
-      </c>
-      <c r="H102" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblTitulo")</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="7"/>
-        <v>"</v>
-      </c>
-      <c r="J102" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitulo.setText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
-      </c>
-      <c r="K102" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitulo.setPromptText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" t="s">
-        <v>161</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblNombre</v>
-      </c>
-      <c r="D103" t="s">
-        <v>169</v>
-      </c>
-      <c r="E103" t="s">
-        <v>333</v>
-      </c>
-      <c r="F103" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblNombre=Nombre:</v>
-      </c>
-      <c r="G103" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblNombre=Name:</v>
-      </c>
-      <c r="H103" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblNombre")</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="7"/>
-        <v>"</v>
-      </c>
-      <c r="J103" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
-      </c>
-      <c r="K103" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setPromptText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistroDestinoController.txtNombre</v>
-      </c>
-      <c r="D104" t="s">
-        <v>174</v>
-      </c>
-      <c r="E104" t="s">
-        <v>334</v>
-      </c>
-      <c r="F104" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.txtNombre=Ingrese el nombre</v>
-      </c>
-      <c r="G104" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtNombre=Enter name</v>
-      </c>
-      <c r="H104" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.txtNombre")</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="7"/>
-        <v>"</v>
-      </c>
-      <c r="J104" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
-      </c>
-      <c r="K104" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setPromptText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblCiudad</v>
-      </c>
-      <c r="D105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" t="s">
-        <v>274</v>
-      </c>
-      <c r="F105" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblCiudad=Ciudad:</v>
-      </c>
-      <c r="G105" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblCiudad=City:</v>
-      </c>
-      <c r="H105" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblCiudad")</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="7"/>
-        <v>"</v>
-      </c>
-      <c r="J105" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblCiudad.setText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
-      </c>
-      <c r="K105" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblCiudad.setPromptText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="6"/>
-        <v>RegistroDestinoController.txtCiudad</v>
-      </c>
-      <c r="D106" t="s">
-        <v>173</v>
-      </c>
-      <c r="E106" t="s">
-        <v>335</v>
-      </c>
-      <c r="F106" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.txtCiudad=Ingrese la ciudad</v>
-      </c>
-      <c r="G106" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtCiudad=Enter the city</v>
-      </c>
-      <c r="H106" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.txtCiudad")</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="7"/>
-        <v>"</v>
-      </c>
-      <c r="J106" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtCiudad.setText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
-      </c>
-      <c r="K106" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtCiudad.setPromptText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -6023,29 +6062,29 @@
         <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblDescripcion</v>
+        <v>RegistroDestinoController.lblTitulo</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E107" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="F107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblDescripcion=Descripcion:</v>
+        <v>RegistroDestinoController.lblTitulo=AGREGAR DESTINOS</v>
       </c>
       <c r="G107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblDescripcion=Description:</v>
+        <v>RegistroDestinoController.lblTitulo=ADD Landings</v>
       </c>
       <c r="H107" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblDescripcion")</v>
+        <v>bundle.getString("RegistroDestinoController.lblTitulo")</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="7"/>
@@ -6053,11 +6092,11 @@
       </c>
       <c r="J107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDescripcion.setText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
+        <v>lblTitulo.setText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
       </c>
       <c r="K107" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDescripcion.setPromptText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
+        <v>lblTitulo.setPromptText(bundle.getString("RegistroDestinoController.lblTitulo"));</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -6065,29 +6104,29 @@
         <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.txtDescripcion</v>
+        <v>RegistroDestinoController.lblNombre</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E108" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.txtDescripcion=Ingrese la descripcion</v>
+        <v>RegistroDestinoController.lblNombre=Nombre:</v>
       </c>
       <c r="G108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.txtDescripcion=Enter description</v>
+        <v>RegistroDestinoController.lblNombre=Name:</v>
       </c>
       <c r="H108" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.txtDescripcion")</v>
+        <v>bundle.getString("RegistroDestinoController.lblNombre")</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="7"/>
@@ -6095,11 +6134,11 @@
       </c>
       <c r="J108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDescripcion.setText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
+        <v>lblNombre.setText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
       </c>
       <c r="K108" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDescripcion.setPromptText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
+        <v>lblNombre.setPromptText(bundle.getString("RegistroDestinoController.lblNombre"));</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -6107,29 +6146,29 @@
         <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblClima</v>
+        <v>RegistroDestinoController.txtNombre</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="F109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblClima=Clima:</v>
+        <v>RegistroDestinoController.txtNombre=Ingrese el nombre</v>
       </c>
       <c r="G109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblClima=Weather:</v>
+        <v>RegistroDestinoController.txtNombre=Enter name</v>
       </c>
       <c r="H109" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblClima")</v>
+        <v>bundle.getString("RegistroDestinoController.txtNombre")</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="7"/>
@@ -6137,11 +6176,11 @@
       </c>
       <c r="J109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblClima.setText(bundle.getString("RegistroDestinoController.lblClima"));</v>
+        <v>txtNombre.setText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
       </c>
       <c r="K109" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblClima.setPromptText(bundle.getString("RegistroDestinoController.lblClima"));</v>
+        <v>txtNombre.setPromptText(bundle.getString("RegistroDestinoController.txtNombre"));</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -6149,29 +6188,29 @@
         <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.cbClima</v>
+        <v>RegistroDestinoController.lblCiudad</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="F110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.cbClima=Seleccionar</v>
+        <v>RegistroDestinoController.lblCiudad=Ciudad:</v>
       </c>
       <c r="G110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.cbClima=Select</v>
+        <v>RegistroDestinoController.lblCiudad=City:</v>
       </c>
       <c r="H110" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.cbClima")</v>
+        <v>bundle.getString("RegistroDestinoController.lblCiudad")</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="7"/>
@@ -6179,11 +6218,11 @@
       </c>
       <c r="J110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>cbClima.setText(bundle.getString("RegistroDestinoController.cbClima"));</v>
+        <v>lblCiudad.setText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
       </c>
       <c r="K110" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>cbClima.setPromptText(bundle.getString("RegistroDestinoController.cbClima"));</v>
+        <v>lblCiudad.setPromptText(bundle.getString("RegistroDestinoController.lblCiudad"));</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -6191,29 +6230,29 @@
         <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.lblSeleccionarImagen</v>
+        <v>RegistroDestinoController.txtCiudad</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.lblSeleccionarImagen=Seleccionar imagenes</v>
+        <v>RegistroDestinoController.txtCiudad=Ingrese la ciudad</v>
       </c>
       <c r="G111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.lblSeleccionarImagen=Select images</v>
+        <v>RegistroDestinoController.txtCiudad=Enter the city</v>
       </c>
       <c r="H111" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.lblSeleccionarImagen")</v>
+        <v>bundle.getString("RegistroDestinoController.txtCiudad")</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="7"/>
@@ -6221,11 +6260,11 @@
       </c>
       <c r="J111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSeleccionarImagen.setText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
+        <v>txtCiudad.setText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
       </c>
       <c r="K111" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSeleccionarImagen.setPromptText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
+        <v>txtCiudad.setPromptText(bundle.getString("RegistroDestinoController.txtCiudad"));</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -6233,29 +6272,29 @@
         <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.btnSeleccionar</v>
+        <v>RegistroDestinoController.lblDescripcion</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E112" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.btnSeleccionar=SELECCIONAR</v>
+        <v>RegistroDestinoController.lblDescripcion=Descripcion:</v>
       </c>
       <c r="G112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.btnSeleccionar=SELECT</v>
+        <v>RegistroDestinoController.lblDescripcion=Description:</v>
       </c>
       <c r="H112" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.btnSeleccionar")</v>
+        <v>bundle.getString("RegistroDestinoController.lblDescripcion")</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="7"/>
@@ -6263,11 +6302,11 @@
       </c>
       <c r="J112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnSeleccionar.setText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
+        <v>lblDescripcion.setText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
       </c>
       <c r="K112" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnSeleccionar.setPromptText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
+        <v>lblDescripcion.setPromptText(bundle.getString("RegistroDestinoController.lblDescripcion"));</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -6275,29 +6314,29 @@
         <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroDestinoController.btnAgregar</v>
+        <v>RegistroDestinoController.txtDescripcion</v>
       </c>
       <c r="D113" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="F113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroDestinoController.btnAgregar=AGREGAR</v>
+        <v>RegistroDestinoController.txtDescripcion=Ingrese la descripcion</v>
       </c>
       <c r="G113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroDestinoController.btnAgregar=ADD</v>
+        <v>RegistroDestinoController.txtDescripcion=Enter description</v>
       </c>
       <c r="H113" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroDestinoController.btnAgregar")</v>
+        <v>bundle.getString("RegistroDestinoController.txtDescripcion")</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="7"/>
@@ -6305,41 +6344,41 @@
       </c>
       <c r="J113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnAgregar.setText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
+        <v>txtDescripcion.setText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
       </c>
       <c r="K113" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnAgregar.setPromptText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
+        <v>txtDescripcion.setPromptText(bundle.getString("RegistroDestinoController.txtDescripcion"));</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblTitle</v>
+        <v>RegistroDestinoController.lblClima</v>
       </c>
       <c r="D114" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="E114" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="F114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblTitle=REGISTRO DE GUIA TURISTICO</v>
+        <v>RegistroDestinoController.lblClima=Clima:</v>
       </c>
       <c r="G114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblTitle=TOUR GUIDE REGISTRATION</v>
+        <v>RegistroDestinoController.lblClima=Weather:</v>
       </c>
       <c r="H114" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblTitle")</v>
+        <v>bundle.getString("RegistroDestinoController.lblClima")</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="7"/>
@@ -6347,41 +6386,41 @@
       </c>
       <c r="J114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
+        <v>lblClima.setText(bundle.getString("RegistroDestinoController.lblClima"));</v>
       </c>
       <c r="K114" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
+        <v>lblClima.setPromptText(bundle.getString("RegistroDestinoController.lblClima"));</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblIdentificacion</v>
+        <v>RegistroDestinoController.cbClima</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E115" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblIdentificacion=Identificacion:</v>
+        <v>RegistroDestinoController.cbClima=Seleccionar</v>
       </c>
       <c r="G115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblIdentificacion=Your ID:</v>
+        <v>RegistroDestinoController.cbClima=Select</v>
       </c>
       <c r="H115" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblIdentificacion")</v>
+        <v>bundle.getString("RegistroDestinoController.cbClima")</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="7"/>
@@ -6389,41 +6428,41 @@
       </c>
       <c r="J115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblIdentificacion.setText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
+        <v>cbClima.setText(bundle.getString("RegistroDestinoController.cbClima"));</v>
       </c>
       <c r="K115" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
+        <v>cbClima.setPromptText(bundle.getString("RegistroDestinoController.cbClima"));</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.txtIdentificacion</v>
+        <v>RegistroDestinoController.lblSeleccionarImagen</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E116" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.txtIdentificacion=Ingrese su identificacion</v>
+        <v>RegistroDestinoController.lblSeleccionarImagen=Seleccionar imagenes</v>
       </c>
       <c r="G116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtIdentificacion=Enter your ID</v>
+        <v>RegistroDestinoController.lblSeleccionarImagen=Select images</v>
       </c>
       <c r="H116" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.txtIdentificacion")</v>
+        <v>bundle.getString("RegistroDestinoController.lblSeleccionarImagen")</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="7"/>
@@ -6431,41 +6470,41 @@
       </c>
       <c r="J116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
+        <v>lblSeleccionarImagen.setText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
       </c>
       <c r="K116" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
+        <v>lblSeleccionarImagen.setPromptText(bundle.getString("RegistroDestinoController.lblSeleccionarImagen"));</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblNombre</v>
+        <v>RegistroDestinoController.btnSeleccionar</v>
       </c>
       <c r="D117" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E117" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblNombre=Nombre completo:</v>
+        <v>RegistroDestinoController.btnSeleccionar=SELECCIONAR</v>
       </c>
       <c r="G117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblNombre=Full Name:</v>
+        <v>RegistroDestinoController.btnSeleccionar=SELECT</v>
       </c>
       <c r="H117" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblNombre")</v>
+        <v>bundle.getString("RegistroDestinoController.btnSeleccionar")</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="7"/>
@@ -6473,41 +6512,41 @@
       </c>
       <c r="J117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
+        <v>btnSeleccionar.setText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
       </c>
       <c r="K117" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setPromptText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
+        <v>btnSeleccionar.setPromptText(bundle.getString("RegistroDestinoController.btnSeleccionar"));</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.txtNombre</v>
+        <v>RegistroDestinoController.btnAgregar</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="F118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.txtNombre=Ingrese su nombre</v>
+        <v>RegistroDestinoController.btnAgregar=AGREGAR</v>
       </c>
       <c r="G118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtNombre=Enter your name</v>
+        <v>RegistroDestinoController.btnAgregar=ADD</v>
       </c>
       <c r="H118" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.txtNombre")</v>
+        <v>bundle.getString("RegistroDestinoController.btnAgregar")</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="7"/>
@@ -6515,11 +6554,11 @@
       </c>
       <c r="J118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
+        <v>btnAgregar.setText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
       </c>
       <c r="K118" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setPromptText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
+        <v>btnAgregar.setPromptText(bundle.getString("RegistroDestinoController.btnAgregar"));</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -6527,29 +6566,29 @@
         <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblHoras</v>
+        <v>RegistroGuiaController.lblTitle</v>
       </c>
       <c r="D119" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblHoras=Horas de experiencia:</v>
+        <v>RegistroGuiaController.lblTitle=REGISTRO DE GUIA TURISTICO</v>
       </c>
       <c r="G119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblHoras=Hours of experience:</v>
+        <v>RegistroGuiaController.lblTitle=TOUR GUIDE REGISTRATION</v>
       </c>
       <c r="H119" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblHoras")</v>
+        <v>bundle.getString("RegistroGuiaController.lblTitle")</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="7"/>
@@ -6557,11 +6596,11 @@
       </c>
       <c r="J119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblHoras.setText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
+        <v>lblTitle.setText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
       </c>
       <c r="K119" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblHoras.setPromptText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
+        <v>lblTitle.setPromptText(bundle.getString("RegistroGuiaController.lblTitle"));</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -6569,29 +6608,29 @@
         <v>179</v>
       </c>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.txtHoras</v>
+        <v>RegistroGuiaController.lblIdentificacion</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.txtHoras=Ingrese la experiencia en horas</v>
+        <v>RegistroGuiaController.lblIdentificacion=Identificacion:</v>
       </c>
       <c r="G120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.txtHoras=Enter experience in hours</v>
+        <v>RegistroGuiaController.lblIdentificacion=Your ID:</v>
       </c>
       <c r="H120" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.txtHoras")</v>
+        <v>bundle.getString("RegistroGuiaController.lblIdentificacion")</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="7"/>
@@ -6599,11 +6638,11 @@
       </c>
       <c r="J120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtHoras.setText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
+        <v>lblIdentificacion.setText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
       </c>
       <c r="K120" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtHoras.setPromptText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
+        <v>lblIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.lblIdentificacion"));</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -6611,29 +6650,29 @@
         <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblImagen</v>
+        <v>RegistroGuiaController.txtIdentificacion</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblImagen=Imagen:</v>
+        <v>RegistroGuiaController.txtIdentificacion=Ingrese su identificacion</v>
       </c>
       <c r="G121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblImagen=Image:</v>
+        <v>RegistroGuiaController.txtIdentificacion=Enter your ID</v>
       </c>
       <c r="H121" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblImagen")</v>
+        <v>bundle.getString("RegistroGuiaController.txtIdentificacion")</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="7"/>
@@ -6641,11 +6680,11 @@
       </c>
       <c r="J121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblImagen.setText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
+        <v>txtIdentificacion.setText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
       </c>
       <c r="K121" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblImagen.setPromptText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
+        <v>txtIdentificacion.setPromptText(bundle.getString("RegistroGuiaController.txtIdentificacion"));</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -6653,29 +6692,29 @@
         <v>179</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.btnImagen</v>
+        <v>RegistroGuiaController.lblNombre</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E122" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.btnImagen=Seleccionar imagen</v>
+        <v>RegistroGuiaController.lblNombre=Nombre completo:</v>
       </c>
       <c r="G122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.btnImagen=Select image</v>
+        <v>RegistroGuiaController.lblNombre=Full Name:</v>
       </c>
       <c r="H122" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.btnImagen")</v>
+        <v>bundle.getString("RegistroGuiaController.lblNombre")</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="7"/>
@@ -6683,11 +6722,11 @@
       </c>
       <c r="J122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnImagen.setText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
+        <v>lblNombre.setText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
       </c>
       <c r="K122" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnImagen.setPromptText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
+        <v>lblNombre.setPromptText(bundle.getString("RegistroGuiaController.lblNombre"));</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -6695,29 +6734,29 @@
         <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.lblImagenSeleccionada</v>
+        <v>RegistroGuiaController.txtNombre</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E123" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.lblImagenSeleccionada=Imagen seleccionada:</v>
+        <v>RegistroGuiaController.txtNombre=Ingrese su nombre</v>
       </c>
       <c r="G123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.lblImagenSeleccionada=Selected image:</v>
+        <v>RegistroGuiaController.txtNombre=Enter your name</v>
       </c>
       <c r="H123" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.lblImagenSeleccionada")</v>
+        <v>bundle.getString("RegistroGuiaController.txtNombre")</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="7"/>
@@ -6725,11 +6764,11 @@
       </c>
       <c r="J123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblImagenSeleccionada.setText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
+        <v>txtNombre.setText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
       </c>
       <c r="K123" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblImagenSeleccionada.setPromptText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
+        <v>txtNombre.setPromptText(bundle.getString("RegistroGuiaController.txtNombre"));</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -6737,29 +6776,29 @@
         <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroGuiaController.btnRegistrar</v>
+        <v>RegistroGuiaController.lblHoras</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E124" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroGuiaController.btnRegistrar=REGISTRAR</v>
+        <v>RegistroGuiaController.lblHoras=Horas de experiencia:</v>
       </c>
       <c r="G124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroGuiaController.btnRegistrar=REGISTER</v>
+        <v>RegistroGuiaController.lblHoras=Hours of experience:</v>
       </c>
       <c r="H124" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroGuiaController.btnRegistrar")</v>
+        <v>bundle.getString("RegistroGuiaController.lblHoras")</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="7"/>
@@ -6767,41 +6806,41 @@
       </c>
       <c r="J124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnRegistrar.setText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
+        <v>lblHoras.setText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
       </c>
       <c r="K124" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnRegistrar.setPromptText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
+        <v>lblHoras.setPromptText(bundle.getString("RegistroGuiaController.lblHoras"));</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.lblTitulo</v>
+        <v>RegistroGuiaController.txtHoras</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E125" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblTitulo=REGISTRO DE PAQUETES</v>
+        <v>RegistroGuiaController.txtHoras=Ingrese la experiencia en horas</v>
       </c>
       <c r="G125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblTitulo=PACKAGE REGISTRATION</v>
+        <v>RegistroGuiaController.txtHoras=Enter experience in hours</v>
       </c>
       <c r="H125" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblTitulo")</v>
+        <v>bundle.getString("RegistroGuiaController.txtHoras")</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="7"/>
@@ -6809,41 +6848,41 @@
       </c>
       <c r="J125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitulo.setText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
+        <v>txtHoras.setText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
       </c>
       <c r="K125" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitulo.setPromptText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
+        <v>txtHoras.setPromptText(bundle.getString("RegistroGuiaController.txtHoras"));</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.lblNombre</v>
+        <v>RegistroGuiaController.lblImagen</v>
       </c>
       <c r="D126" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E126" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblNombre=Nombre:</v>
+        <v>RegistroGuiaController.lblImagen=Imagen:</v>
       </c>
       <c r="G126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblNombre=Name:</v>
+        <v>RegistroGuiaController.lblImagen=Image:</v>
       </c>
       <c r="H126" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblNombre")</v>
+        <v>bundle.getString("RegistroGuiaController.lblImagen")</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="7"/>
@@ -6851,41 +6890,41 @@
       </c>
       <c r="J126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
+        <v>lblImagen.setText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
       </c>
       <c r="K126" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblNombre.setPromptText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
+        <v>lblImagen.setPromptText(bundle.getString("RegistroGuiaController.lblImagen"));</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.txtNombre</v>
+        <v>RegistroGuiaController.btnImagen</v>
       </c>
       <c r="D127" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E127" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.txtNombre=Ingrese el nombre</v>
+        <v>RegistroGuiaController.btnImagen=Seleccionar imagen</v>
       </c>
       <c r="G127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtNombre=Enter name</v>
+        <v>RegistroGuiaController.btnImagen=Select image</v>
       </c>
       <c r="H127" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.txtNombre")</v>
+        <v>bundle.getString("RegistroGuiaController.btnImagen")</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="7"/>
@@ -6893,41 +6932,41 @@
       </c>
       <c r="J127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
+        <v>btnImagen.setText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
       </c>
       <c r="K127" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtNombre.setPromptText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
+        <v>btnImagen.setPromptText(bundle.getString("RegistroGuiaController.btnImagen"));</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.lblDuracion</v>
+        <v>RegistroGuiaController.lblImagenSeleccionada</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E128" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblDuracion=Duracion en dias:</v>
+        <v>RegistroGuiaController.lblImagenSeleccionada=Imagen seleccionada:</v>
       </c>
       <c r="G128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblDuracion=Duration in days:</v>
+        <v>RegistroGuiaController.lblImagenSeleccionada=Selected image:</v>
       </c>
       <c r="H128" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblDuracion")</v>
+        <v>bundle.getString("RegistroGuiaController.lblImagenSeleccionada")</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="7"/>
@@ -6935,41 +6974,41 @@
       </c>
       <c r="J128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDuracion.setText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
+        <v>lblImagenSeleccionada.setText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
       </c>
       <c r="K128" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDuracion.setPromptText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
+        <v>lblImagenSeleccionada.setPromptText(bundle.getString("RegistroGuiaController.lblImagenSeleccionada"));</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.txtDuracion</v>
+        <v>RegistroGuiaController.btnRegistrar</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E129" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.txtDuracion=Ingrese la duracion del paquete</v>
+        <v>RegistroGuiaController.btnRegistrar=REGISTRAR</v>
       </c>
       <c r="G129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtDuracion=Enter the duration of the package</v>
+        <v>RegistroGuiaController.btnRegistrar=REGISTER</v>
       </c>
       <c r="H129" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.txtDuracion")</v>
+        <v>bundle.getString("RegistroGuiaController.btnRegistrar")</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="7"/>
@@ -6977,11 +7016,11 @@
       </c>
       <c r="J129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDuracion.setText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
+        <v>btnRegistrar.setText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
       </c>
       <c r="K129" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtDuracion.setPromptText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
+        <v>btnRegistrar.setPromptText(bundle.getString("RegistroGuiaController.btnRegistrar"));</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -6989,29 +7028,29 @@
         <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="6"/>
-        <v>RegistroPaquetesController.lblServicios</v>
+        <v>RegistroPaquetesController.lblTitulo</v>
       </c>
       <c r="D130" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E130" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblServicios=Servicios adicionales:</v>
+        <v>RegistroPaquetesController.lblTitulo=REGISTRO DE PAQUETES</v>
       </c>
       <c r="G130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblServicios=Additional services:</v>
+        <v>RegistroPaquetesController.lblTitulo=PACKAGE REGISTRATION</v>
       </c>
       <c r="H130" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblServicios")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblTitulo")</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="7"/>
@@ -7019,11 +7058,11 @@
       </c>
       <c r="J130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblServicios.setText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
+        <v>lblTitulo.setText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
       </c>
       <c r="K130" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblServicios.setPromptText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
+        <v>lblTitulo.setPromptText(bundle.getString("RegistroPaquetesController.lblTitulo"));</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -7031,29 +7070,29 @@
         <v>229</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C157" si="8">CONCATENATE(A131,".",B131)</f>
-        <v>RegistroPaquetesController.txtServicios</v>
+        <f t="shared" si="6"/>
+        <v>RegistroPaquetesController.lblNombre</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E131" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="F131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.txtServicios=Ingrese los servicios adicionales</v>
+        <v>RegistroPaquetesController.lblNombre=Nombre:</v>
       </c>
       <c r="G131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtServicios=Enter the additional services</v>
+        <v>RegistroPaquetesController.lblNombre=Name:</v>
       </c>
       <c r="H131" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.txtServicios")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblNombre")</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="7"/>
@@ -7061,11 +7100,11 @@
       </c>
       <c r="J131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtServicios.setText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
+        <v>lblNombre.setText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
       </c>
       <c r="K131" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtServicios.setPromptText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
+        <v>lblNombre.setPromptText(bundle.getString("RegistroPaquetesController.lblNombre"));</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -7073,29 +7112,29 @@
         <v>229</v>
       </c>
       <c r="B132" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.lblPrecio</v>
+        <f t="shared" si="6"/>
+        <v>RegistroPaquetesController.txtNombre</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E132" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="F132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblPrecio=Precio:</v>
+        <v>RegistroPaquetesController.txtNombre=Ingrese el nombre</v>
       </c>
       <c r="G132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblPrecio=Price in days:</v>
+        <v>RegistroPaquetesController.txtNombre=Enter name</v>
       </c>
       <c r="H132" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblPrecio")</v>
+        <v>bundle.getString("RegistroPaquetesController.txtNombre")</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="7"/>
@@ -7103,11 +7142,11 @@
       </c>
       <c r="J132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
+        <v>txtNombre.setText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
       </c>
       <c r="K132" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblPrecio.setPromptText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
+        <v>txtNombre.setPromptText(bundle.getString("RegistroPaquetesController.txtNombre"));</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -7115,41 +7154,41 @@
         <v>229</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.txtPrecio</v>
+        <f t="shared" si="6"/>
+        <v>RegistroPaquetesController.lblDuracion</v>
       </c>
       <c r="D133" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E133" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.txtPrecio=Digite el precio</v>
+        <v>RegistroPaquetesController.lblDuracion=Duracion en dias:</v>
       </c>
       <c r="G133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtPrecio=Enter the price</v>
+        <v>RegistroPaquetesController.lblDuracion=Duration in days:</v>
       </c>
       <c r="H133" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.txtPrecio")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblDuracion")</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" ref="I133:I157" si="9">""""</f>
+        <f t="shared" si="7"/>
         <v>"</v>
       </c>
       <c r="J133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPrecio.setText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
+        <v>lblDuracion.setText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
       </c>
       <c r="K133" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtPrecio.setPromptText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
+        <v>lblDuracion.setPromptText(bundle.getString("RegistroPaquetesController.lblDuracion"));</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -7157,41 +7196,41 @@
         <v>229</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.lblCupo</v>
+        <f t="shared" si="6"/>
+        <v>RegistroPaquetesController.txtDuracion</v>
       </c>
       <c r="D134" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E134" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblCupo=Cupo maximo:</v>
+        <v>RegistroPaquetesController.txtDuracion=Ingrese la duracion del paquete</v>
       </c>
       <c r="G134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblCupo=Maximum quota:</v>
+        <v>RegistroPaquetesController.txtDuracion=Enter the duration of the package</v>
       </c>
       <c r="H134" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblCupo")</v>
+        <v>bundle.getString("RegistroPaquetesController.txtDuracion")</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>"</v>
       </c>
       <c r="J134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblCupo.setText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
+        <v>txtDuracion.setText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
       </c>
       <c r="K134" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblCupo.setPromptText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
+        <v>txtDuracion.setPromptText(bundle.getString("RegistroPaquetesController.txtDuracion"));</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -7199,41 +7238,41 @@
         <v>229</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.txtCupo</v>
+        <f t="shared" si="6"/>
+        <v>RegistroPaquetesController.lblServicios</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E135" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.txtCupo=Digite el cupo maximo</v>
+        <v>RegistroPaquetesController.lblServicios=Servicios adicionales:</v>
       </c>
       <c r="G135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.txtCupo=Enter the maximum quota</v>
+        <v>RegistroPaquetesController.lblServicios=Additional services:</v>
       </c>
       <c r="H135" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.txtCupo")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblServicios")</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>"</v>
       </c>
       <c r="J135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtCupo.setText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
+        <v>lblServicios.setText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
       </c>
       <c r="K135" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtCupo.setPromptText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
+        <v>lblServicios.setPromptText(bundle.getString("RegistroPaquetesController.lblServicios"));</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7241,41 +7280,41 @@
         <v>229</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.lblFechaInicio</v>
+        <f t="shared" ref="C136:C162" si="8">CONCATENATE(A136,".",B136)</f>
+        <v>RegistroPaquetesController.txtServicios</v>
       </c>
       <c r="D136" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblFechaInicio=Fecha inicio:</v>
+        <v>RegistroPaquetesController.txtServicios=Ingrese los servicios adicionales</v>
       </c>
       <c r="G136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblFechaInicio=Start date:</v>
+        <v>RegistroPaquetesController.txtServicios=Enter the additional services</v>
       </c>
       <c r="H136" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblFechaInicio")</v>
+        <v>bundle.getString("RegistroPaquetesController.txtServicios")</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>"</v>
       </c>
       <c r="J136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaInicio.setText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
+        <v>txtServicios.setText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
       </c>
       <c r="K136" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaInicio.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
+        <v>txtServicios.setPromptText(bundle.getString("RegistroPaquetesController.txtServicios"));</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -7283,41 +7322,41 @@
         <v>229</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.dpInicio</v>
+        <v>RegistroPaquetesController.lblPrecio</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E137" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.dpInicio=Ingrese la fecha de inicio del paquete</v>
+        <v>RegistroPaquetesController.lblPrecio=Precio:</v>
       </c>
       <c r="G137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.dpInicio=Enter the start date of the package</v>
+        <v>RegistroPaquetesController.lblPrecio=Price in days:</v>
       </c>
       <c r="H137" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.dpInicio")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblPrecio")</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>"</v>
       </c>
       <c r="J137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>dpInicio.setText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
+        <v>lblPrecio.setText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
       </c>
       <c r="K137" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>dpInicio.setPromptText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
+        <v>lblPrecio.setPromptText(bundle.getString("RegistroPaquetesController.lblPrecio"));</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -7325,41 +7364,41 @@
         <v>229</v>
       </c>
       <c r="B138" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.lblFechaFin</v>
+        <v>RegistroPaquetesController.txtPrecio</v>
       </c>
       <c r="D138" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E138" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblFechaFin=Fecha fin:</v>
+        <v>RegistroPaquetesController.txtPrecio=Digite el precio</v>
       </c>
       <c r="G138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblFechaFin=End date:</v>
+        <v>RegistroPaquetesController.txtPrecio=Enter the price</v>
       </c>
       <c r="H138" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblFechaFin")</v>
+        <v>bundle.getString("RegistroPaquetesController.txtPrecio")</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I138:I162" si="9">""""</f>
         <v>"</v>
       </c>
       <c r="J138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaFin.setText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
+        <v>txtPrecio.setText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
       </c>
       <c r="K138" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblFechaFin.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
+        <v>txtPrecio.setPromptText(bundle.getString("RegistroPaquetesController.txtPrecio"));</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -7367,29 +7406,29 @@
         <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.dpFin</v>
+        <v>RegistroPaquetesController.lblCupo</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E139" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.dpFin=Ingrese la fecha de finalizacion del paquete</v>
+        <v>RegistroPaquetesController.lblCupo=Cupo maximo:</v>
       </c>
       <c r="G139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.dpFin=Enter the end date of the package</v>
+        <v>RegistroPaquetesController.lblCupo=Maximum quota:</v>
       </c>
       <c r="H139" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.dpFin")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblCupo")</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="9"/>
@@ -7397,11 +7436,11 @@
       </c>
       <c r="J139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>dpFin.setText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
+        <v>lblCupo.setText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
       </c>
       <c r="K139" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>dpFin.setPromptText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
+        <v>lblCupo.setPromptText(bundle.getString("RegistroPaquetesController.lblCupo"));</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -7409,29 +7448,29 @@
         <v>229</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.lblSeleccionar</v>
+        <v>RegistroPaquetesController.txtCupo</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.lblSeleccionar=Seleccione los destinos que va a contener el paquete</v>
+        <v>RegistroPaquetesController.txtCupo=Digite el cupo maximo</v>
       </c>
       <c r="G140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.lblSeleccionar=Select the destinations that the package will contain</v>
+        <v>RegistroPaquetesController.txtCupo=Enter the maximum quota</v>
       </c>
       <c r="H140" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.lblSeleccionar")</v>
+        <v>bundle.getString("RegistroPaquetesController.txtCupo")</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="9"/>
@@ -7439,11 +7478,11 @@
       </c>
       <c r="J140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSeleccionar.setText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
+        <v>txtCupo.setText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
       </c>
       <c r="K140" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblSeleccionar.setPromptText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
+        <v>txtCupo.setPromptText(bundle.getString("RegistroPaquetesController.txtCupo"));</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -7451,29 +7490,29 @@
         <v>229</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colId</v>
+        <v>RegistroPaquetesController.lblFechaInicio</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="F141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colId=ID</v>
+        <v>RegistroPaquetesController.lblFechaInicio=Fecha inicio:</v>
       </c>
       <c r="G141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colId=ID</v>
+        <v>RegistroPaquetesController.lblFechaInicio=Start date:</v>
       </c>
       <c r="H141" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colId")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblFechaInicio")</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="9"/>
@@ -7481,11 +7520,11 @@
       </c>
       <c r="J141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colId.setText(bundle.getString("RegistroPaquetesController.colId"));</v>
+        <v>lblFechaInicio.setText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
       </c>
       <c r="K141" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colId.setPromptText(bundle.getString("RegistroPaquetesController.colId"));</v>
+        <v>lblFechaInicio.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaInicio"));</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -7493,29 +7532,29 @@
         <v>229</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colNombre</v>
+        <v>RegistroPaquetesController.dpInicio</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E142" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colNombre=NOMBRE</v>
+        <v>RegistroPaquetesController.dpInicio=Ingrese la fecha de inicio del paquete</v>
       </c>
       <c r="G142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colNombre=NAME</v>
+        <v>RegistroPaquetesController.dpInicio=Enter the start date of the package</v>
       </c>
       <c r="H142" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colNombre")</v>
+        <v>bundle.getString("RegistroPaquetesController.dpInicio")</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="9"/>
@@ -7523,11 +7562,11 @@
       </c>
       <c r="J142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombre.setText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
+        <v>dpInicio.setText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
       </c>
       <c r="K142" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombre.setPromptText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
+        <v>dpInicio.setPromptText(bundle.getString("RegistroPaquetesController.dpInicio"));</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -7535,29 +7574,29 @@
         <v>229</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colCiudad</v>
+        <v>RegistroPaquetesController.lblFechaFin</v>
       </c>
       <c r="D143" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E143" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colCiudad=CIUDAD</v>
+        <v>RegistroPaquetesController.lblFechaFin=Fecha fin:</v>
       </c>
       <c r="G143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colCiudad=CITY</v>
+        <v>RegistroPaquetesController.lblFechaFin=End date:</v>
       </c>
       <c r="H143" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colCiudad")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblFechaFin")</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="9"/>
@@ -7565,11 +7604,11 @@
       </c>
       <c r="J143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colCiudad.setText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
+        <v>lblFechaFin.setText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
       </c>
       <c r="K143" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colCiudad.setPromptText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
+        <v>lblFechaFin.setPromptText(bundle.getString("RegistroPaquetesController.lblFechaFin"));</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -7577,29 +7616,29 @@
         <v>229</v>
       </c>
       <c r="B144" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colDescripcion</v>
+        <v>RegistroPaquetesController.dpFin</v>
       </c>
       <c r="D144" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E144" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colDescripcion=DESCRIPCION</v>
+        <v>RegistroPaquetesController.dpFin=Ingrese la fecha de finalizacion del paquete</v>
       </c>
       <c r="G144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colDescripcion=DESCRIPTION</v>
+        <v>RegistroPaquetesController.dpFin=Enter the end date of the package</v>
       </c>
       <c r="H144" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colDescripcion")</v>
+        <v>bundle.getString("RegistroPaquetesController.dpFin")</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="9"/>
@@ -7607,11 +7646,11 @@
       </c>
       <c r="J144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colDescripcion.setText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
+        <v>dpFin.setText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
       </c>
       <c r="K144" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colDescripcion.setPromptText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
+        <v>dpFin.setPromptText(bundle.getString("RegistroPaquetesController.dpFin"));</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -7619,29 +7658,29 @@
         <v>229</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colClima</v>
+        <v>RegistroPaquetesController.lblSeleccionar</v>
       </c>
       <c r="D145" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colClima=CLIMA</v>
+        <v>RegistroPaquetesController.lblSeleccionar=Seleccione los destinos que va a contener el paquete</v>
       </c>
       <c r="G145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colClima=WEATHER</v>
+        <v>RegistroPaquetesController.lblSeleccionar=Select the Landings that the package will contain</v>
       </c>
       <c r="H145" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colClima")</v>
+        <v>bundle.getString("RegistroPaquetesController.lblSeleccionar")</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="9"/>
@@ -7649,11 +7688,11 @@
       </c>
       <c r="J145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colClima.setText(bundle.getString("RegistroPaquetesController.colClima"));</v>
+        <v>lblSeleccionar.setText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
       </c>
       <c r="K145" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colClima.setPromptText(bundle.getString("RegistroPaquetesController.colClima"));</v>
+        <v>lblSeleccionar.setPromptText(bundle.getString("RegistroPaquetesController.lblSeleccionar"));</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -7661,11 +7700,11 @@
         <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colIdSelect</v>
+        <v>RegistroPaquetesController.colId</v>
       </c>
       <c r="D146" t="s">
         <v>32</v>
@@ -7675,15 +7714,15 @@
       </c>
       <c r="F146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colIdSelect=ID</v>
+        <v>RegistroPaquetesController.colId=ID</v>
       </c>
       <c r="G146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colIdSelect=ID</v>
+        <v>RegistroPaquetesController.colId=ID</v>
       </c>
       <c r="H146" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colIdSelect")</v>
+        <v>bundle.getString("RegistroPaquetesController.colId")</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="9"/>
@@ -7691,11 +7730,11 @@
       </c>
       <c r="J146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdSelect.setText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
+        <v>colId.setText(bundle.getString("RegistroPaquetesController.colId"));</v>
       </c>
       <c r="K146" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdSelect.setPromptText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
+        <v>colId.setPromptText(bundle.getString("RegistroPaquetesController.colId"));</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -7703,29 +7742,29 @@
         <v>229</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="8"/>
-        <v>RegistroPaquetesController.colNombreSelect</v>
+        <v>RegistroPaquetesController.colNombre</v>
       </c>
       <c r="D147" t="s">
         <v>211</v>
       </c>
       <c r="E147" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>RegistroPaquetesController.colNombreSelect=NOMBRE</v>
+        <v>RegistroPaquetesController.colNombre=NOMBRE</v>
       </c>
       <c r="G147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>RegistroPaquetesController.colNombreSelect=NAME</v>
+        <v>RegistroPaquetesController.colNombre=NAME</v>
       </c>
       <c r="H147" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("RegistroPaquetesController.colNombreSelect")</v>
+        <v>bundle.getString("RegistroPaquetesController.colNombre")</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="9"/>
@@ -7733,41 +7772,41 @@
       </c>
       <c r="J147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombreSelect.setText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
+        <v>colNombre.setText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
       </c>
       <c r="K147" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombreSelect.setPromptText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
+        <v>colNombre.setPromptText(bundle.getString("RegistroPaquetesController.colNombre"));</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.lblTitle</v>
+        <v>RegistroPaquetesController.colCiudad</v>
       </c>
       <c r="D148" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E148" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.lblTitle=GESTIONAR SOLICITUDES GUIAS</v>
+        <v>RegistroPaquetesController.colCiudad=CIUDAD</v>
       </c>
       <c r="G148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.lblTitle=MANAGE GUIDE REQUESTS</v>
+        <v>RegistroPaquetesController.colCiudad=CITY</v>
       </c>
       <c r="H148" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.lblTitle")</v>
+        <v>bundle.getString("RegistroPaquetesController.colCiudad")</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="9"/>
@@ -7775,41 +7814,41 @@
       </c>
       <c r="J148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
+        <v>colCiudad.setText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
       </c>
       <c r="K148" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
+        <v>colCiudad.setPromptText(bundle.getString("RegistroPaquetesController.colCiudad"));</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.txtBuscar</v>
+        <v>RegistroPaquetesController.colDescripcion</v>
       </c>
       <c r="D149" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="F149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.txtBuscar=Buscar</v>
+        <v>RegistroPaquetesController.colDescripcion=DESCRIPCION</v>
       </c>
       <c r="G149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.txtBuscar=Search</v>
+        <v>RegistroPaquetesController.colDescripcion=DESCRIPTION</v>
       </c>
       <c r="H149" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.txtBuscar")</v>
+        <v>bundle.getString("RegistroPaquetesController.colDescripcion")</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="9"/>
@@ -7817,41 +7856,41 @@
       </c>
       <c r="J149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtBuscar.setText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
+        <v>colDescripcion.setText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
       </c>
       <c r="K149" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>txtBuscar.setPromptText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
+        <v>colDescripcion.setPromptText(bundle.getString("RegistroPaquetesController.colDescripcion"));</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.colNombre</v>
+        <v>RegistroPaquetesController.colClima</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="F150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.colNombre=Nombre</v>
+        <v>RegistroPaquetesController.colClima=CLIMA</v>
       </c>
       <c r="G150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colNombre=Name</v>
+        <v>RegistroPaquetesController.colClima=WEATHER</v>
       </c>
       <c r="H150" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.colNombre")</v>
+        <v>bundle.getString("RegistroPaquetesController.colClima")</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="9"/>
@@ -7859,41 +7898,41 @@
       </c>
       <c r="J150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombre.setText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
+        <v>colClima.setText(bundle.getString("RegistroPaquetesController.colClima"));</v>
       </c>
       <c r="K150" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colNombre.setPromptText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
+        <v>colClima.setPromptText(bundle.getString("RegistroPaquetesController.colClima"));</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.colIdentificacion</v>
+        <v>RegistroPaquetesController.colIdSelect</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E151" t="s">
         <v>32</v>
       </c>
       <c r="F151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.colIdentificacion=Identificacion</v>
+        <v>RegistroPaquetesController.colIdSelect=ID</v>
       </c>
       <c r="G151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colIdentificacion=ID</v>
+        <v>RegistroPaquetesController.colIdSelect=ID</v>
       </c>
       <c r="H151" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.colIdentificacion")</v>
+        <v>bundle.getString("RegistroPaquetesController.colIdSelect")</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="9"/>
@@ -7901,41 +7940,41 @@
       </c>
       <c r="J151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdentificacion.setText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
+        <v>colIdSelect.setText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
       </c>
       <c r="K151" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdentificacion.setPromptText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
+        <v>colIdSelect.setPromptText(bundle.getString("RegistroPaquetesController.colIdSelect"));</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.colHorasExperiencia</v>
+        <v>RegistroPaquetesController.colNombreSelect</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="F152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.colHorasExperiencia=Horas de experiencia</v>
+        <v>RegistroPaquetesController.colNombreSelect=NOMBRE</v>
       </c>
       <c r="G152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colHorasExperiencia=Hours of experience</v>
+        <v>RegistroPaquetesController.colNombreSelect=NAME</v>
       </c>
       <c r="H152" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.colHorasExperiencia")</v>
+        <v>bundle.getString("RegistroPaquetesController.colNombreSelect")</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="9"/>
@@ -7943,11 +7982,11 @@
       </c>
       <c r="J152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colHorasExperiencia.setText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
+        <v>colNombreSelect.setText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
       </c>
       <c r="K152" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colHorasExperiencia.setPromptText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
+        <v>colNombreSelect.setPromptText(bundle.getString("RegistroPaquetesController.colNombreSelect"));</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -7955,29 +7994,29 @@
         <v>235</v>
       </c>
       <c r="B153" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.colIdiomas</v>
+        <v>SolicitudGuiaController.lblTitle</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="E153" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="F153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.colIdiomas=Idiomas</v>
+        <v>SolicitudGuiaController.lblTitle=GESTIONAR SOLICITUDES GUIAS</v>
       </c>
       <c r="G153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.colIdiomas=Languages</v>
+        <v>SolicitudGuiaController.lblTitle=MANAGE GUIDE REQUESTS</v>
       </c>
       <c r="H153" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.colIdiomas")</v>
+        <v>bundle.getString("SolicitudGuiaController.lblTitle")</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="9"/>
@@ -7985,11 +8024,11 @@
       </c>
       <c r="J153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdiomas.setText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
+        <v>lblTitle.setText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
       </c>
       <c r="K153" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>colIdiomas.setPromptText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
+        <v>lblTitle.setPromptText(bundle.getString("SolicitudGuiaController.lblTitle"));</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -7997,29 +8036,29 @@
         <v>235</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.btnAceptar</v>
+        <v>SolicitudGuiaController.txtBuscar</v>
       </c>
       <c r="D154" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="E154" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
       <c r="F154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.btnAceptar=ACEPTAR</v>
+        <v>SolicitudGuiaController.txtBuscar=Buscar</v>
       </c>
       <c r="G154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.btnAceptar=ACCEPT</v>
+        <v>SolicitudGuiaController.txtBuscar=Search</v>
       </c>
       <c r="H154" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.btnAceptar")</v>
+        <v>bundle.getString("SolicitudGuiaController.txtBuscar")</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="9"/>
@@ -8027,11 +8066,11 @@
       </c>
       <c r="J154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnAceptar.setText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
+        <v>txtBuscar.setText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
       </c>
       <c r="K154" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnAceptar.setPromptText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
+        <v>txtBuscar.setPromptText(bundle.getString("SolicitudGuiaController.txtBuscar"));</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -8039,29 +8078,29 @@
         <v>235</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="8"/>
-        <v>SolicitudGuiaController.btnDenegar</v>
+        <v>SolicitudGuiaController.colNombre</v>
       </c>
       <c r="D155" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="F155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>SolicitudGuiaController.btnDenegar=DENEGAR</v>
+        <v>SolicitudGuiaController.colNombre=Nombre</v>
       </c>
       <c r="G155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>SolicitudGuiaController.btnDenegar=DENY</v>
+        <v>SolicitudGuiaController.colNombre=Name</v>
       </c>
       <c r="H155" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("SolicitudGuiaController.btnDenegar")</v>
+        <v>bundle.getString("SolicitudGuiaController.colNombre")</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="9"/>
@@ -8069,41 +8108,41 @@
       </c>
       <c r="J155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnDenegar.setText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
+        <v>colNombre.setText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
       </c>
       <c r="K155" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>btnDenegar.setPromptText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
+        <v>colNombre.setPromptText(bundle.getString("SolicitudGuiaController.colNombre"));</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="8"/>
-        <v>ViewDestinosController.lblTitle</v>
+        <v>SolicitudGuiaController.colIdentificacion</v>
       </c>
       <c r="D156" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="F156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ViewDestinosController.lblTitle=Destinos</v>
+        <v>SolicitudGuiaController.colIdentificacion=Identificacion</v>
       </c>
       <c r="G156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ViewDestinosController.lblTitle=Destinations</v>
+        <v>SolicitudGuiaController.colIdentificacion=ID</v>
       </c>
       <c r="H156" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ViewDestinosController.lblTitle")</v>
+        <v>bundle.getString("SolicitudGuiaController.colIdentificacion")</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="9"/>
@@ -8111,41 +8150,41 @@
       </c>
       <c r="J156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("ViewDestinosController.lblTitle"));</v>
+        <v>colIdentificacion.setText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
       </c>
       <c r="K156" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("ViewDestinosController.lblTitle"));</v>
+        <v>colIdentificacion.setPromptText(bundle.getString("SolicitudGuiaController.colIdentificacion"));</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="8"/>
-        <v>ViewPaquetesController.lblTitle</v>
+        <v>SolicitudGuiaController.colHorasExperiencia</v>
       </c>
       <c r="D157" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E157" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>ViewPaquetesController.lblTitle=Paquetes</v>
+        <v>SolicitudGuiaController.colHorasExperiencia=Horas de experiencia</v>
       </c>
       <c r="G157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>ViewPaquetesController.lblTitle=Packages</v>
+        <v>SolicitudGuiaController.colHorasExperiencia=Hours of experience</v>
       </c>
       <c r="H157" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("ViewPaquetesController.lblTitle")</v>
+        <v>bundle.getString("SolicitudGuiaController.colHorasExperiencia")</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="9"/>
@@ -8153,263 +8192,515 @@
       </c>
       <c r="J157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
+        <v>colHorasExperiencia.setText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
       </c>
       <c r="K157" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
+        <v>colHorasExperiencia.setPromptText(bundle.getString("SolicitudGuiaController.colHorasExperiencia"));</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="1" t="str">
-        <f>CONCATENATE(A158,".",B158)</f>
-        <v>EstadisticasController.lblTitle</v>
+        <v>62</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="8"/>
+        <v>SolicitudGuiaController.colIdiomas</v>
       </c>
       <c r="D158" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E158" t="s">
-        <v>372</v>
-      </c>
-      <c r="F158" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>EstadisticasController.lblTitle=ESTADÍSTICAS</v>
-      </c>
-      <c r="G158" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblTitle=STATISTICS</v>
-      </c>
-      <c r="H158" s="1" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("EstadisticasController.lblTitle")</v>
-      </c>
-      <c r="I158" s="1" t="str">
-        <f>""""</f>
-        <v>"</v>
-      </c>
-      <c r="J158" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setText(bundle.getString("EstadisticasController.lblTitle"));</v>
-      </c>
-      <c r="K158" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblTitle.setPromptText(bundle.getString("EstadisticasController.lblTitle"));</v>
+        <v>267</v>
+      </c>
+      <c r="F158" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>SolicitudGuiaController.colIdiomas=Idiomas</v>
+      </c>
+      <c r="G158" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>SolicitudGuiaController.colIdiomas=Languages</v>
+      </c>
+      <c r="H158" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("SolicitudGuiaController.colIdiomas")</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J158" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>colIdiomas.setText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
+      </c>
+      <c r="K158" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>colIdiomas.setPromptText(bundle.getString("SolicitudGuiaController.colIdiomas"));</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>250</v>
-      </c>
-      <c r="C159" s="1" t="str">
-        <f t="shared" ref="C159:C161" si="10">CONCATENATE(A159,".",B159)</f>
-        <v>EstadisticasController.lblDestinosReservados</v>
+        <v>233</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="8"/>
+        <v>SolicitudGuiaController.btnAceptar</v>
       </c>
       <c r="D159" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E159" t="s">
-        <v>373</v>
-      </c>
-      <c r="F159" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
-        <v>EstadisticasController.lblDestinosReservados=DESTINOS MAS RESERVADOS</v>
-      </c>
-      <c r="G159" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblDestinosReservados=MOST BOOKED DESTINATIONS</v>
-      </c>
-      <c r="H159" s="1" t="str">
-        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
-        <v>bundle.getString("EstadisticasController.lblDestinosReservados")</v>
-      </c>
-      <c r="I159" s="1" t="str">
-        <f t="shared" ref="I159:I162" si="11">""""</f>
-        <v>"</v>
-      </c>
-      <c r="J159" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDestinosReservados.setText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
-      </c>
-      <c r="K159" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
-        <v>lblDestinosReservados.setPromptText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
+        <v>364</v>
+      </c>
+      <c r="F159" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>SolicitudGuiaController.btnAceptar=ACEPTAR</v>
+      </c>
+      <c r="G159" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>SolicitudGuiaController.btnAceptar=ACCEPT</v>
+      </c>
+      <c r="H159" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("SolicitudGuiaController.btnAceptar")</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J159" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnAceptar.setText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
+      </c>
+      <c r="K159" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnAceptar.setPromptText(bundle.getString("SolicitudGuiaController.btnAceptar"));</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="8"/>
+        <v>SolicitudGuiaController.btnDenegar</v>
+      </c>
+      <c r="D160" t="s">
+        <v>232</v>
+      </c>
+      <c r="E160" t="s">
+        <v>365</v>
+      </c>
+      <c r="F160" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>SolicitudGuiaController.btnDenegar=DENEGAR</v>
+      </c>
+      <c r="G160" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>SolicitudGuiaController.btnDenegar=DENY</v>
+      </c>
+      <c r="H160" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("SolicitudGuiaController.btnDenegar")</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J160" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnDenegar.setText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
+      </c>
+      <c r="K160" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>btnDenegar.setPromptText(bundle.getString("SolicitudGuiaController.btnDenegar"));</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="8"/>
+        <v>ViewDestinosController.lblTitle</v>
+      </c>
+      <c r="D161" t="s">
+        <v>95</v>
+      </c>
+      <c r="E161" t="s">
+        <v>374</v>
+      </c>
+      <c r="F161" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ViewDestinosController.lblTitle=Destinos</v>
+      </c>
+      <c r="G161" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ViewDestinosController.lblTitle=Landings</v>
+      </c>
+      <c r="H161" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ViewDestinosController.lblTitle")</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J161" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setText(bundle.getString("ViewDestinosController.lblTitle"));</v>
+      </c>
+      <c r="K161" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setPromptText(bundle.getString("ViewDestinosController.lblTitle"));</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="8"/>
+        <v>ViewPaquetesController.lblTitle</v>
+      </c>
+      <c r="D162" t="s">
+        <v>94</v>
+      </c>
+      <c r="E162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ViewPaquetesController.lblTitle=Paquetes</v>
+      </c>
+      <c r="G162" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ViewPaquetesController.lblTitle=Packages</v>
+      </c>
+      <c r="H162" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ViewPaquetesController.lblTitle")</v>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="J162" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
+      </c>
+      <c r="K162" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setPromptText(bundle.getString("ViewPaquetesController.lblTitle"));</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>248</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f>CONCATENATE(A163,".",B163)</f>
+        <v>EstadisticasController.lblTitle</v>
+      </c>
+      <c r="D163" t="s">
+        <v>249</v>
+      </c>
+      <c r="E163" t="s">
+        <v>366</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblTitle=ESTADÍSTICAS</v>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblTitle=STATISTICS</v>
+      </c>
+      <c r="H163" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblTitle")</v>
+      </c>
+      <c r="I163" s="1" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="J163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setText(bundle.getString("EstadisticasController.lblTitle"));</v>
+      </c>
+      <c r="K163" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setPromptText(bundle.getString("EstadisticasController.lblTitle"));</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>248</v>
+      </c>
+      <c r="B164" t="s">
+        <v>250</v>
+      </c>
+      <c r="C164" s="1" t="str">
+        <f t="shared" ref="C164:C166" si="10">CONCATENATE(A164,".",B164)</f>
+        <v>EstadisticasController.lblDestinosReservados</v>
+      </c>
+      <c r="D164" t="s">
+        <v>251</v>
+      </c>
+      <c r="E164" t="s">
+        <v>378</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>EstadisticasController.lblDestinosReservados=DESTINOS MAS RESERVADOS</v>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblDestinosReservados=MOST BOOKED Landings</v>
+      </c>
+      <c r="H164" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("EstadisticasController.lblDestinosReservados")</v>
+      </c>
+      <c r="I164" s="1" t="str">
+        <f t="shared" ref="I164:I167" si="11">""""</f>
+        <v>"</v>
+      </c>
+      <c r="J164" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosReservados.setText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
+      </c>
+      <c r="K164" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblDestinosReservados.setPromptText(bundle.getString("EstadisticasController.lblDestinosReservados"));</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>248</v>
+      </c>
+      <c r="B165" t="s">
         <v>252</v>
       </c>
-      <c r="C160" s="1" t="str">
+      <c r="C165" s="1" t="str">
         <f t="shared" si="10"/>
         <v>EstadisticasController.lblDestinosBuscados</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D165" t="s">
         <v>253</v>
       </c>
-      <c r="E160" t="s">
-        <v>374</v>
-      </c>
-      <c r="F160" s="1" t="str">
+      <c r="E165" t="s">
+        <v>379</v>
+      </c>
+      <c r="F165" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblDestinosBuscados=DESTINOS MAS BUSCADOS</v>
       </c>
-      <c r="G160" s="1" t="str">
-        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
-        <v>EstadisticasController.lblDestinosBuscados=MOST SEARCHED DESTINATIONS</v>
-      </c>
-      <c r="H160" s="1" t="str">
+      <c r="G165" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>EstadisticasController.lblDestinosBuscados=MOST SEARCHED Landings</v>
+      </c>
+      <c r="H165" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("EstadisticasController.lblDestinosBuscados")</v>
       </c>
-      <c r="I160" s="1" t="str">
+      <c r="I165" s="1" t="str">
         <f t="shared" si="11"/>
         <v>"</v>
       </c>
-      <c r="J160" s="1" t="str">
+      <c r="J165" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDestinosBuscados.setText(bundle.getString("EstadisticasController.lblDestinosBuscados"));</v>
       </c>
-      <c r="K160" s="1" t="str">
+      <c r="K165" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblDestinosBuscados.setPromptText(bundle.getString("EstadisticasController.lblDestinosBuscados"));</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>248</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B166" t="s">
         <v>254</v>
       </c>
-      <c r="C161" s="1" t="str">
+      <c r="C166" s="1" t="str">
         <f t="shared" si="10"/>
         <v>EstadisticasController.lblGuiasPuntuados</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D166" t="s">
         <v>257</v>
       </c>
-      <c r="E161" t="s">
-        <v>375</v>
-      </c>
-      <c r="F161" s="1" t="str">
+      <c r="E166" t="s">
+        <v>367</v>
+      </c>
+      <c r="F166" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblGuiasPuntuados=GUIAS MEJOR PUNTUADOS</v>
       </c>
-      <c r="G161" s="1" t="str">
+      <c r="G166" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>EstadisticasController.lblGuiasPuntuados=TOP RATED GUIDES</v>
       </c>
-      <c r="H161" s="1" t="str">
+      <c r="H166" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("EstadisticasController.lblGuiasPuntuados")</v>
       </c>
-      <c r="I161" s="1" t="str">
+      <c r="I166" s="1" t="str">
         <f t="shared" si="11"/>
         <v>"</v>
       </c>
-      <c r="J161" s="1" t="str">
+      <c r="J166" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblGuiasPuntuados.setText(bundle.getString("EstadisticasController.lblGuiasPuntuados"));</v>
       </c>
-      <c r="K161" s="1" t="str">
+      <c r="K166" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblGuiasPuntuados.setPromptText(bundle.getString("EstadisticasController.lblGuiasPuntuados"));</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>248</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B167" t="s">
         <v>255</v>
       </c>
-      <c r="C162" s="1" t="str">
-        <f>CONCATENATE(A162,".",B162)</f>
+      <c r="C167" s="1" t="str">
+        <f>CONCATENATE(A167,".",B167)</f>
         <v>EstadisticasController.lblPaquetesReservados</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D167" t="s">
         <v>256</v>
       </c>
-      <c r="E162" t="s">
-        <v>376</v>
-      </c>
-      <c r="F162" s="1" t="str">
+      <c r="E167" t="s">
+        <v>368</v>
+      </c>
+      <c r="F167" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>EstadisticasController.lblPaquetesReservados=PAQUETES MAS RESERVADOS</v>
       </c>
-      <c r="G162" s="1" t="str">
+      <c r="G167" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>EstadisticasController.lblPaquetesReservados=MOST BOOKED PACKAGES</v>
       </c>
-      <c r="H162" s="1" t="str">
+      <c r="H167" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("EstadisticasController.lblPaquetesReservados")</v>
       </c>
-      <c r="I162" s="1" t="str">
+      <c r="I167" s="1" t="str">
         <f t="shared" si="11"/>
         <v>"</v>
       </c>
-      <c r="J162" s="1" t="str">
+      <c r="J167" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPaquetesReservados.setText(bundle.getString("EstadisticasController.lblPaquetesReservados"));</v>
       </c>
-      <c r="K162" s="1" t="str">
+      <c r="K167" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>lblPaquetesReservados.setPromptText(bundle.getString("EstadisticasController.lblPaquetesReservados"));</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>377</v>
-      </c>
-      <c r="B163" t="s">
-        <v>378</v>
-      </c>
-      <c r="C163" s="1" t="str">
-        <f>CONCATENATE(A163,".",B163)</f>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f>CONCATENATE(A168,".",B168)</f>
         <v>GuiaTuristicoController.txtDescription</v>
       </c>
-      <c r="D163" t="s">
-        <v>379</v>
-      </c>
-      <c r="E163" t="s">
-        <v>380</v>
-      </c>
-      <c r="F163" s="1" t="str">
+      <c r="D168" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" t="s">
+        <v>372</v>
+      </c>
+      <c r="F168" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
         <v>GuiaTuristicoController.txtDescription=Idiomas Hablados: %s\nExp Horas: %d</v>
       </c>
-      <c r="G163" s="1" t="str">
+      <c r="G168" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
         <v>GuiaTuristicoController.txtDescription=Languages Spoken: %s\nHours: %d</v>
       </c>
-      <c r="H163" s="1" t="str">
+      <c r="H168" s="1" t="str">
         <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
         <v>bundle.getString("GuiaTuristicoController.txtDescription")</v>
       </c>
-      <c r="I163" s="1" t="str">
+      <c r="I168" s="1" t="str">
         <f>""""</f>
         <v>"</v>
       </c>
-      <c r="J163" s="1" t="str">
+      <c r="J168" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDescription.setText(bundle.getString("GuiaTuristicoController.txtDescription"));</v>
       </c>
-      <c r="K163" s="1" t="str">
+      <c r="K168" s="1" t="str">
         <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
         <v>txtDescription.setPromptText(bundle.getString("GuiaTuristicoController.txtDescription"));</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>389</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f>CONCATENATE(A169,".",B169)</f>
+        <v>ViewGuiasController.lblTitle</v>
+      </c>
+      <c r="D169" t="s">
+        <v>390</v>
+      </c>
+      <c r="E169" t="s">
+        <v>391</v>
+      </c>
+      <c r="F169" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[Español]])</f>
+        <v>ViewGuiasController.lblTitle=Guias Turisticos</v>
+      </c>
+      <c r="G169" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[Codigo]],"=",Tabla1[[#This Row],[English]])</f>
+        <v>ViewGuiasController.lblTitle=Tourist Guides</v>
+      </c>
+      <c r="H169" s="1" t="str">
+        <f>CONCATENATE("bundle.getString(",Tabla1[[#This Row],[Comilla]],Tabla1[[#This Row],[Codigo]],Tabla1[[#This Row],[Comilla]],")")</f>
+        <v>bundle.getString("ViewGuiasController.lblTitle")</v>
+      </c>
+      <c r="I169" s="1" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+      <c r="J169" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setText(bundle.getString("ViewGuiasController.lblTitle"));</v>
+      </c>
+      <c r="K169" s="1" t="str">
+        <f>CONCATENATE(Tabla1[[#This Row],[ID]],".setPromptText(",Tabla1[[#This Row],[Bundle]],");")</f>
+        <v>lblTitle.setPromptText(bundle.getString("ViewGuiasController.lblTitle"));</v>
       </c>
     </row>
   </sheetData>
